--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4276" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D9E60FC-D122-4C08-860E-8609D8F5456E}"/>
+  <xr:revisionPtr revIDLastSave="4318" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{050532D3-04B0-4670-A7CB-C34869EF8E3A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="19" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="2019" sheetId="19" r:id="rId17"/>
     <sheet name="2020" sheetId="20" r:id="rId18"/>
     <sheet name="2021" sheetId="21" r:id="rId19"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId20"/>
-    <sheet name="YTD Wins-Losses" sheetId="22" r:id="rId21"/>
-    <sheet name="Winning Percentile Range" sheetId="23" r:id="rId22"/>
+    <sheet name="2022" sheetId="24" r:id="rId20"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId21"/>
+    <sheet name="YTD Wins-Losses" sheetId="25" r:id="rId22"/>
+    <sheet name="Winning Percentile Range" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="686">
   <si>
     <t>YEAR</t>
   </si>
@@ -2104,6 +2105,15 @@
   </si>
   <si>
     <t>7-6(5) 2-6 7-6(2)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>Priscilla Hon (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -2253,9 +2263,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Victória Azárenka (BELARUS): YTD Wins-Losses</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2321,10 +2334,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$20</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -2382,15 +2395,18 @@
                 <c:pt idx="18">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$20</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2448,12 +2464,15 @@
                 <c:pt idx="18">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD5A-48B8-8A2D-0F6A0CDF8EB0}"/>
+              <c16:uniqueId val="{00000000-71DD-46CE-99C2-AEED202BB03C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2483,10 +2502,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$20</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -2544,15 +2563,18 @@
                 <c:pt idx="18">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$20</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2610,12 +2632,15 @@
                 <c:pt idx="18">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD5A-48B8-8A2D-0F6A0CDF8EB0}"/>
+              <c16:uniqueId val="{00000001-71DD-46CE-99C2-AEED202BB03C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2629,11 +2654,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="71354976"/>
-        <c:axId val="71356224"/>
+        <c:axId val="345103008"/>
+        <c:axId val="345103840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71354976"/>
+        <c:axId val="345103008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,7 +2756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71356224"/>
+        <c:crossAx val="345103840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2739,7 +2764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71356224"/>
+        <c:axId val="345103840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,7 +2870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71354976"/>
+        <c:crossAx val="345103008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2954,12 +2979,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Victória Azárenka (BELARUS):</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Winning Percentile Range</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Victória Azárenka (BELARUS): Winning Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3055,10 +3078,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$20</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -3116,15 +3139,18 @@
                 <c:pt idx="18">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$20</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3182,13 +3208,16 @@
                 <c:pt idx="18">
                   <c:v>0.6785714285714286</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FF5-4384-A86C-EF939B1B55F2}"/>
+              <c16:uniqueId val="{00000000-612E-4513-8F98-8C2FED50EED7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3202,11 +3231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243828704"/>
-        <c:axId val="243824960"/>
+        <c:axId val="2025301408"/>
+        <c:axId val="2025299744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243828704"/>
+        <c:axId val="2025301408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,7 +3333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243824960"/>
+        <c:crossAx val="2025299744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3312,7 +3341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243824960"/>
+        <c:axId val="2025299744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3418,7 +3447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243828704"/>
+        <c:crossAx val="2025301408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4077,7 +4106,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4185,11 +4214,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4200,11 +4224,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4236,9 +4255,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4593,7 +4609,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{082DDB35-CC6B-4D9C-AAD7-D990489B9A88}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7AC1A474-8204-475C-908B-CC8E56467835}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4605,13 +4621,14 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B68D8E0A-A656-4395-A05B-81C95F267EED}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B2963B0D-3840-475D-9EAB-6F4DE3885C52}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4767,14 +4784,14 @@
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="9525"/>
-    <xdr:ext cx="8582025" cy="5829300"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8586716" cy="5842948"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F06EFF-0655-4643-8AF7-081BB3573C43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D624E60C-8FAF-4B9E-AAAC-D1B4DA4F87C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4801,13 +4818,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6AF0F7-1B43-432B-A4E0-3FA4663491E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4F927A-7066-448F-827B-82FF2B31FEBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11709,8 +11726,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12149,7 +12166,7 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E57" activeCellId="8" sqref="E5 E14 E22 E27 E34 E38 E42 E46 E57"/>
     </sheetView>
   </sheetViews>
@@ -13135,14 +13152,109 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E0110-AF35-4533-9647-D207A607A7DD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8319C28C-0EEA-4862-95BF-C791938968A5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A21 F1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13297,7 +13409,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:F20" si="0">(D7-E7)/D7</f>
+        <f t="shared" ref="F7:F21" si="0">(D7-E7)/D7</f>
         <v>0.5</v>
       </c>
     </row>
@@ -13575,57 +13687,78 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <f>SUM(B2:B20)</f>
-        <v>243</v>
-      </c>
-      <c r="C21" s="1">
-        <f>SUM(C2:C20)</f>
-        <v>21</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" ref="D21:E21" si="1">SUM(D2:D20)</f>
-        <v>551</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>211</v>
-      </c>
-      <c r="F21" s="9">
-        <f>(D21-E21)/D21</f>
-        <v>0.61705989110707804</v>
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8">
-        <f>AVERAGE(B2:B20)</f>
-        <v>12.789473684210526</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" ref="C22:E22" si="2">AVERAGE(C2:C20)</f>
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="2"/>
-        <v>11.105263157894736</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <f>SUM(B2:B21)</f>
+        <v>244</v>
+      </c>
+      <c r="C22" s="1">
+        <f>SUM(C2:C21)</f>
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM(D2:D21)</f>
+        <v>553</v>
+      </c>
+      <c r="E22" s="1">
+        <f>SUM(E2:E21)</f>
+        <v>212</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.61705989110707804</v>
+        <v>0.6166365280289331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8">
+        <f>AVERAGE(B2:B21)</f>
+        <v>12.2</v>
+      </c>
+      <c r="C23" s="8">
+        <f>AVERAGE(C2:C21)</f>
+        <v>1.05</v>
+      </c>
+      <c r="D23" s="8">
+        <f>AVERAGE(D2:D21)</f>
+        <v>27.65</v>
+      </c>
+      <c r="E23" s="8">
+        <f>AVERAGE(E2:E21)</f>
+        <v>10.6</v>
+      </c>
+      <c r="F23" s="9">
+        <f>(D23-E23)/D23</f>
+        <v>0.61663652802893298</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F20">
+  <conditionalFormatting sqref="F2:F21">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4318" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{050532D3-04B0-4670-A7CB-C34869EF8E3A}"/>
+  <xr:revisionPtr revIDLastSave="4346" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74271CF9-C190-4FAB-9E93-A7ADCEC3D952}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="689">
   <si>
     <t>YEAR</t>
   </si>
@@ -1861,9 +1861,6 @@
     <t>Viktória Kužmová (SLOVAKIA)</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>5-3 RETIRED</t>
   </si>
   <si>
@@ -2114,6 +2111,18 @@
   </si>
   <si>
     <t>Priscilla Hon (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Panna Udvardy (HUNGARY)</t>
+  </si>
+  <si>
+    <t>Jil Teichmann (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Elina Svitolina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2474,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2633,7 +2642,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3209,7 +3218,7 @@
                   <c:v>0.6785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4624,7 +4633,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B2963B0D-3840-475D-9EAB-6F4DE3885C52}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4785,7 +4794,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8586716" cy="5842948"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6720,7 +6729,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -7977,7 +7986,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -8789,7 +8798,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -9247,7 +9256,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -10038,7 +10047,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -10491,7 +10500,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10526,7 +10535,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -10931,7 +10940,7 @@
         <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>27</v>
@@ -10965,7 +10974,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>27</v>
@@ -10979,7 +10988,7 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -10999,7 +11008,7 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -11016,7 +11025,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -11067,7 +11076,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11081,18 +11090,18 @@
         <v>138</v>
       </c>
       <c r="D4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>606</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -11121,7 +11130,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11149,7 +11158,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -11163,18 +11172,18 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
+        <v>609</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>610</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -11183,7 +11192,7 @@
         <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -11223,7 +11232,7 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11242,7 +11251,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -11251,7 +11260,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -11299,7 +11308,7 @@
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11313,7 +11322,7 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11335,7 +11344,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -11389,7 +11398,7 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11423,7 +11432,7 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11457,7 +11466,7 @@
         <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11471,7 +11480,7 @@
         <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11485,7 +11494,7 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11499,7 +11508,7 @@
         <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -11601,7 +11610,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>27</v>
@@ -11615,7 +11624,7 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -11649,7 +11658,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>14</v>
@@ -11683,7 +11692,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>14</v>
@@ -11703,7 +11712,7 @@
         <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>14</v>
@@ -11726,8 +11735,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11762,7 +11771,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -11771,7 +11780,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -11782,7 +11791,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -11811,7 +11820,7 @@
         <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -11831,7 +11840,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11853,7 +11862,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -11873,7 +11882,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11901,7 +11910,7 @@
         <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -11915,7 +11924,7 @@
         <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -11929,7 +11938,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
@@ -11943,13 +11952,13 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11957,7 +11966,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -11977,7 +11986,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11991,7 +12000,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12011,7 +12020,7 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12019,7 +12028,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -12033,13 +12042,13 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12081,7 +12090,7 @@
         <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -12092,7 +12101,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -12101,7 +12110,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>27</v>
@@ -12115,7 +12124,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>27</v>
@@ -12129,7 +12138,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>27</v>
@@ -12143,7 +12152,7 @@
         <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -12166,8 +12175,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E57" activeCellId="8" sqref="E5 E14 E22 E27 E34 E38 E42 E46 E57"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12202,7 +12211,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -12211,13 +12220,13 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12245,7 +12254,7 @@
         <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -12279,7 +12288,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -12327,7 +12336,7 @@
         <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>27</v>
@@ -12355,13 +12364,13 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12381,7 +12390,7 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12389,7 +12398,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>449</v>
@@ -12415,7 +12424,7 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12423,7 +12432,7 @@
         <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
@@ -12457,12 +12466,12 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B24" t="s">
         <v>187</v>
@@ -12477,7 +12486,7 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12499,7 +12508,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
@@ -12513,7 +12522,7 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -12524,7 +12533,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B29" t="s">
         <v>187</v>
@@ -12533,7 +12542,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>27</v>
@@ -12553,7 +12562,7 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -12561,7 +12570,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>449</v>
@@ -12581,7 +12590,7 @@
         <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
@@ -12601,7 +12610,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12629,13 +12638,13 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -12643,7 +12652,7 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -12663,7 +12672,7 @@
         <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -12677,7 +12686,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -12691,7 +12700,7 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -12711,7 +12720,7 @@
         <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>27</v>
@@ -12725,13 +12734,13 @@
         <v>152</v>
       </c>
       <c r="D45" t="s">
+        <v>667</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
         <v>668</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -12745,12 +12754,12 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -12759,7 +12768,7 @@
         <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>27</v>
@@ -12773,13 +12782,13 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
+        <v>672</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
         <v>673</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -12798,7 +12807,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -12807,13 +12816,13 @@
         <v>152</v>
       </c>
       <c r="D52" t="s">
+        <v>675</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
         <v>676</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -12835,7 +12844,7 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>27</v>
@@ -12849,7 +12858,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>27</v>
@@ -12863,13 +12872,13 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -12877,13 +12886,13 @@
         <v>64</v>
       </c>
       <c r="D57" t="s">
+        <v>680</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
         <v>681</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -13156,18 +13165,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -13194,7 +13203,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -13203,7 +13212,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -13217,7 +13226,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -13231,13 +13240,75 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>685</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -13253,8 +13324,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A21 F1:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13691,20 +13762,20 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13713,7 +13784,7 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
@@ -13721,15 +13792,15 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.6166365280289331</v>
+        <v>0.61690647482014394</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13738,7 +13809,7 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>12.2</v>
+        <v>12.25</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>
@@ -13746,15 +13817,15 @@
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>27.65</v>
+        <v>27.8</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.6</v>
+        <v>10.65</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61663652802893298</v>
+        <v>0.61690647482014382</v>
       </c>
     </row>
   </sheetData>
@@ -14542,7 +14613,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -15295,7 +15366,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -17283,7 +17354,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -18272,7 +18343,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -19263,7 +19334,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4346" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74271CF9-C190-4FAB-9E93-A7ADCEC3D952}"/>
+  <xr:revisionPtr revIDLastSave="4397" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52A9F3CA-02A4-4B80-81FB-D94CBB461F61}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="698">
   <si>
     <t>YEAR</t>
   </si>
@@ -2123,6 +2123,33 @@
   </si>
   <si>
     <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Yulia Putintseva (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>5-7 6-2 7-5</t>
+  </si>
+  <si>
+    <t>Madison Brengle (USA)</t>
+  </si>
+  <si>
+    <t>Astra Sharma (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>6-4 2-6 7-6(5)</t>
+  </si>
+  <si>
+    <t>Linda Fruhvirtova (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>6-2 3-0 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2501,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,7 +2669,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,7 +3245,7 @@
                   <c:v>0.6785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12175,8 +12202,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13165,20 +13192,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13309,6 +13336,136 @@
       </c>
       <c r="F9" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>689</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>692</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>674</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>693</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>694</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>592</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>696</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -13324,8 +13481,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13762,20 +13919,20 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
         <v>5</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13784,7 +13941,7 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
@@ -13792,15 +13949,15 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.61690647482014394</v>
+        <v>0.61359570661896246</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13809,7 +13966,7 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>12.25</v>
+        <v>12.45</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>
@@ -13817,15 +13974,15 @@
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>27.8</v>
+        <v>27.95</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.65</v>
+        <v>10.8</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61690647482014382</v>
+        <v>0.61359570661896234</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4397" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52A9F3CA-02A4-4B80-81FB-D94CBB461F61}"/>
+  <xr:revisionPtr revIDLastSave="4405" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC1E39B-12CC-47EF-B9CA-8D488966F37A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="699">
   <si>
     <t>YEAR</t>
   </si>
@@ -2146,10 +2146,13 @@
     <t>6-4 2-6 7-6(5)</t>
   </si>
   <si>
-    <t>Linda Fruhvirtova (CZECH REPUBLIC)</t>
-  </si>
-  <si>
     <t>6-2 3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Viktorija Golubic (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Linda Fruhvirtová (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2504,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,7 +3248,7 @@
                   <c:v>0.6785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.375</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11762,8 +11765,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12202,8 +12205,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13192,10 +13195,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" activeCellId="5" sqref="E2:E3 E6:E8 E13 E16 E19 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13451,13 +13454,13 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
+        <v>698</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13466,6 +13469,23 @@
       </c>
       <c r="B22" t="s">
         <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>697</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -13481,8 +13501,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13919,20 +13939,20 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13941,7 +13961,7 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
@@ -13949,7 +13969,7 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
@@ -13957,7 +13977,7 @@
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.61359570661896246</v>
+        <v>0.61428571428571432</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13966,7 +13986,7 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>
@@ -13974,7 +13994,7 @@
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>27.95</v>
+        <v>28</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
@@ -13982,7 +14002,7 @@
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61359570661896234</v>
+        <v>0.61428571428571421</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4405" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC1E39B-12CC-47EF-B9CA-8D488966F37A}"/>
+  <xr:revisionPtr revIDLastSave="4410" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{884D05B6-4354-429D-9A6D-171C143ED507}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="700">
   <si>
     <t>YEAR</t>
   </si>
@@ -2153,6 +2153,9 @@
   </si>
   <si>
     <t>Linda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-3</t>
   </si>
 </sst>
 </file>
@@ -2504,7 +2507,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,7 +3251,7 @@
                   <c:v>0.6785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13195,10 +13198,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" activeCellId="5" sqref="E2:E3 E6:E8 E13 E16 E19 E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13479,6 +13482,9 @@
       <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -13486,6 +13492,17 @@
       </c>
       <c r="D23" t="s">
         <v>628</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -13501,7 +13518,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -13945,14 +13962,14 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13969,7 +13986,7 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
@@ -13977,7 +13994,7 @@
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.61428571428571432</v>
+        <v>0.61497326203208558</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -13994,7 +14011,7 @@
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>28</v>
+        <v>28.05</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
@@ -14002,7 +14019,7 @@
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61428571428571421</v>
+        <v>0.61497326203208558</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4410" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{884D05B6-4354-429D-9A6D-171C143ED507}"/>
+  <xr:revisionPtr revIDLastSave="4414" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E00560A-B459-4FCE-85E8-6FB61A2E0326}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="701">
   <si>
     <t>YEAR</t>
   </si>
@@ -2156,6 +2156,9 @@
   </si>
   <si>
     <t>3-6 6-1 6-3</t>
+  </si>
+  <si>
+    <t>Amanda Anisimova (USA)</t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2678,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,7 +3254,7 @@
                   <c:v>0.6785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13200,8 +13203,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13504,6 +13507,15 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
+      <c r="D24" t="s">
+        <v>700</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13518,7 +13530,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -13965,11 +13977,11 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13990,11 +14002,11 @@
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.61497326203208558</v>
+        <v>0.61319073083778963</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14015,11 +14027,11 @@
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.8</v>
+        <v>10.85</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61497326203208558</v>
+        <v>0.61319073083778974</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4414" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E00560A-B459-4FCE-85E8-6FB61A2E0326}"/>
+  <xr:revisionPtr revIDLastSave="4449" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0774B870-9E3F-42C4-9907-5F9C1C517149}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="707">
   <si>
     <t>YEAR</t>
   </si>
@@ -2159,6 +2159,24 @@
   </si>
   <si>
     <t>Amanda Anisimova (USA)</t>
+  </si>
+  <si>
+    <t>Camila Osorio (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>Ana Bogdan (ROMANIA)</t>
+  </si>
+  <si>
+    <t>6-7(9) 7-6(1) 6-2</t>
+  </si>
+  <si>
+    <t>Andrea Petkovic (GERMANY)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(3)</t>
+  </si>
+  <si>
+    <t>4-6 7-5 7-6(10-5)</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2528,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2678,7 +2696,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3254,7 +3272,7 @@
                   <c:v>0.6785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13201,10 +13219,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" activeCellId="7" sqref="E4 E9 E11 E17 E20 E24 E28 E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13214,7 +13232,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13515,6 +13533,102 @@
       </c>
       <c r="F24" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>697</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>701</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>638</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" t="s">
+        <v>702</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>704</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>686</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -13968,20 +14082,20 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -13990,7 +14104,7 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
@@ -13998,15 +14112,15 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.61319073083778963</v>
+        <v>0.61238938053097347</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14015,7 +14129,7 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>
@@ -14023,15 +14137,15 @@
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>28.05</v>
+        <v>28.25</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.85</v>
+        <v>10.95</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61319073083778974</v>
+        <v>0.61238938053097347</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4449" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0774B870-9E3F-42C4-9907-5F9C1C517149}"/>
+  <xr:revisionPtr revIDLastSave="4510" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB30E6C7-0CCE-4528-B584-6E51EF395AF9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="717">
   <si>
     <t>YEAR</t>
   </si>
@@ -2177,6 +2177,36 @@
   </si>
   <si>
     <t>4-6 7-5 7-6(10-5)</t>
+  </si>
+  <si>
+    <t>CITI OPEN</t>
+  </si>
+  <si>
+    <t>Dayana Yastremska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Xiyu Wang (CHINA)</t>
+  </si>
+  <si>
+    <t>Kaia Kanepi (ESTONIA)</t>
+  </si>
+  <si>
+    <t>Emma Raducanu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-3 4-6 6-3</t>
+  </si>
+  <si>
+    <t>Ashlyn Krueger (USA)</t>
+  </si>
+  <si>
+    <t>6-1 4-6 6-2</t>
+  </si>
+  <si>
+    <t>Marta Kostyuk (UKRAINE)</t>
+  </si>
+  <si>
+    <t>7-5 6-7(5) 6-2</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +2558,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,7 +2726,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3272,7 +3302,7 @@
                   <c:v>0.6785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11079,8 +11109,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12230,7 +12260,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A5" activeCellId="1" sqref="A2 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13219,10 +13249,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" activeCellId="7" sqref="E4 E9 E11 E17 E20 E24 E28 E32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" activeCellId="10" sqref="E4 E9 E11 E17 E20 E24 E28 E32 E36 E39 E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13629,6 +13659,150 @@
       </c>
       <c r="F32" t="s">
         <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>707</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>708</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>666</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>709</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>710</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>711</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>713</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" t="s">
+        <v>715</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>487</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -14082,20 +14256,20 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14104,7 +14278,7 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
@@ -14112,15 +14286,15 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.61238938053097347</v>
+        <v>0.6112084063047285</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14129,7 +14303,7 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>12.6</v>
+        <v>12.75</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>
@@ -14137,15 +14311,15 @@
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>28.25</v>
+        <v>28.55</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.95</v>
+        <v>11.1</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61238938053097347</v>
+        <v>0.61120840630472861</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4510" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB30E6C7-0CCE-4528-B584-6E51EF395AF9}"/>
+  <xr:revisionPtr revIDLastSave="4534" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9131204C-BEBB-4383-AEFA-0F090C3C2F6E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <sheet name="2021" sheetId="21" r:id="rId19"/>
     <sheet name="2022" sheetId="24" r:id="rId20"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId21"/>
-    <sheet name="YTD Wins-Losses" sheetId="25" r:id="rId22"/>
+    <sheet name="Wins-Losses" sheetId="25" r:id="rId22"/>
     <sheet name="Winning Percentile Range" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="723">
   <si>
     <t>YEAR</t>
   </si>
@@ -2207,6 +2207,24 @@
   </si>
   <si>
     <t>7-5 6-7(5) 6-2</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Elina Avanesyan (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Madison Keys (USA)</t>
+  </si>
+  <si>
+    <t>6-4 6-7(4) 6-1</t>
+  </si>
+  <si>
+    <t>Coco Gauff (USA)</t>
+  </si>
+  <si>
+    <t>7-6(2) 4-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2576,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,7 +2744,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,7 +3183,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3302,7 +3319,7 @@
                   <c:v>0.6785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.45</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13249,10 +13266,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" activeCellId="10" sqref="E4 E9 E11 E17 E20 E24 E28 E32 E36 E39 E44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E50" activeCellId="11" sqref="E4 E9 E11 E17 E20 E24 E28 E32 E36 E39 E44 E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13803,6 +13820,82 @@
       </c>
       <c r="F44" t="s">
         <v>716</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>717</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s">
+        <v>718</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>719</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>721</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>678</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -14256,20 +14349,20 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14278,7 +14371,7 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B2:B21)</f>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C22" s="1">
         <f>SUM(C2:C21)</f>
@@ -14286,15 +14379,15 @@
       </c>
       <c r="D22" s="1">
         <f>SUM(D2:D21)</f>
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(E2:E21)</f>
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F22" s="9">
         <f>(D22-E22)/D22</f>
-        <v>0.6112084063047285</v>
+        <v>0.61217391304347823</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14303,7 +14396,7 @@
       </c>
       <c r="B23" s="8">
         <f>AVERAGE(B2:B21)</f>
-        <v>12.75</v>
+        <v>12.8</v>
       </c>
       <c r="C23" s="8">
         <f>AVERAGE(C2:C21)</f>
@@ -14311,15 +14404,15 @@
       </c>
       <c r="D23" s="8">
         <f>AVERAGE(D2:D21)</f>
-        <v>28.55</v>
+        <v>28.75</v>
       </c>
       <c r="E23" s="8">
         <f>AVERAGE(E2:E21)</f>
-        <v>11.1</v>
+        <v>11.15</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61120840630472861</v>
+        <v>0.61217391304347835</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4534" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9131204C-BEBB-4383-AEFA-0F090C3C2F6E}"/>
+  <xr:revisionPtr revIDLastSave="4644" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2615AF-3E9A-4B28-B4CB-67077B19233B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -33,9 +33,10 @@
     <sheet name="2020" sheetId="20" r:id="rId18"/>
     <sheet name="2021" sheetId="21" r:id="rId19"/>
     <sheet name="2022" sheetId="24" r:id="rId20"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId21"/>
-    <sheet name="Wins-Losses" sheetId="25" r:id="rId22"/>
-    <sheet name="Winning Percentile Range" sheetId="26" r:id="rId23"/>
+    <sheet name="2023" sheetId="27" r:id="rId21"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId22"/>
+    <sheet name="Wins-Losses" sheetId="28" r:id="rId23"/>
+    <sheet name="Winning Percentile Range" sheetId="29" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="736">
   <si>
     <t>YEAR</t>
   </si>
@@ -2225,6 +2226,45 @@
   </si>
   <si>
     <t>7-6(2) 4-6 6-3</t>
+  </si>
+  <si>
+    <t>4-6 6-1 6-4</t>
+  </si>
+  <si>
+    <t>1-6 6-2 6-1</t>
+  </si>
+  <si>
+    <t>6-4 7-6(3)</t>
+  </si>
+  <si>
+    <t>2-6 7-6(4) 6-4</t>
+  </si>
+  <si>
+    <t>6-4 6-7(3) 7-6(6)</t>
+  </si>
+  <si>
+    <t>7-6(9) 7-6(5)</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Zheng Qinwen (CHINA)</t>
+  </si>
+  <si>
+    <t>Linda Nosková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 1</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 2</t>
+  </si>
+  <si>
+    <t>Zhu Lin (CHINA)</t>
+  </si>
+  <si>
+    <t>Nadia Podoroska (ARGENTINA)</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2347,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -2320,6 +2360,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2377,9 +2418,9 @@
               <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Victória Azárenka (BELARUS): YTD Wins-Losses</a:t>
+              <a:t>Victória Azárenka (BELARUS): Wins-Losses</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2445,10 +2486,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -2509,15 +2550,18 @@
                 <c:pt idx="19">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$21</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2578,12 +2622,15 @@
                 <c:pt idx="19">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71DD-46CE-99C2-AEED202BB03C}"/>
+              <c16:uniqueId val="{00000000-6188-430D-B512-93FE9FC7673C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2613,10 +2660,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -2677,15 +2724,18 @@
                 <c:pt idx="19">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$21</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2746,12 +2796,15 @@
                 <c:pt idx="19">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-71DD-46CE-99C2-AEED202BB03C}"/>
+              <c16:uniqueId val="{00000001-6188-430D-B512-93FE9FC7673C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2765,11 +2818,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="345103008"/>
-        <c:axId val="345103840"/>
+        <c:axId val="488244224"/>
+        <c:axId val="488262944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="345103008"/>
+        <c:axId val="488244224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,7 +2920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345103840"/>
+        <c:crossAx val="488262944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2875,7 +2928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345103840"/>
+        <c:axId val="488262944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,7 +3034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345103008"/>
+        <c:crossAx val="488244224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3095,7 +3148,7 @@
               </a:rPr>
               <a:t>Victória Azárenka (BELARUS): Winning Percentile Range</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3188,10 +3241,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -3252,15 +3305,18 @@
                 <c:pt idx="19">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$21</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3321,13 +3377,16 @@
                 <c:pt idx="19">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-612E-4513-8F98-8C2FED50EED7}"/>
+              <c16:uniqueId val="{00000001-9CFE-4954-833A-8482310AE2D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3341,11 +3400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2025301408"/>
-        <c:axId val="2025299744"/>
+        <c:axId val="1148970976"/>
+        <c:axId val="1148977216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2025301408"/>
+        <c:axId val="1148970976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2025299744"/>
+        <c:crossAx val="1148977216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3451,7 +3510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2025299744"/>
+        <c:axId val="1148977216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3557,7 +3616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2025301408"/>
+        <c:crossAx val="1148970976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4719,7 +4778,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7AC1A474-8204-475C-908B-CC8E56467835}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F28FE5CA-7275-4E52-BED5-FFE814E14E77}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4731,7 +4790,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B2963B0D-3840-475D-9EAB-6F4DE3885C52}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D1B526D-7EF2-4333-8870-2201971CB4C5}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4895,13 +4954,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D624E60C-8FAF-4B9E-AAAC-D1B4DA4F87C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA50FB3E-1515-00F0-A724-A863313C4554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4928,13 +4987,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8570360" cy="5830584"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4F927A-7066-448F-827B-82FF2B31FEBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C1595E-9571-88B1-12B4-399447506CA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6455,17 +6514,17 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6485,7 +6544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6505,7 +6564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6542,17 +6601,17 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6572,7 +6631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>371</v>
       </c>
@@ -6592,7 +6651,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -6606,7 +6665,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -6620,7 +6679,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -6634,7 +6693,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -6648,7 +6707,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -6668,7 +6727,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>152</v>
       </c>
@@ -6682,7 +6741,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6696,7 +6755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -6710,7 +6769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -6724,7 +6783,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -6738,7 +6797,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -6752,7 +6811,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>420</v>
       </c>
@@ -6772,7 +6831,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -6786,7 +6845,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -6800,7 +6859,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>38</v>
       </c>
@@ -6814,7 +6873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>64</v>
       </c>
@@ -6828,7 +6887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>674</v>
       </c>
@@ -6848,7 +6907,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6862,7 +6921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -6876,7 +6935,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -6890,7 +6949,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -6904,7 +6963,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -6918,7 +6977,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -6938,7 +6997,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -6952,7 +7011,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -6966,7 +7025,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -6980,7 +7039,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>322</v>
       </c>
@@ -7000,7 +7059,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -7014,7 +7073,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -7028,7 +7087,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>64</v>
       </c>
@@ -7042,7 +7101,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>344</v>
       </c>
@@ -7062,7 +7121,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -7076,7 +7135,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -7090,7 +7149,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -7104,7 +7163,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -7118,7 +7177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>64</v>
       </c>
@@ -7132,7 +7191,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -7152,7 +7211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>26</v>
       </c>
@@ -7166,7 +7225,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -7186,7 +7245,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>152</v>
       </c>
@@ -7200,7 +7259,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -7214,7 +7273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -7228,7 +7287,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -7248,7 +7307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>152</v>
       </c>
@@ -7262,7 +7321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7276,7 +7335,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -7290,7 +7349,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7304,7 +7363,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -7318,7 +7377,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -7338,7 +7397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>152</v>
       </c>
@@ -7352,7 +7411,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7366,7 +7425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>26</v>
       </c>
@@ -7380,7 +7439,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>25</v>
       </c>
@@ -7394,7 +7453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>38</v>
       </c>
@@ -7408,7 +7467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>313</v>
       </c>
@@ -7428,7 +7487,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -7448,7 +7507,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>152</v>
       </c>
@@ -7462,7 +7521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>12</v>
       </c>
@@ -7476,7 +7535,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>26</v>
       </c>
@@ -7490,7 +7549,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>25</v>
       </c>
@@ -7504,7 +7563,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>38</v>
       </c>
@@ -7518,7 +7577,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>64</v>
       </c>
@@ -7532,7 +7591,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>364</v>
       </c>
@@ -7552,7 +7611,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -7566,7 +7625,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -7580,7 +7639,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>366</v>
       </c>
@@ -7600,7 +7659,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>12</v>
       </c>
@@ -7614,7 +7673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>26</v>
       </c>
@@ -7628,7 +7687,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>25</v>
       </c>
@@ -7642,7 +7701,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>38</v>
       </c>
@@ -7656,7 +7715,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>64</v>
       </c>
@@ -7670,8 +7729,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>486</v>
       </c>
@@ -7691,7 +7750,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>26</v>
       </c>
@@ -7705,7 +7764,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>25</v>
       </c>
@@ -7719,7 +7778,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>38</v>
       </c>
@@ -7733,7 +7792,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>64</v>
       </c>
@@ -7747,7 +7806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>368</v>
       </c>
@@ -7767,7 +7826,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>369</v>
       </c>
@@ -7781,7 +7840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>369</v>
       </c>
@@ -7795,7 +7854,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>38</v>
       </c>
@@ -7827,17 +7886,17 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7857,7 +7916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -7877,7 +7936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -7891,7 +7950,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -7905,7 +7964,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -7925,7 +7984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>152</v>
       </c>
@@ -7939,7 +7998,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -7953,7 +8012,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -7967,7 +8026,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -7981,7 +8040,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -7995,7 +8054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>64</v>
       </c>
@@ -8009,7 +8068,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>420</v>
       </c>
@@ -8029,7 +8088,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -8043,7 +8102,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8057,7 +8116,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -8071,7 +8130,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -8085,7 +8144,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>674</v>
       </c>
@@ -8105,7 +8164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -8119,7 +8178,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -8133,7 +8192,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -8147,7 +8206,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>344</v>
       </c>
@@ -8167,7 +8226,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -8181,7 +8240,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -8201,7 +8260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -8215,7 +8274,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -8229,7 +8288,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -8243,7 +8302,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -8257,7 +8316,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -8277,7 +8336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>152</v>
       </c>
@@ -8291,7 +8350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -8305,7 +8364,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -8319,7 +8378,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -8333,7 +8392,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>38</v>
       </c>
@@ -8347,7 +8406,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -8367,7 +8426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>152</v>
       </c>
@@ -8381,7 +8440,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -8401,7 +8460,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8415,7 +8474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>38</v>
       </c>
@@ -8429,7 +8488,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>64</v>
       </c>
@@ -8443,7 +8502,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>357</v>
       </c>
@@ -8463,7 +8522,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -8477,7 +8536,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8491,7 +8550,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -8505,7 +8564,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>64</v>
       </c>
@@ -8519,7 +8578,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -8539,7 +8598,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>152</v>
       </c>
@@ -8553,7 +8612,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -8567,7 +8626,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>26</v>
       </c>
@@ -8581,7 +8640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8595,7 +8654,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>38</v>
       </c>
@@ -8609,7 +8668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>64</v>
       </c>
@@ -8623,7 +8682,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -8643,7 +8702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>366</v>
       </c>
@@ -8663,7 +8722,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>368</v>
       </c>
@@ -8683,7 +8742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>369</v>
       </c>
@@ -8697,7 +8756,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>369</v>
       </c>
@@ -8729,17 +8788,17 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8759,7 +8818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -8779,7 +8838,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -8793,7 +8852,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -8807,7 +8866,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>64</v>
       </c>
@@ -8821,7 +8880,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -8841,7 +8900,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>152</v>
       </c>
@@ -8855,7 +8914,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -8869,7 +8928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -8883,7 +8942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -8897,7 +8956,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>674</v>
       </c>
@@ -8917,7 +8976,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>309</v>
       </c>
@@ -8937,7 +8996,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>186</v>
       </c>
@@ -8957,7 +9016,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>152</v>
       </c>
@@ -8971,7 +9030,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -8991,7 +9050,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>313</v>
       </c>
@@ -9011,7 +9070,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -9025,7 +9084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9039,7 +9098,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>190</v>
       </c>
@@ -9059,7 +9118,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>138</v>
       </c>
@@ -9073,7 +9132,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -9087,7 +9146,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -9101,7 +9160,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -9115,7 +9174,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>364</v>
       </c>
@@ -9135,7 +9194,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -9167,17 +9226,17 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9197,7 +9256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -9217,7 +9276,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -9237,7 +9296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>152</v>
       </c>
@@ -9251,7 +9310,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -9265,7 +9324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -9279,7 +9338,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>420</v>
       </c>
@@ -9299,7 +9358,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9313,7 +9372,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9327,7 +9386,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>38</v>
       </c>
@@ -9341,7 +9400,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>64</v>
       </c>
@@ -9355,7 +9414,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>674</v>
       </c>
@@ -9375,7 +9434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9389,8 +9448,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -9410,7 +9469,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>152</v>
       </c>
@@ -9424,7 +9483,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -9438,7 +9497,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>344</v>
       </c>
@@ -9458,7 +9517,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -9472,7 +9531,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -9486,7 +9545,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -9506,7 +9565,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -9520,7 +9579,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -9534,7 +9593,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -9548,7 +9607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -9568,7 +9627,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>152</v>
       </c>
@@ -9582,7 +9641,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -9596,7 +9655,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>544</v>
       </c>
@@ -9616,7 +9675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -9630,7 +9689,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>186</v>
       </c>
@@ -9650,7 +9709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>152</v>
       </c>
@@ -9664,7 +9723,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -9678,7 +9737,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -9692,7 +9751,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -9706,7 +9765,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>313</v>
       </c>
@@ -9726,7 +9785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -9740,7 +9799,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -9754,7 +9813,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>357</v>
       </c>
@@ -9774,7 +9833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -9788,7 +9847,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -9802,7 +9861,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>190</v>
       </c>
@@ -9822,7 +9881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>152</v>
       </c>
@@ -9836,7 +9895,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -9850,7 +9909,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>26</v>
       </c>
@@ -9864,7 +9923,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -9878,7 +9937,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>553</v>
       </c>
@@ -9898,7 +9957,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -9930,17 +9989,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9960,7 +10019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -9980,7 +10039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -9994,7 +10053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -10008,7 +10067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -10022,7 +10081,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -10036,7 +10095,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -10056,7 +10115,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>152</v>
       </c>
@@ -10070,7 +10129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -10084,7 +10143,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -10098,7 +10157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -10112,7 +10171,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>561</v>
       </c>
@@ -10132,7 +10191,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -10146,7 +10205,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>674</v>
       </c>
@@ -10166,7 +10225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10180,7 +10239,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -10194,7 +10253,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -10208,7 +10267,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -10222,7 +10281,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>64</v>
       </c>
@@ -10236,7 +10295,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -10256,7 +10315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -10270,7 +10329,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -10284,7 +10343,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -10298,7 +10357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -10312,7 +10371,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>64</v>
       </c>
@@ -10326,7 +10385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>570</v>
       </c>
@@ -10343,7 +10402,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>573</v>
       </c>
@@ -10354,7 +10413,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>344</v>
       </c>
@@ -10374,7 +10433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -10388,7 +10447,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -10402,7 +10461,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -10422,7 +10481,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -10460,17 +10519,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10490,7 +10549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>577</v>
       </c>
@@ -10510,7 +10569,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10524,7 +10583,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -10544,7 +10603,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>152</v>
       </c>
@@ -10558,7 +10617,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10572,7 +10631,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10604,17 +10663,17 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10634,7 +10693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>674</v>
       </c>
@@ -10654,7 +10713,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>152</v>
       </c>
@@ -10668,7 +10727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -10688,7 +10747,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>152</v>
       </c>
@@ -10702,7 +10761,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10716,7 +10775,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10730,7 +10789,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -10744,7 +10803,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -10758,7 +10817,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>344</v>
       </c>
@@ -10778,7 +10837,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -10792,7 +10851,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -10812,7 +10871,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>179</v>
       </c>
@@ -10832,7 +10891,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>577</v>
       </c>
@@ -10852,7 +10911,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -10866,7 +10925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -10886,7 +10945,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>152</v>
       </c>
@@ -10900,7 +10959,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>593</v>
       </c>
@@ -10920,7 +10979,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -10934,7 +10993,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -10948,7 +11007,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -10968,7 +11027,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -10982,7 +11041,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>357</v>
       </c>
@@ -11002,7 +11061,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11016,7 +11075,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -11036,7 +11095,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>152</v>
       </c>
@@ -11050,7 +11109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -11064,7 +11123,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>364</v>
       </c>
@@ -11084,7 +11143,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -11098,7 +11157,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -11130,17 +11189,17 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11160,7 +11219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -11180,7 +11239,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -11200,7 +11259,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>607</v>
       </c>
@@ -11220,7 +11279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -11234,7 +11293,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>561</v>
       </c>
@@ -11254,7 +11313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -11268,7 +11327,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -11282,7 +11341,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>674</v>
       </c>
@@ -11302,7 +11361,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>152</v>
       </c>
@@ -11316,7 +11375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -11336,7 +11395,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>152</v>
       </c>
@@ -11350,7 +11409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>614</v>
       </c>
@@ -11370,7 +11429,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11384,7 +11443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -11398,7 +11457,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>38</v>
       </c>
@@ -11412,7 +11471,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>64</v>
       </c>
@@ -11426,7 +11485,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>570</v>
       </c>
@@ -11443,7 +11502,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>602</v>
       </c>
@@ -11454,7 +11513,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>322</v>
       </c>
@@ -11474,7 +11533,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -11488,7 +11547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -11502,7 +11561,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>344</v>
       </c>
@@ -11522,7 +11581,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11536,7 +11595,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -11556,7 +11615,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11570,7 +11629,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -11584,7 +11643,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -11598,7 +11657,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -11618,7 +11677,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>152</v>
       </c>
@@ -11632,7 +11691,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>577</v>
       </c>
@@ -11652,7 +11711,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -11672,7 +11731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>152</v>
       </c>
@@ -11686,7 +11745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -11700,7 +11759,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>593</v>
       </c>
@@ -11720,7 +11779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -11734,7 +11793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>313</v>
       </c>
@@ -11754,7 +11813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -11768,7 +11827,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>357</v>
       </c>
@@ -11788,7 +11847,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -11802,7 +11861,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -11840,17 +11899,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11870,7 +11929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>614</v>
       </c>
@@ -11890,7 +11949,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>629</v>
       </c>
@@ -11910,7 +11969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>357</v>
       </c>
@@ -11930,7 +11989,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -11944,7 +12003,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -11958,7 +12017,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -11972,7 +12031,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -11986,7 +12045,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>64</v>
       </c>
@@ -12000,7 +12059,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -12020,7 +12079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>152</v>
       </c>
@@ -12034,7 +12093,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -12048,7 +12107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -12062,7 +12121,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -12076,7 +12135,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>38</v>
       </c>
@@ -12090,7 +12149,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>64</v>
       </c>
@@ -12104,7 +12163,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -12124,7 +12183,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -12138,7 +12197,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -12152,7 +12211,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -12166,7 +12225,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -12186,7 +12245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>152</v>
       </c>
@@ -12200,7 +12259,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>643</v>
       </c>
@@ -12220,7 +12279,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -12234,7 +12293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -12248,7 +12307,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -12280,17 +12339,17 @@
       <selection activeCell="A5" activeCellId="1" sqref="A2 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12310,7 +12369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>646</v>
       </c>
@@ -12330,7 +12389,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -12344,7 +12403,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -12364,7 +12423,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>420</v>
       </c>
@@ -12384,7 +12443,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12398,7 +12457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12412,7 +12471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12426,7 +12485,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -12446,7 +12505,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -12460,7 +12519,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -12474,7 +12533,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>344</v>
       </c>
@@ -12494,7 +12553,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -12508,7 +12567,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>179</v>
       </c>
@@ -12528,7 +12587,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>152</v>
       </c>
@@ -12542,7 +12601,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -12556,7 +12615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -12570,7 +12629,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>655</v>
       </c>
@@ -12590,7 +12649,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -12604,7 +12663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -12618,7 +12677,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -12632,7 +12691,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>658</v>
       </c>
@@ -12652,7 +12711,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -12666,7 +12725,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -12680,7 +12739,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -12700,7 +12759,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>152</v>
       </c>
@@ -12714,7 +12773,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>313</v>
       </c>
@@ -12734,7 +12793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -12748,7 +12807,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -12762,7 +12821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>357</v>
       </c>
@@ -12782,7 +12841,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -12796,7 +12855,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>26</v>
       </c>
@@ -12810,7 +12869,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -12830,7 +12889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>152</v>
       </c>
@@ -12844,7 +12903,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -12858,7 +12917,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>670</v>
       </c>
@@ -12878,7 +12937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -12892,7 +12951,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -12906,7 +12965,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>674</v>
       </c>
@@ -12926,7 +12985,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -12940,7 +12999,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -12954,7 +13013,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -12968,7 +13027,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>38</v>
       </c>
@@ -12982,7 +13041,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>64</v>
       </c>
@@ -13013,17 +13072,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13043,7 +13102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13063,7 +13122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13077,7 +13136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13091,7 +13150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -13111,7 +13170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -13131,7 +13190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13145,7 +13204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -13159,7 +13218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -13173,7 +13232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -13193,7 +13252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -13207,7 +13266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -13227,7 +13286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -13241,7 +13300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -13269,20 +13328,20 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E50" activeCellId="11" sqref="E4 E9 E11 E17 E20 E24 E28 E32 E36 E39 E44 E50"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13302,7 +13361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>682</v>
       </c>
@@ -13322,7 +13381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13336,7 +13395,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13350,7 +13409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -13370,7 +13429,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>152</v>
       </c>
@@ -13384,7 +13443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -13398,7 +13457,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13412,7 +13471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>378</v>
       </c>
@@ -13432,7 +13491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>420</v>
       </c>
@@ -13452,7 +13511,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -13466,7 +13525,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>674</v>
       </c>
@@ -13486,7 +13545,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -13500,7 +13559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -13520,7 +13579,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -13534,7 +13593,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>344</v>
       </c>
@@ -13554,7 +13613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -13568,7 +13627,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -13582,7 +13641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -13602,7 +13661,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -13616,7 +13675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -13630,7 +13689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>179</v>
       </c>
@@ -13650,7 +13709,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>152</v>
       </c>
@@ -13664,7 +13723,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -13678,7 +13737,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>707</v>
       </c>
@@ -13698,7 +13757,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>26</v>
       </c>
@@ -13712,7 +13771,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -13726,7 +13785,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>357</v>
       </c>
@@ -13746,7 +13805,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -13760,7 +13819,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>190</v>
       </c>
@@ -13780,7 +13839,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>152</v>
       </c>
@@ -13794,7 +13853,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -13808,7 +13867,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -13822,7 +13881,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>717</v>
       </c>
@@ -13842,7 +13901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -13856,7 +13915,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>26</v>
       </c>
@@ -13870,7 +13929,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -13884,7 +13943,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>38</v>
       </c>
@@ -13905,27 +13964,233 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3B4524-1C9F-4DE6-AAC5-963C2B2E4E71}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" activeCellId="1" sqref="E2:E3 E8:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>731</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>689</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>735</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>734</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>678</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>694</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8319C28C-0EEA-4862-95BF-C791938968A5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13945,7 +14210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -13966,7 +14231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -13987,7 +14252,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -14008,7 +14273,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -14029,7 +14294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -14050,7 +14315,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -14067,11 +14332,11 @@
         <v>20</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:F21" si="0">(D7-E7)/D7</f>
+        <f t="shared" ref="F7:F22" si="0">(D7-E7)/D7</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -14092,7 +14357,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -14113,7 +14378,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -14134,7 +14399,7 @@
         <v>0.69811320754716977</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -14155,7 +14420,7 @@
         <v>0.85507246376811596</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -14176,7 +14441,7 @@
         <v>0.79069767441860461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -14197,7 +14462,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -14218,7 +14483,7 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -14239,7 +14504,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -14260,7 +14525,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -14281,7 +14546,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -14302,7 +14567,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -14323,7 +14588,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -14344,7 +14609,7 @@
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -14365,58 +14630,79 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2023</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
-        <f>SUM(B2:B21)</f>
-        <v>256</v>
-      </c>
-      <c r="C22" s="1">
-        <f>SUM(C2:C21)</f>
+      <c r="B23" s="1">
+        <f>SUM(B2:B22)</f>
+        <v>259</v>
+      </c>
+      <c r="C23" s="1">
+        <f>SUM(C2:C22)</f>
         <v>21</v>
       </c>
-      <c r="D22" s="1">
-        <f>SUM(D2:D21)</f>
-        <v>575</v>
-      </c>
-      <c r="E22" s="1">
-        <f>SUM(E2:E21)</f>
-        <v>223</v>
-      </c>
-      <c r="F22" s="9">
-        <f>(D22-E22)/D22</f>
-        <v>0.61217391304347823</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="8">
-        <f>AVERAGE(B2:B21)</f>
-        <v>12.8</v>
-      </c>
-      <c r="C23" s="8">
-        <f>AVERAGE(C2:C21)</f>
-        <v>1.05</v>
-      </c>
-      <c r="D23" s="8">
-        <f>AVERAGE(D2:D21)</f>
-        <v>28.75</v>
-      </c>
-      <c r="E23" s="8">
-        <f>AVERAGE(E2:E21)</f>
-        <v>11.15</v>
+      <c r="D23" s="1">
+        <f>SUM(D2:D22)</f>
+        <v>582</v>
+      </c>
+      <c r="E23" s="1">
+        <f>SUM(E2:E22)</f>
+        <v>226</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61217391304347835</v>
+        <v>0.61168384879725091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <f>AVERAGE(B2:B22)</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="C24" s="8">
+        <f>AVERAGE(C2:C22)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <f>AVERAGE(D2:D22)</f>
+        <v>27.714285714285715</v>
+      </c>
+      <c r="E24" s="8">
+        <f>AVERAGE(E2:E22)</f>
+        <v>10.761904761904763</v>
+      </c>
+      <c r="F24" s="9">
+        <f>(D24-E24)/D24</f>
+        <v>0.6116838487972508</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F21">
+  <conditionalFormatting sqref="F2:F22">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -14441,17 +14727,17 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14471,7 +14757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -14491,7 +14777,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -14505,7 +14791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -14519,7 +14805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -14539,7 +14825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -14553,7 +14839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -14567,7 +14853,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>38</v>
       </c>
@@ -14581,7 +14867,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -14595,7 +14881,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -14615,7 +14901,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -14629,7 +14915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -14643,7 +14929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>38</v>
       </c>
@@ -14657,7 +14943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -14677,7 +14963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>86</v>
       </c>
@@ -14691,7 +14977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -14705,7 +14991,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -14725,7 +15011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -14739,7 +15025,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -14753,7 +15039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>38</v>
       </c>
@@ -14767,7 +15053,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -14787,7 +15073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -14801,7 +15087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -14815,7 +15101,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -14829,7 +15115,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -14843,7 +15129,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -14863,7 +15149,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -14877,7 +15163,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>85</v>
       </c>
@@ -14891,7 +15177,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -14911,7 +15197,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -14931,7 +15217,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>86</v>
       </c>
@@ -14945,7 +15231,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -14959,7 +15245,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -14973,7 +15259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -14987,7 +15273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -15001,7 +15287,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -15038,17 +15324,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15068,7 +15354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -15088,7 +15374,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -15102,7 +15388,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -15122,7 +15408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -15136,7 +15422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -15150,7 +15436,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>138</v>
       </c>
@@ -15164,7 +15450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -15184,7 +15470,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -15198,7 +15484,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>674</v>
       </c>
@@ -15218,7 +15504,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>86</v>
       </c>
@@ -15232,7 +15518,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -15252,7 +15538,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>86</v>
       </c>
@@ -15266,7 +15552,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>138</v>
       </c>
@@ -15280,7 +15566,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>152</v>
       </c>
@@ -15294,7 +15580,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -15308,7 +15594,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -15328,7 +15614,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -15342,7 +15628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -15356,7 +15642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -15370,7 +15656,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -15390,7 +15676,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>86</v>
       </c>
@@ -15404,7 +15690,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>85</v>
       </c>
@@ -15418,7 +15704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -15432,7 +15718,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -15452,7 +15738,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -15466,7 +15752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>152</v>
       </c>
@@ -15480,7 +15766,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -15500,7 +15786,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -15514,7 +15800,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>85</v>
       </c>
@@ -15528,7 +15814,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>138</v>
       </c>
@@ -15542,7 +15828,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -15562,7 +15848,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -15582,7 +15868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -15602,7 +15888,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>152</v>
       </c>
@@ -15616,7 +15902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -15630,7 +15916,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>193</v>
       </c>
@@ -15650,7 +15936,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -15664,7 +15950,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -15678,7 +15964,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -15692,7 +15978,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -15712,7 +15998,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -15732,7 +16018,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -15746,7 +16032,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -15760,7 +16046,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -15774,7 +16060,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>64</v>
       </c>
@@ -15805,17 +16091,17 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15835,7 +16121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -15855,7 +16141,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -15869,7 +16155,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -15889,7 +16175,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>152</v>
       </c>
@@ -15903,7 +16189,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -15917,7 +16203,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -15937,7 +16223,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -15951,7 +16237,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>674</v>
       </c>
@@ -15971,7 +16257,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -15985,7 +16271,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>138</v>
       </c>
@@ -15999,7 +16285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>152</v>
       </c>
@@ -16013,7 +16299,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -16027,7 +16313,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -16047,7 +16333,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>152</v>
       </c>
@@ -16061,7 +16347,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -16075,7 +16361,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -16095,7 +16381,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -16115,7 +16401,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -16129,7 +16415,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -16143,7 +16429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -16157,7 +16443,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>64</v>
       </c>
@@ -16171,7 +16457,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -16191,7 +16477,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -16205,7 +16491,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -16219,7 +16505,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>38</v>
       </c>
@@ -16233,7 +16519,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -16253,7 +16539,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>245</v>
       </c>
@@ -16273,7 +16559,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -16293,7 +16579,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>152</v>
       </c>
@@ -16307,7 +16593,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -16321,7 +16607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -16341,7 +16627,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -16361,7 +16647,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -16375,7 +16661,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>256</v>
       </c>
@@ -16395,7 +16681,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -16409,7 +16695,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -16423,7 +16709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -16437,7 +16723,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -16457,7 +16743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>152</v>
       </c>
@@ -16471,7 +16757,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -16485,7 +16771,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -16499,7 +16785,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>264</v>
       </c>
@@ -16519,7 +16805,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -16533,7 +16819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -16547,7 +16833,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -16567,7 +16853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -16581,7 +16867,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -16595,7 +16881,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -16609,7 +16895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>64</v>
       </c>
@@ -16623,7 +16909,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>273</v>
       </c>
@@ -16643,7 +16929,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -16657,7 +16943,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -16688,17 +16974,17 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16718,7 +17004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -16738,7 +17024,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -16752,7 +17038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16766,7 +17052,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -16780,7 +17066,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -16794,7 +17080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -16814,7 +17100,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -16834,7 +17120,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>152</v>
       </c>
@@ -16848,7 +17134,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -16862,7 +17148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -16882,7 +17168,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -16902,7 +17188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -16916,7 +17202,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>231</v>
       </c>
@@ -16936,7 +17222,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -16950,7 +17236,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -16970,7 +17256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -16984,7 +17270,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -16998,7 +17284,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -17018,7 +17304,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -17032,7 +17318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -17046,7 +17332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -17060,7 +17346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -17074,7 +17360,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>300</v>
       </c>
@@ -17094,7 +17380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -17108,7 +17394,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>26</v>
       </c>
@@ -17122,7 +17408,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -17136,7 +17422,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -17150,7 +17436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -17170,7 +17456,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -17184,7 +17470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -17198,7 +17484,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>179</v>
       </c>
@@ -17218,7 +17504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>152</v>
       </c>
@@ -17232,7 +17518,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -17246,7 +17532,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -17260,7 +17546,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>309</v>
       </c>
@@ -17280,7 +17566,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -17300,7 +17586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>152</v>
       </c>
@@ -17314,7 +17600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -17328,7 +17614,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>256</v>
       </c>
@@ -17348,7 +17634,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -17362,7 +17648,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -17376,7 +17662,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>313</v>
       </c>
@@ -17396,7 +17682,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -17410,7 +17696,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -17424,7 +17710,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -17438,7 +17724,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>38</v>
       </c>
@@ -17452,7 +17738,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>317</v>
       </c>
@@ -17472,7 +17758,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -17486,7 +17772,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>26</v>
       </c>
@@ -17500,7 +17786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -17520,7 +17806,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>152</v>
       </c>
@@ -17534,7 +17820,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -17548,7 +17834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>322</v>
       </c>
@@ -17568,7 +17854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -17582,7 +17868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -17596,7 +17882,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -17610,7 +17896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>273</v>
       </c>
@@ -17630,7 +17916,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>383</v>
       </c>
@@ -17650,7 +17936,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -17664,7 +17950,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -17695,17 +17981,17 @@
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17725,7 +18011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -17745,7 +18031,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -17759,7 +18045,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -17773,7 +18059,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -17787,7 +18073,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -17801,7 +18087,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -17821,7 +18107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>152</v>
       </c>
@@ -17835,7 +18121,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -17849,7 +18135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -17863,7 +18149,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -17883,7 +18169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -17897,7 +18183,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -17911,7 +18197,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -17925,7 +18211,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -17939,7 +18225,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>674</v>
       </c>
@@ -17959,7 +18245,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -17973,7 +18259,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -17987,7 +18273,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -18001,7 +18287,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -18015,7 +18301,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -18035,7 +18321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -18049,7 +18335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -18063,7 +18349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -18077,7 +18363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -18091,7 +18377,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -18105,7 +18391,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -18125,7 +18411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -18139,7 +18425,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -18159,7 +18445,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -18173,7 +18459,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -18187,7 +18473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -18201,7 +18487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>344</v>
       </c>
@@ -18221,7 +18507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -18235,7 +18521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -18255,7 +18541,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>152</v>
       </c>
@@ -18269,7 +18555,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -18283,7 +18569,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -18297,7 +18583,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -18311,7 +18597,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -18331,7 +18617,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>152</v>
       </c>
@@ -18345,7 +18631,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -18359,7 +18645,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -18373,7 +18659,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -18387,7 +18673,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -18407,7 +18693,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>357</v>
       </c>
@@ -18427,7 +18713,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -18441,7 +18727,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -18455,7 +18741,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>313</v>
       </c>
@@ -18475,7 +18761,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -18489,7 +18775,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -18509,7 +18795,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>152</v>
       </c>
@@ -18523,7 +18809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -18537,7 +18823,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>364</v>
       </c>
@@ -18557,7 +18843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -18571,7 +18857,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18585,7 +18871,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>366</v>
       </c>
@@ -18605,7 +18891,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -18619,7 +18905,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>368</v>
       </c>
@@ -18639,7 +18925,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>369</v>
       </c>
@@ -18653,7 +18939,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>369</v>
       </c>
@@ -18684,17 +18970,17 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18714,7 +19000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>371</v>
       </c>
@@ -18734,7 +19020,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -18748,7 +19034,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -18762,7 +19048,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -18776,7 +19062,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -18796,7 +19082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>152</v>
       </c>
@@ -18810,7 +19096,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -18824,7 +19110,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -18838,7 +19124,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -18852,7 +19138,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -18872,7 +19158,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -18886,7 +19172,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -18900,7 +19186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -18914,7 +19200,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -18928,7 +19214,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>674</v>
       </c>
@@ -18948,7 +19234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -18962,7 +19248,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -18982,7 +19268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -18996,7 +19282,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -19010,7 +19296,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>384</v>
       </c>
@@ -19030,7 +19316,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -19044,7 +19330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -19058,7 +19344,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>293</v>
       </c>
@@ -19078,7 +19364,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -19098,7 +19384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -19112,7 +19398,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -19132,7 +19418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -19146,7 +19432,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>344</v>
       </c>
@@ -19166,7 +19452,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -19186,7 +19472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>309</v>
       </c>
@@ -19206,7 +19492,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>26</v>
       </c>
@@ -19220,7 +19506,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -19234,7 +19520,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>38</v>
       </c>
@@ -19248,7 +19534,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>64</v>
       </c>
@@ -19262,7 +19548,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>186</v>
       </c>
@@ -19282,7 +19568,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>152</v>
       </c>
@@ -19296,7 +19582,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -19310,7 +19596,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -19330,7 +19616,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>26</v>
       </c>
@@ -19344,7 +19630,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>25</v>
       </c>
@@ -19358,7 +19644,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>38</v>
       </c>
@@ -19372,7 +19658,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>64</v>
       </c>
@@ -19386,7 +19672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -19406,7 +19692,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>313</v>
       </c>
@@ -19426,7 +19712,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -19440,7 +19726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>26</v>
       </c>
@@ -19454,7 +19740,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>25</v>
       </c>
@@ -19468,7 +19754,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>38</v>
       </c>
@@ -19482,7 +19768,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -19502,7 +19788,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>152</v>
       </c>
@@ -19516,7 +19802,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -19536,7 +19822,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>26</v>
       </c>
@@ -19550,7 +19836,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -19564,7 +19850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>38</v>
       </c>
@@ -19578,7 +19864,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>366</v>
       </c>
@@ -19598,7 +19884,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>273</v>
       </c>
@@ -19618,7 +19904,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -19632,7 +19918,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>38</v>
       </c>
@@ -19646,7 +19932,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>64</v>
       </c>
@@ -19660,7 +19946,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>368</v>
       </c>
@@ -19680,7 +19966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>369</v>
       </c>
@@ -19694,7 +19980,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>369</v>
       </c>
@@ -19725,17 +20011,17 @@
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19755,7 +20041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>371</v>
       </c>
@@ -19775,7 +20061,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -19789,7 +20075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -19803,7 +20089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -19823,7 +20109,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>152</v>
       </c>
@@ -19837,7 +20123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -19851,7 +20137,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -19865,7 +20151,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>378</v>
       </c>
@@ -19885,7 +20171,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -19899,7 +20185,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>420</v>
       </c>
@@ -19919,7 +20205,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>674</v>
       </c>
@@ -19939,7 +20225,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -19953,7 +20239,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -19967,7 +20253,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -19981,7 +20267,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -20001,7 +20287,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -20015,7 +20301,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -20029,7 +20315,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -20043,7 +20329,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>38</v>
       </c>
@@ -20057,7 +20343,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>64</v>
       </c>
@@ -20071,7 +20357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>384</v>
       </c>
@@ -20091,7 +20377,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -20105,7 +20391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -20119,7 +20405,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -20133,7 +20419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -20147,7 +20433,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>322</v>
       </c>
@@ -20167,7 +20453,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>344</v>
       </c>
@@ -20187,7 +20473,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -20201,7 +20487,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -20215,7 +20501,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -20229,7 +20515,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>38</v>
       </c>
@@ -20243,7 +20529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>64</v>
       </c>
@@ -20257,7 +20543,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -20277,7 +20563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -20291,7 +20577,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -20305,7 +20591,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -20325,7 +20611,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>152</v>
       </c>
@@ -20339,7 +20625,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -20353,7 +20639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -20367,7 +20653,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -20381,7 +20667,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -20401,7 +20687,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>152</v>
       </c>
@@ -20415,7 +20701,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -20429,7 +20715,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -20443,7 +20729,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -20457,7 +20743,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>38</v>
       </c>
@@ -20471,7 +20757,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>249</v>
       </c>
@@ -20491,7 +20777,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -20511,7 +20797,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -20525,7 +20811,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -20539,7 +20825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -20553,7 +20839,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -20573,7 +20859,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>152</v>
       </c>
@@ -20587,7 +20873,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -20601,7 +20887,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>364</v>
       </c>
@@ -20621,7 +20907,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -20635,7 +20921,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -20649,7 +20935,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -20663,7 +20949,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>366</v>
       </c>
@@ -20683,7 +20969,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>26</v>
       </c>
@@ -20697,7 +20983,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>264</v>
       </c>
@@ -20717,7 +21003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>26</v>
       </c>
@@ -20731,7 +21017,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>25</v>
       </c>
@@ -20745,7 +21031,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>38</v>
       </c>
@@ -20759,7 +21045,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>64</v>
       </c>
@@ -20773,7 +21059,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>368</v>
       </c>
@@ -20793,7 +21079,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>369</v>
       </c>
@@ -20807,7 +21093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>369</v>
       </c>
@@ -20821,7 +21107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>38</v>
       </c>
@@ -20835,7 +21121,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>64</v>
       </c>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4644" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2615AF-3E9A-4B28-B4CB-67077B19233B}"/>
+  <xr:revisionPtr revIDLastSave="4678" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084D2462-742A-4729-A3CD-F0B1A31F4A4B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="741">
   <si>
     <t>YEAR</t>
   </si>
@@ -2249,9 +2249,6 @@
     <t>Anhelina Kalinina (UKRAINE)</t>
   </si>
   <si>
-    <t>Zheng Qinwen (CHINA)</t>
-  </si>
-  <si>
     <t>Linda Nosková (CZECH REPUBLIC)</t>
   </si>
   <si>
@@ -2265,6 +2262,24 @@
   </si>
   <si>
     <t>Nadia Podoroska (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>İpek Öz (TURKEY)</t>
+  </si>
+  <si>
+    <t>Belinda Bencic (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>1-6 7-6(4) 6-4</t>
+  </si>
+  <si>
+    <t>4-6 6-4 7-6(5)</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
   </si>
 </sst>
 </file>
@@ -2623,7 +2638,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2797,7 +2812,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3378,7 +3393,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6208,6 +6223,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9223,7 +9242,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10659,7 +10678,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -13968,15 +13987,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="E2:E3 E8:E12"/>
+      <selection activeCell="E13" activeCellId="2" sqref="E4 E6 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
@@ -14006,7 +14025,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -14030,7 +14049,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -14044,7 +14063,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -14055,7 +14074,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -14098,7 +14117,7 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -14126,7 +14145,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
@@ -14161,6 +14180,88 @@
       </c>
       <c r="F13" t="s">
         <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>735</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>736</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>737</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -14177,7 +14278,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14635,20 +14736,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14657,7 +14758,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -14665,15 +14766,15 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61168384879725091</v>
+        <v>0.61025641025641031</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14682,7 +14783,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.333333333333334</v>
+        <v>12.428571428571429</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -14690,15 +14791,15 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>27.714285714285715</v>
+        <v>27.857142857142858</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>10.761904761904763</v>
+        <v>10.857142857142858</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.6116838487972508</v>
+        <v>0.6102564102564102</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4678" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084D2462-742A-4729-A3CD-F0B1A31F4A4B}"/>
+  <xr:revisionPtr revIDLastSave="4697" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1AE28C-6B5F-4EDA-8668-097D83B5CBB1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="744">
   <si>
     <t>YEAR</t>
   </si>
@@ -2280,6 +2280,15 @@
   </si>
   <si>
     <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>7-6(1) 6-3</t>
+  </si>
+  <si>
+    <t>Camila Giorgi (ITALY)</t>
+  </si>
+  <si>
+    <t>7-6(3) 2-6 6-4</t>
   </si>
 </sst>
 </file>
@@ -2638,7 +2647,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,7 +2821,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3393,7 +3402,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6223,10 +6232,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11915,7 +11920,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13987,10 +13992,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" activeCellId="2" sqref="E4 E6 E13"/>
+      <selection activeCell="E25" activeCellId="6" sqref="E4 E6 E13 E16 E20 E22 E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13998,7 +14003,7 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -14262,6 +14267,60 @@
       </c>
       <c r="F20" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>674</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>637</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>742</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>675</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -14736,20 +14795,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14758,7 +14817,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -14766,15 +14825,15 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.61025641025641031</v>
+        <v>0.60750853242320824</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14783,7 +14842,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.428571428571429</v>
+        <v>12.523809523809524</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -14791,15 +14850,15 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>27.857142857142858</v>
+        <v>27.904761904761905</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>10.857142857142858</v>
+        <v>10.952380952380953</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.6102564102564102</v>
+        <v>0.60750853242320824</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4697" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1AE28C-6B5F-4EDA-8668-097D83B5CBB1}"/>
+  <xr:revisionPtr revIDLastSave="4710" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12C3A99A-E585-4CD8-9F41-7C9A6D4AF368}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="748">
   <si>
     <t>YEAR</t>
   </si>
@@ -2289,6 +2289,18 @@
   </si>
   <si>
     <t>7-6(3) 2-6 6-4</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>3-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-4 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -2647,7 +2659,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,7 +2833,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,7 +3414,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6232,6 +6244,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13992,10 +14008,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" activeCellId="6" sqref="E4 E6 E13 E16 E20 E22 E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" activeCellId="7" sqref="E4 E6 E13 E16 E20 E22 E25 E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14321,6 +14337,40 @@
       </c>
       <c r="F25" t="s">
         <v>743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>744</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>583</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>746</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -14795,20 +14845,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14817,7 +14867,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -14825,15 +14875,15 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.60750853242320824</v>
+        <v>0.60647359454855199</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14842,7 +14892,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.523809523809524</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -14850,15 +14900,15 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>27.904761904761905</v>
+        <v>27.952380952380953</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>10.952380952380953</v>
+        <v>11</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.60750853242320824</v>
+        <v>0.60647359454855199</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4710" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12C3A99A-E585-4CD8-9F41-7C9A6D4AF368}"/>
+  <xr:revisionPtr revIDLastSave="4720" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB11F209-9C6E-41F4-8E75-5B3888BCC85C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="14" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="750">
   <si>
     <t>YEAR</t>
   </si>
@@ -1091,9 +1091,6 @@
     <t>Ayumi Morita (JAPAN)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>4-6 6-2 6-2</t>
   </si>
   <si>
@@ -2301,6 +2298,15 @@
   </si>
   <si>
     <t>6-4 7-6(5)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Alycia Parks (USA)</t>
+  </si>
+  <si>
+    <t>6-2 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -2833,7 +2839,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,7 +3420,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4817,7 +4823,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F28FE5CA-7275-4E52-BED5-FFE814E14E77}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4829,7 +4835,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D1B526D-7EF2-4333-8870-2201971CB4C5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6550,18 +6556,18 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6637,18 +6643,18 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6673,7 +6679,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6682,7 +6688,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -6730,7 +6736,7 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6744,7 +6750,7 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6758,7 +6764,7 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -6786,7 +6792,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -6820,7 +6826,7 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6828,13 +6834,13 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6853,7 +6859,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -6862,7 +6868,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
@@ -6876,7 +6882,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -6890,7 +6896,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>27</v>
@@ -6929,7 +6935,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -6938,13 +6944,13 @@
         <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6966,7 +6972,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
@@ -6994,7 +7000,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
@@ -7028,7 +7034,7 @@
         <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>27</v>
@@ -7042,7 +7048,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>27</v>
@@ -7062,7 +7068,7 @@
         <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7090,13 +7096,13 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7104,13 +7110,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7143,7 +7149,7 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -7166,13 +7172,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7180,7 +7186,7 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -7200,7 +7206,7 @@
         <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7259,10 +7265,10 @@
         <v>196</v>
       </c>
       <c r="E47" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F47" t="s">
         <v>449</v>
-      </c>
-      <c r="F47" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7282,7 +7288,7 @@
         <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7290,7 +7296,7 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>27</v>
@@ -7324,7 +7330,7 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7338,7 +7344,7 @@
         <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>27</v>
@@ -7366,7 +7372,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>27</v>
@@ -7380,7 +7386,7 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>27</v>
@@ -7400,7 +7406,7 @@
         <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7414,7 +7420,7 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7442,13 +7448,13 @@
         <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -7456,7 +7462,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>27</v>
@@ -7476,7 +7482,7 @@
         <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7484,7 +7490,7 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>27</v>
@@ -7524,7 +7530,7 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7538,7 +7544,7 @@
         <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>27</v>
@@ -7552,7 +7558,7 @@
         <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>27</v>
@@ -7580,7 +7586,7 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>27</v>
@@ -7600,7 +7606,7 @@
         <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7614,7 +7620,7 @@
         <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7628,12 +7634,12 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -7656,7 +7662,7 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>27</v>
@@ -7670,18 +7676,18 @@
         <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E80" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F80" t="s">
         <v>449</v>
-      </c>
-      <c r="F80" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -7690,7 +7696,7 @@
         <v>152</v>
       </c>
       <c r="D82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>27</v>
@@ -7772,7 +7778,7 @@
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -7781,7 +7787,7 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>27</v>
@@ -7795,7 +7801,7 @@
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>27</v>
@@ -7809,7 +7815,7 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>27</v>
@@ -7823,7 +7829,7 @@
         <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>27</v>
@@ -7837,7 +7843,7 @@
         <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>27</v>
@@ -7848,13 +7854,13 @@
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D95" t="s">
         <v>279</v>
@@ -7863,12 +7869,12 @@
         <v>27</v>
       </c>
       <c r="F95" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D96" t="s">
         <v>288</v>
@@ -7882,16 +7888,16 @@
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D97" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.3">
@@ -7922,18 +7928,18 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7967,7 +7973,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -7995,13 +8001,13 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F4" t="s">
         <v>449</v>
-      </c>
-      <c r="F4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8043,13 +8049,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8077,7 +8083,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8085,7 +8091,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
@@ -8105,12 +8111,12 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -8133,7 +8139,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
@@ -8181,12 +8187,12 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -8209,7 +8215,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>27</v>
@@ -8223,7 +8229,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -8240,15 +8246,15 @@
         <v>321</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F23" t="s">
         <v>449</v>
-      </c>
-      <c r="F23" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -8263,7 +8269,7 @@
         <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -8271,13 +8277,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8291,7 +8297,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>27</v>
@@ -8311,7 +8317,7 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -8325,7 +8331,7 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -8339,7 +8345,7 @@
         <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -8381,7 +8387,7 @@
         <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
@@ -8395,13 +8401,13 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -8429,7 +8435,7 @@
         <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -8443,7 +8449,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8457,7 +8463,7 @@
         <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -8471,18 +8477,18 @@
         <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F42" t="s">
         <v>449</v>
-      </c>
-      <c r="F42" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -8505,7 +8511,7 @@
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>27</v>
@@ -8519,13 +8525,13 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -8544,7 +8550,7 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -8553,13 +8559,13 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -8567,7 +8573,7 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>27</v>
@@ -8587,7 +8593,7 @@
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8601,7 +8607,7 @@
         <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -8615,7 +8621,7 @@
         <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8629,7 +8635,7 @@
         <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>27</v>
@@ -8657,13 +8663,13 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8671,7 +8677,7 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>27</v>
@@ -8699,7 +8705,7 @@
         <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>27</v>
@@ -8719,12 +8725,12 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -8744,7 +8750,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -8753,24 +8759,24 @@
         <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D67" t="s">
         <v>279</v>
@@ -8784,7 +8790,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D68" t="s">
         <v>153</v>
@@ -8798,7 +8804,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D69" t="s">
         <v>292</v>
@@ -8824,18 +8830,18 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8883,13 +8889,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8903,7 +8909,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8931,7 +8937,7 @@
         <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -8945,7 +8951,7 @@
         <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -8959,7 +8965,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -8973,7 +8979,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -8993,12 +8999,12 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -9007,7 +9013,7 @@
         <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
@@ -9027,13 +9033,13 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>522</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9047,7 +9053,7 @@
         <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -9061,13 +9067,13 @@
         <v>152</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9087,7 +9093,7 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9101,13 +9107,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -9115,7 +9121,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
@@ -9149,7 +9155,7 @@
         <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
@@ -9163,13 +9169,13 @@
         <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9191,13 +9197,13 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
+        <v>525</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
         <v>526</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9205,7 +9211,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -9216,7 +9222,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -9225,13 +9231,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
@@ -9239,7 +9245,7 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -9262,18 +9268,18 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9313,7 +9319,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9327,7 +9333,7 @@
         <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>27</v>
@@ -9355,7 +9361,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -9375,12 +9381,12 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -9389,13 +9395,13 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9403,13 +9409,13 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9437,7 +9443,7 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9456,7 +9462,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -9465,7 +9471,7 @@
         <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
@@ -9479,7 +9485,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -9500,7 +9506,7 @@
         <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>27</v>
@@ -9528,18 +9534,18 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -9562,7 +9568,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
@@ -9582,7 +9588,7 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9596,13 +9602,13 @@
         <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -9616,7 +9622,7 @@
         <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9624,13 +9630,13 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9638,7 +9644,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -9658,7 +9664,7 @@
         <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>27</v>
@@ -9672,7 +9678,7 @@
         <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
@@ -9692,12 +9698,12 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B35" t="s">
         <v>187</v>
@@ -9720,13 +9726,13 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F36" t="s">
         <v>449</v>
-      </c>
-      <c r="F36" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9740,7 +9746,7 @@
         <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>27</v>
@@ -9754,7 +9760,7 @@
         <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>27</v>
@@ -9768,7 +9774,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -9782,7 +9788,7 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -9802,7 +9808,7 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9816,7 +9822,7 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>27</v>
@@ -9855,7 +9861,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -9864,7 +9870,7 @@
         <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>27</v>
@@ -9898,7 +9904,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9912,7 +9918,7 @@
         <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>27</v>
@@ -9926,7 +9932,7 @@
         <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>27</v>
@@ -9940,13 +9946,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -9968,18 +9974,18 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -9988,13 +9994,13 @@
         <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -10002,13 +10008,13 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
+        <v>553</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
         <v>554</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -10025,18 +10031,18 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10084,7 +10090,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -10098,7 +10104,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>27</v>
@@ -10112,13 +10118,13 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10126,7 +10132,7 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -10146,7 +10152,7 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -10160,7 +10166,7 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -10174,7 +10180,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -10188,7 +10194,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
@@ -10202,7 +10208,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
@@ -10213,7 +10219,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -10222,13 +10228,13 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -10239,15 +10245,15 @@
         <v>196</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F15" t="s">
         <v>449</v>
-      </c>
-      <c r="F15" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -10256,7 +10262,7 @@
         <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -10270,7 +10276,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>27</v>
@@ -10290,7 +10296,7 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10298,7 +10304,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
@@ -10318,7 +10324,7 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -10346,7 +10352,7 @@
         <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
@@ -10360,7 +10366,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>27</v>
@@ -10374,13 +10380,13 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -10388,7 +10394,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>27</v>
@@ -10402,7 +10408,7 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>27</v>
@@ -10427,24 +10433,24 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
@@ -10455,7 +10461,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -10464,7 +10470,7 @@
         <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>27</v>
@@ -10478,7 +10484,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
@@ -10492,13 +10498,13 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F36" t="s">
         <v>449</v>
-      </c>
-      <c r="F36" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10512,7 +10518,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -10538,7 +10544,7 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -10555,18 +10561,18 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10591,7 +10597,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s">
         <v>187</v>
@@ -10600,13 +10606,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10614,7 +10620,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -10634,13 +10640,13 @@
         <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10662,7 +10668,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -10676,13 +10682,13 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -10699,18 +10705,18 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10735,7 +10741,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -10744,7 +10750,7 @@
         <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -10758,7 +10764,7 @@
         <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -10778,7 +10784,7 @@
         <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
@@ -10792,13 +10798,13 @@
         <v>152</v>
       </c>
       <c r="D6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>585</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10806,13 +10812,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10848,18 +10854,18 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -10868,7 +10874,7 @@
         <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -10888,7 +10894,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10902,13 +10908,13 @@
         <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10922,18 +10928,18 @@
         <v>138</v>
       </c>
       <c r="D17" t="s">
+        <v>588</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>589</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B19" t="s">
         <v>187</v>
@@ -10942,13 +10948,13 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10976,13 +10982,13 @@
         <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11001,7 +11007,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -11016,7 +11022,7 @@
         <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -11024,7 +11030,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
@@ -11038,13 +11044,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11058,7 +11064,7 @@
         <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>27</v>
@@ -11072,7 +11078,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -11083,7 +11089,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -11098,7 +11104,7 @@
         <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -11106,7 +11112,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -11126,7 +11132,7 @@
         <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
@@ -11140,7 +11146,7 @@
         <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>27</v>
@@ -11154,7 +11160,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>14</v>
@@ -11165,7 +11171,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -11174,7 +11180,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>27</v>
@@ -11188,7 +11194,7 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -11202,13 +11208,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -11225,18 +11231,18 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11276,7 +11282,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11290,18 +11296,18 @@
         <v>138</v>
       </c>
       <c r="D4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>605</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -11310,7 +11316,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -11330,12 +11336,12 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -11344,7 +11350,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -11358,7 +11364,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -11372,18 +11378,18 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
+        <v>608</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>609</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -11392,7 +11398,7 @@
         <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -11432,7 +11438,7 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -11440,7 +11446,7 @@
         <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -11451,7 +11457,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -11460,7 +11466,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -11474,7 +11480,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
@@ -11502,13 +11508,13 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -11516,18 +11522,18 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -11544,13 +11550,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -11592,18 +11598,18 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -11612,7 +11618,7 @@
         <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
@@ -11626,13 +11632,13 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11646,7 +11652,7 @@
         <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
@@ -11660,13 +11666,13 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -11674,13 +11680,13 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -11694,7 +11700,7 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11708,7 +11714,7 @@
         <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -11722,7 +11728,7 @@
         <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -11733,7 +11739,7 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B43" t="s">
         <v>187</v>
@@ -11742,7 +11748,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -11762,7 +11768,7 @@
         <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>27</v>
@@ -11776,7 +11782,7 @@
         <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>27</v>
@@ -11790,7 +11796,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -11801,7 +11807,7 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -11810,7 +11816,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>27</v>
@@ -11824,7 +11830,7 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -11844,7 +11850,7 @@
         <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>27</v>
@@ -11858,18 +11864,18 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -11878,13 +11884,13 @@
         <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -11892,7 +11898,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>14</v>
@@ -11912,13 +11918,13 @@
         <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -11935,18 +11941,18 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11971,7 +11977,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -11980,7 +11986,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -11991,7 +11997,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -12011,7 +12017,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -12020,7 +12026,7 @@
         <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -12034,13 +12040,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -12048,7 +12054,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -12062,7 +12068,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -12076,13 +12082,13 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12090,13 +12096,13 @@
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12110,7 +12116,7 @@
         <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -12124,7 +12130,7 @@
         <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -12138,7 +12144,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
@@ -12152,13 +12158,13 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -12166,7 +12172,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -12186,7 +12192,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -12194,13 +12200,13 @@
         <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12220,7 +12226,7 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -12228,7 +12234,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -12242,13 +12248,13 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -12256,13 +12262,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12276,7 +12282,7 @@
         <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
@@ -12290,7 +12296,7 @@
         <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -12301,7 +12307,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -12310,7 +12316,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>27</v>
@@ -12324,7 +12330,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>27</v>
@@ -12338,7 +12344,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>27</v>
@@ -12352,7 +12358,7 @@
         <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
@@ -12375,18 +12381,18 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A2 A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12411,7 +12417,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -12420,13 +12426,13 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12434,13 +12440,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" t="s">
         <v>449</v>
-      </c>
-      <c r="F3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12454,7 +12460,7 @@
         <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -12465,7 +12471,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -12488,7 +12494,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -12502,7 +12508,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -12516,13 +12522,13 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" t="s">
         <v>449</v>
-      </c>
-      <c r="F10" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12536,13 +12542,13 @@
         <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -12550,7 +12556,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
@@ -12564,18 +12570,18 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -12584,13 +12590,13 @@
         <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -12598,13 +12604,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F17" t="s">
         <v>449</v>
-      </c>
-      <c r="F17" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12624,7 +12630,7 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -12632,7 +12638,7 @@
         <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
@@ -12646,7 +12652,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>27</v>
@@ -12666,12 +12672,12 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B24" t="s">
         <v>187</v>
@@ -12680,13 +12686,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -12694,7 +12700,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>27</v>
@@ -12708,7 +12714,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
@@ -12722,7 +12728,7 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -12733,7 +12739,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B29" t="s">
         <v>187</v>
@@ -12742,7 +12748,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>27</v>
@@ -12756,13 +12762,13 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -12770,13 +12776,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E31" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F31" t="s">
         <v>449</v>
-      </c>
-      <c r="F31" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12790,7 +12796,7 @@
         <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
@@ -12810,7 +12816,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12838,13 +12844,13 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -12852,7 +12858,7 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -12863,7 +12869,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -12872,7 +12878,7 @@
         <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -12886,7 +12892,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -12900,7 +12906,7 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
@@ -12920,7 +12926,7 @@
         <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>27</v>
@@ -12934,13 +12940,13 @@
         <v>152</v>
       </c>
       <c r="D45" t="s">
+        <v>666</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
         <v>667</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -12948,18 +12954,18 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -12968,7 +12974,7 @@
         <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>27</v>
@@ -12982,13 +12988,13 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
+        <v>671</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
         <v>672</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -12996,18 +13002,18 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E50" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F50" t="s">
         <v>449</v>
-      </c>
-      <c r="F50" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -13016,13 +13022,13 @@
         <v>152</v>
       </c>
       <c r="D52" t="s">
+        <v>674</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
         <v>675</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -13044,7 +13050,7 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>27</v>
@@ -13058,7 +13064,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>27</v>
@@ -13072,13 +13078,13 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -13086,13 +13092,13 @@
         <v>64</v>
       </c>
       <c r="D57" t="s">
+        <v>679</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
         <v>680</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -13108,18 +13114,18 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13367,18 +13373,18 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13403,7 +13409,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -13412,7 +13418,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -13426,7 +13432,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -13440,7 +13446,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -13460,7 +13466,7 @@
         <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -13474,7 +13480,7 @@
         <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -13488,7 +13494,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -13502,7 +13508,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -13513,7 +13519,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -13522,7 +13528,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -13533,7 +13539,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -13542,13 +13548,13 @@
         <v>152</v>
       </c>
       <c r="D13" t="s">
+        <v>689</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
         <v>690</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -13556,18 +13562,18 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F14" t="s">
         <v>449</v>
-      </c>
-      <c r="F14" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -13576,7 +13582,7 @@
         <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
@@ -13590,7 +13596,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -13610,13 +13616,13 @@
         <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13624,18 +13630,18 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -13644,7 +13650,7 @@
         <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -13658,13 +13664,13 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -13672,7 +13678,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -13692,7 +13698,7 @@
         <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
@@ -13706,7 +13712,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>27</v>
@@ -13720,7 +13726,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -13740,13 +13746,13 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
+        <v>701</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
         <v>702</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -13754,13 +13760,13 @@
         <v>152</v>
       </c>
       <c r="D31" t="s">
+        <v>703</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
         <v>704</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -13768,18 +13774,18 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -13788,7 +13794,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>27</v>
@@ -13802,13 +13808,13 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -13816,7 +13822,7 @@
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -13827,7 +13833,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -13836,13 +13842,13 @@
         <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -13850,7 +13856,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>14</v>
@@ -13870,13 +13876,13 @@
         <v>138</v>
       </c>
       <c r="D41" t="s">
+        <v>712</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
         <v>713</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -13884,7 +13890,7 @@
         <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>27</v>
@@ -13898,7 +13904,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>27</v>
@@ -13918,12 +13924,12 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -13932,7 +13938,7 @@
         <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>27</v>
@@ -13946,7 +13952,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>27</v>
@@ -13960,13 +13966,13 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
+        <v>718</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
         <v>719</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
@@ -13974,13 +13980,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
+        <v>720</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
         <v>721</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
@@ -13988,7 +13994,7 @@
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -14008,10 +14014,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" activeCellId="7" sqref="E4 E6 E13 E16 E20 E22 E25 E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14046,7 +14052,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -14055,13 +14061,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14070,7 +14076,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -14084,18 +14090,18 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -14104,13 +14110,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -14124,13 +14130,13 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -14138,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -14152,13 +14158,13 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -14166,13 +14172,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -14180,7 +14186,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -14194,18 +14200,18 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -14214,7 +14220,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
@@ -14228,18 +14234,18 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
+        <v>736</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
         <v>737</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -14262,13 +14268,13 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -14276,7 +14282,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -14287,7 +14293,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -14296,13 +14302,13 @@
         <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14316,7 +14322,7 @@
         <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
@@ -14330,18 +14336,18 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -14350,13 +14356,13 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -14364,13 +14370,33 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
+        <v>745</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
         <v>746</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>747</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -14387,17 +14413,17 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14845,7 +14871,7 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -14854,11 +14880,11 @@
         <v>12</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14867,7 +14893,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -14879,11 +14905,11 @@
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.60647359454855199</v>
+        <v>0.60477001703577515</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14892,7 +14918,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.571428571428571</v>
+        <v>12.619047619047619</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -14904,11 +14930,11 @@
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>11</v>
+        <v>11.047619047619047</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.60647359454855199</v>
+        <v>0.60477001703577515</v>
       </c>
     </row>
   </sheetData>
@@ -14933,18 +14959,18 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15530,18 +15556,18 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15696,7 +15722,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -16297,18 +16323,18 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16449,7 +16475,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -17180,18 +17206,18 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18128,7 +18154,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -18187,18 +18213,18 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18437,7 +18463,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -18699,7 +18725,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -18708,7 +18734,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -18728,7 +18754,7 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18742,7 +18768,7 @@
         <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>27</v>
@@ -18762,7 +18788,7 @@
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -18776,7 +18802,7 @@
         <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -18784,7 +18810,7 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>27</v>
@@ -18804,7 +18830,7 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18818,7 +18844,7 @@
         <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>27</v>
@@ -18832,7 +18858,7 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>27</v>
@@ -18852,7 +18878,7 @@
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -18866,7 +18892,7 @@
         <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -18900,12 +18926,12 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -18920,7 +18946,7 @@
         <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -18948,7 +18974,7 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18976,13 +19002,13 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18996,7 +19022,7 @@
         <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>27</v>
@@ -19010,7 +19036,7 @@
         <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>27</v>
@@ -19030,12 +19056,12 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -19078,12 +19104,12 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -19112,18 +19138,18 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
         <v>321</v>
@@ -19137,7 +19163,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D76" t="s">
         <v>188</v>
@@ -19146,12 +19172,12 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D77" t="s">
         <v>153</v>
@@ -19176,18 +19202,18 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -19212,7 +19238,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -19227,7 +19253,7 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19235,13 +19261,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19297,7 +19323,7 @@
         <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -19331,7 +19357,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -19345,12 +19371,12 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -19373,13 +19399,13 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19415,7 +19441,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -19426,7 +19452,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -19449,7 +19475,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -19469,7 +19495,7 @@
         <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -19497,7 +19523,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -19508,7 +19534,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -19517,7 +19543,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>27</v>
@@ -19531,7 +19557,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>27</v>
@@ -19545,13 +19571,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -19565,13 +19591,13 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
+        <v>387</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
         <v>388</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19585,7 +19611,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
@@ -19599,7 +19625,7 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -19619,7 +19645,7 @@
         <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>27</v>
@@ -19633,7 +19659,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -19644,7 +19670,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -19659,7 +19685,7 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19699,7 +19725,7 @@
         <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -19707,7 +19733,7 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>27</v>
@@ -19721,13 +19747,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -19749,7 +19775,7 @@
         <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>14</v>
@@ -19769,7 +19795,7 @@
         <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>27</v>
@@ -19783,7 +19809,7 @@
         <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>27</v>
@@ -19831,7 +19857,7 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>27</v>
@@ -19851,7 +19877,7 @@
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -19884,7 +19910,7 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -19893,13 +19919,13 @@
         <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -19955,13 +19981,13 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
+        <v>402</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
         <v>403</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -19975,7 +20001,7 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -19995,7 +20021,7 @@
         <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -20009,12 +20035,12 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -20051,7 +20077,7 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>27</v>
@@ -20071,12 +20097,12 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -20085,13 +20111,13 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20105,13 +20131,13 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -20119,7 +20145,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>27</v>
@@ -20133,7 +20159,7 @@
         <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>27</v>
@@ -20158,13 +20184,13 @@
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D81" t="s">
         <v>153</v>
@@ -20178,21 +20204,21 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D82" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D83" t="s">
         <v>226</v>
@@ -20201,7 +20227,7 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -20217,18 +20243,18 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -20253,7 +20279,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -20262,13 +20288,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20290,7 +20316,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -20324,7 +20350,7 @@
         <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -20363,7 +20389,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -20378,7 +20404,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -20386,18 +20412,18 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -20412,12 +20438,12 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -20426,7 +20452,7 @@
         <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
@@ -20440,13 +20466,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -20460,7 +20486,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -20474,7 +20500,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20488,13 +20514,13 @@
         <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -20508,7 +20534,7 @@
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -20530,7 +20556,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
@@ -20550,7 +20576,7 @@
         <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -20569,7 +20595,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -20578,7 +20604,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>27</v>
@@ -20612,7 +20638,7 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -20634,7 +20660,7 @@
         <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
@@ -20654,18 +20680,18 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
+        <v>430</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>431</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>344</v>
+        <v>747</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -20674,7 +20700,7 @@
         <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>27</v>
@@ -20702,13 +20728,13 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -20722,7 +20748,7 @@
         <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -20730,7 +20756,7 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>27</v>
@@ -20750,7 +20776,7 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -20784,7 +20810,7 @@
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -20798,7 +20824,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -20812,13 +20838,13 @@
         <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -20840,7 +20866,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>27</v>
@@ -20854,7 +20880,7 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>27</v>
@@ -20888,13 +20914,13 @@
         <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -20908,7 +20934,7 @@
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -20922,7 +20948,7 @@
         <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -20964,7 +20990,7 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20978,7 +21004,7 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>14</v>
@@ -20998,7 +21024,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>27</v>
@@ -21012,7 +21038,7 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>27</v>
@@ -21060,7 +21086,7 @@
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>27</v>
@@ -21099,7 +21125,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -21108,7 +21134,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>27</v>
@@ -21156,12 +21182,12 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -21170,13 +21196,13 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -21184,13 +21210,13 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
+        <v>447</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="F77" t="s">
         <v>449</v>
-      </c>
-      <c r="F77" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -21204,7 +21230,7 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>27</v>
@@ -21246,7 +21272,7 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>27</v>
@@ -21271,13 +21297,13 @@
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D85" t="s">
         <v>217</v>
@@ -21286,12 +21312,12 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D86" t="s">
         <v>279</v>
@@ -21305,10 +21331,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>27</v>
@@ -21322,7 +21348,7 @@
         <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>27</v>
@@ -21342,7 +21368,7 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4720" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB11F209-9C6E-41F4-8E75-5B3888BCC85C}"/>
+  <xr:revisionPtr revIDLastSave="4742" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15346862-0CA8-4AC1-B511-70FAD1EC0ADA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="14" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="752">
   <si>
     <t>YEAR</t>
   </si>
@@ -2307,6 +2307,12 @@
   </si>
   <si>
     <t>6-2 7-6(5)</t>
+  </si>
+  <si>
+    <t>Bianca Andreescu (CANADA)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 6-4</t>
   </si>
 </sst>
 </file>
@@ -2665,7 +2671,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,7 +2845,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,7 +3426,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4823,7 +4829,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F28FE5CA-7275-4E52-BED5-FFE814E14E77}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4835,7 +4841,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D1B526D-7EF2-4333-8870-2201971CB4C5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6556,7 +6562,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6643,7 +6649,7 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7928,7 +7934,7 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8830,7 +8836,7 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9268,7 +9274,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10031,7 +10037,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10561,7 +10567,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10705,7 +10711,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11231,7 +11237,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11941,7 +11947,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12381,7 +12387,7 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13114,7 +13120,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13373,7 +13379,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14014,10 +14020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" activeCellId="6" sqref="E2:E3 E8:E12 E15 E18:E19 E24 E27 E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14026,7 +14032,7 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14397,6 +14403,60 @@
       </c>
       <c r="F30" t="s">
         <v>749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>582</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>718</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F33" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>750</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -14413,7 +14473,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14871,20 +14931,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14893,7 +14953,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -14901,15 +14961,15 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.60477001703577515</v>
+        <v>0.6037414965986394</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14918,7 +14978,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.619047619047619</v>
+        <v>12.714285714285714</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -14926,15 +14986,15 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>27.952380952380953</v>
+        <v>28</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.047619047619047</v>
+        <v>11.095238095238095</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.60477001703577515</v>
+        <v>0.60374149659863952</v>
       </c>
     </row>
   </sheetData>
@@ -14959,7 +15019,7 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15556,7 +15616,7 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16323,7 +16383,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17206,7 +17266,7 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18213,7 +18273,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19202,7 +19262,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20243,7 +20303,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4742" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15346862-0CA8-4AC1-B511-70FAD1EC0ADA}"/>
+  <xr:revisionPtr revIDLastSave="4753" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37EA768-21EE-4BFD-AB7B-D53578294F2C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="754">
   <si>
     <t>YEAR</t>
   </si>
@@ -2313,6 +2313,12 @@
   </si>
   <si>
     <t>2-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>Natalija Stevanović (SERBIA)</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2677,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2845,7 +2851,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3426,7 +3432,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13380,7 +13386,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14020,10 +14026,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" activeCellId="6" sqref="E2:E3 E8:E12 E15 E18:E19 E24 E27 E32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" activeCellId="11" sqref="A2 A6 A8 A15 A18 A22 A24 A27 A30 A32 A35 A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14457,6 +14463,40 @@
       </c>
       <c r="F35" t="s">
         <v>751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>752</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>753</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>712</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -14931,20 +14971,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.23076923076923078</v>
+        <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14953,7 +14993,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -14961,15 +15001,15 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.6037414965986394</v>
+        <v>0.60271646859083194</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14978,7 +15018,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.714285714285714</v>
+        <v>12.761904761904763</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -14986,15 +15026,15 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>28</v>
+        <v>28.047619047619047</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.095238095238095</v>
+        <v>11.142857142857142</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.60374149659863952</v>
+        <v>0.60271646859083194</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4753" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37EA768-21EE-4BFD-AB7B-D53578294F2C}"/>
+  <xr:revisionPtr revIDLastSave="4761" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9770A8C5-2754-4A95-8D8A-CDCA6BB73627}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView minimized="1" xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="754">
   <si>
     <t>YEAR</t>
   </si>
@@ -2851,7 +2851,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,7 +3432,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12393,8 +12393,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13385,7 +13385,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -14026,10 +14026,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" activeCellId="11" sqref="A2 A6 A8 A15 A18 A22 A24 A27 A30 A32 A35 A37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" activeCellId="12" sqref="A2 A6 A8 A15 A18 A22 A24 A27 A30 A32 A35 A37 A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14497,6 +14497,26 @@
       </c>
       <c r="F38" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>654</v>
+      </c>
+      <c r="B40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>676</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -14971,7 +14991,7 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -14980,11 +15000,11 @@
         <v>14</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14993,7 +15013,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -15005,11 +15025,11 @@
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.60271646859083194</v>
+        <v>0.60101867572156198</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -15018,7 +15038,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.761904761904763</v>
+        <v>12.80952380952381</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -15030,11 +15050,11 @@
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.142857142857142</v>
+        <v>11.19047619047619</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.60271646859083194</v>
+        <v>0.60101867572156198</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4761" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9770A8C5-2754-4A95-8D8A-CDCA6BB73627}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4720" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB11F209-9C6E-41F4-8E75-5B3888BCC85C}"/>
+  <xr:revisionPtr revIDLastSave="4781" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80185503-620B-4236-8FE8-92E82FAD7779}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="14" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="757">
   <si>
     <t>YEAR</t>
   </si>
@@ -2307,6 +2307,27 @@
   </si>
   <si>
     <t>6-2 7-6(5)</t>
+  </si>
+  <si>
+    <t>Bianca Andreescu (CANADA)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>Natalija Stevanović (SERBIA)</t>
+  </si>
+  <si>
+    <t>Yue Yuan (CHINA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (RUSSIA)</t>
+  </si>
+  <si>
+    <t>2-6 6-4 7-6(11-9)</t>
   </si>
 </sst>
 </file>
@@ -2665,7 +2686,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,7 +2860,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,7 +3441,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25</c:v>
+                  <c:v>0.23529411764705882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4823,7 +4844,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F28FE5CA-7275-4E52-BED5-FFE814E14E77}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4835,7 +4856,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D1B526D-7EF2-4333-8870-2201971CB4C5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6250,10 +6271,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6556,7 +6573,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6643,7 +6660,7 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7928,7 +7945,7 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8830,7 +8847,7 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9268,7 +9285,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10031,7 +10048,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10561,7 +10578,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10705,7 +10722,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11231,7 +11248,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11941,7 +11958,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12381,8 +12398,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13114,7 +13131,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13373,8 +13390,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14014,10 +14031,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" activeCellId="8" sqref="E2:E3 E8:E12 E15 E18:E19 E24 E27 E32 E37 E42:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14026,7 +14043,7 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14397,6 +14414,176 @@
       </c>
       <c r="F30" t="s">
         <v>749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>582</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>718</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F33" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>750</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>752</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>753</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>712</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>654</v>
+      </c>
+      <c r="B40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>676</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>754</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
+        <v>733</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>755</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>686</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -14413,7 +14600,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14871,20 +15058,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.23529411764705882</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -14893,7 +15080,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -14901,15 +15088,15 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.60477001703577515</v>
+        <v>0.60135135135135132</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14918,7 +15105,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.619047619047619</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -14926,15 +15113,15 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>27.952380952380953</v>
+        <v>28.19047619047619</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.047619047619047</v>
+        <v>11.238095238095237</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.60477001703577515</v>
+        <v>0.60135135135135143</v>
       </c>
     </row>
   </sheetData>
@@ -14959,7 +15146,7 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15556,7 +15743,7 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16323,7 +16510,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17206,7 +17393,7 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18213,7 +18400,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19202,7 +19389,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20243,7 +20430,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4781" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80185503-620B-4236-8FE8-92E82FAD7779}"/>
+  <xr:revisionPtr revIDLastSave="4789" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FE6095-AC91-4A62-AFE0-F250271A02CD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="758">
   <si>
     <t>YEAR</t>
   </si>
@@ -2328,6 +2328,9 @@
   </si>
   <si>
     <t>2-6 6-4 7-6(11-9)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-4</t>
   </si>
 </sst>
 </file>
@@ -2860,7 +2863,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3441,7 +3444,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23529411764705882</c:v>
+                  <c:v>0.17647058823529413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6271,6 +6274,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14031,10 +14038,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" activeCellId="8" sqref="E2:E3 E8:E12 E15 E18:E19 E24 E27 E32 E37 E42:E44"/>
+      <selection activeCell="A47" activeCellId="14" sqref="A2 A6 A8 A15 A18 A22 A24 A27 A30 A32 A35 A37 A40 A42 A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14584,6 +14591,26 @@
       </c>
       <c r="F45" t="s">
         <v>756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>706</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>686</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -15058,7 +15085,7 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -15067,11 +15094,11 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.23529411764705882</v>
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15080,7 +15107,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -15092,11 +15119,11 @@
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.60135135135135132</v>
+        <v>0.59966216216216217</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -15105,7 +15132,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.857142857142858</v>
+        <v>12.904761904761905</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -15117,11 +15144,11 @@
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.238095238095237</v>
+        <v>11.285714285714286</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.60135135135135143</v>
+        <v>0.59966216216216217</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4789" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FE6095-AC91-4A62-AFE0-F250271A02CD}"/>
+  <xr:revisionPtr revIDLastSave="4799" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CAF66BF-A69A-47BB-8C91-05F340AC6431}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="759">
   <si>
     <t>YEAR</t>
   </si>
@@ -2331,6 +2331,9 @@
   </si>
   <si>
     <t>7-6(2) 6-4</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
   </si>
 </sst>
 </file>
@@ -2689,7 +2692,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3444,7 +3447,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14038,10 +14041,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" activeCellId="14" sqref="A2 A6 A8 A15 A18 A22 A24 A27 A30 A32 A35 A37 A40 A42 A47"/>
+      <selection activeCell="E47" activeCellId="13" sqref="E4 E6 E13 E16 E20 E22 E25 E28 E30 E35 E38 E40 E45 E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14613,6 +14616,40 @@
         <v>757</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>758</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="s">
+        <v>674</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>582</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F50" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
@@ -14627,7 +14664,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15085,20 +15122,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>14</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.17647058823529413</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15107,7 +15144,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -15115,7 +15152,7 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
@@ -15123,7 +15160,7 @@
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.59966216216216217</v>
+        <v>0.6003372681281619</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -15132,7 +15169,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.904761904761905</v>
+        <v>12.952380952380953</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -15140,7 +15177,7 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>28.19047619047619</v>
+        <v>28.238095238095237</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
@@ -15148,7 +15185,7 @@
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59966216216216217</v>
+        <v>0.60033726812816179</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4799" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CAF66BF-A69A-47BB-8C91-05F340AC6431}"/>
+  <xr:revisionPtr revIDLastSave="4811" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43C69B5-F14A-4229-BCE5-679469E1F65B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="760">
   <si>
     <t>YEAR</t>
   </si>
@@ -2334,6 +2334,9 @@
   </si>
   <si>
     <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-3 7-5 </t>
   </si>
 </sst>
 </file>
@@ -2692,7 +2695,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,7 +2869,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3447,7 +3450,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11969,7 +11972,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13400,8 +13403,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14041,10 +14044,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" activeCellId="13" sqref="E4 E6 E13 E16 E20 E22 E25 E28 E30 E35 E38 E40 E45 E47"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E52" activeCellId="10" sqref="E2:E3 E8:E12 E15 E18:E19 E24 E27 E32 E37 E42:E44 E49 E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14052,9 +14055,9 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14648,6 +14651,40 @@
       </c>
       <c r="F50" t="s">
         <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>356</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>644</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>623</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -14664,7 +14701,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15122,20 +15159,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.21052631578947367</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15144,7 +15181,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -15152,15 +15189,15 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.6003372681281619</v>
+        <v>0.59932659932659937</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -15169,7 +15206,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>12.952380952380953</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -15177,15 +15214,15 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>28.238095238095237</v>
+        <v>28.285714285714285</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.285714285714286</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.60033726812816179</v>
+        <v>0.59932659932659926</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4811" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43C69B5-F14A-4229-BCE5-679469E1F65B}"/>
+  <xr:revisionPtr revIDLastSave="4822" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB21996-C5EB-43CE-A94E-BB926D52987A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="761">
   <si>
     <t>YEAR</t>
   </si>
@@ -2337,6 +2337,9 @@
   </si>
   <si>
     <t xml:space="preserve">6-3 7-5 </t>
+  </si>
+  <si>
+    <t>Fiona Ferro (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -2695,7 +2698,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,7 +2872,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,7 +3453,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14044,10 +14047,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" activeCellId="10" sqref="E2:E3 E8:E12 E15 E18:E19 E24 E27 E32 E37 E42:E44 E49 E52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" activeCellId="17" sqref="A2 A6 A8 A15 A18 A22 A24 A27 A30 A32 A35 A37 A40 A42 A47 A49 A52 A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14685,6 +14688,40 @@
       </c>
       <c r="F53" t="s">
         <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
+        <v>760</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>732</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -15159,20 +15196,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15181,7 +15218,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -15189,15 +15226,15 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.59932659932659937</v>
+        <v>0.59831932773109242</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -15206,7 +15243,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>13</v>
+        <v>13.047619047619047</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -15214,15 +15251,15 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>28.285714285714285</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.333333333333334</v>
+        <v>11.380952380952381</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59932659932659926</v>
+        <v>0.59831932773109231</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4822" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB21996-C5EB-43CE-A94E-BB926D52987A}"/>
+  <xr:revisionPtr revIDLastSave="4847" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800580D1-6073-4856-AB38-5010D6E3D849}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="21" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="2021" sheetId="21" r:id="rId19"/>
     <sheet name="2022" sheetId="24" r:id="rId20"/>
     <sheet name="2023" sheetId="27" r:id="rId21"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId22"/>
+    <sheet name="Stats" sheetId="1" r:id="rId22"/>
     <sheet name="Wins-Losses" sheetId="28" r:id="rId23"/>
     <sheet name="Winning Percentile Range" sheetId="29" r:id="rId24"/>
   </sheets>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="764">
   <si>
     <t>YEAR</t>
   </si>
@@ -2340,6 +2340,15 @@
   </si>
   <si>
     <t>Fiona Ferro (FRANCE)</t>
+  </si>
+  <si>
+    <t>Robin Montgomery (USA)</t>
+  </si>
+  <si>
+    <t>Caroline Garcia (FRANCE)</t>
+  </si>
+  <si>
+    <t>5-7 6-1 6-2</t>
   </si>
 </sst>
 </file>
@@ -2540,7 +2549,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2561,7 +2570,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
+              <c:f>Stats!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2633,7 +2642,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$22</c:f>
+              <c:f>Stats!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2698,7 +2707,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2714,7 +2723,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2735,7 +2744,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
+              <c:f>Stats!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2807,7 +2816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$22</c:f>
+              <c:f>Stats!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2872,7 +2881,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,7 +3276,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3316,7 +3325,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
+              <c:f>Stats!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3388,7 +3397,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$22</c:f>
+              <c:f>Stats!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3453,7 +3462,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2</c:v>
+                  <c:v>0.2608695652173913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5062,7 +5071,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8570360" cy="5830584"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8863,8 +8872,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13406,8 +13415,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14047,10 +14056,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A55" activeCellId="17" sqref="A2 A6 A8 A15 A18 A22 A24 A27 A30 A32 A35 A37 A40 A42 A47 A49 A52 A55"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14724,6 +14733,88 @@
         <v>165</v>
       </c>
     </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>716</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" t="s">
+        <v>761</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>707</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>688</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>762</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>365</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" t="s">
+        <v>674</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>763</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
@@ -14737,7 +14828,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -15196,20 +15287,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15218,7 +15309,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B2:B22)</f>
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C2:C22)</f>
@@ -15226,15 +15317,15 @@
       </c>
       <c r="D23" s="1">
         <f>SUM(D2:D22)</f>
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F23" s="9">
         <f>(D23-E23)/D23</f>
-        <v>0.59831932773109242</v>
+        <v>0.59866220735785958</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -15243,7 +15334,7 @@
       </c>
       <c r="B24" s="8">
         <f>AVERAGE(B2:B22)</f>
-        <v>13.047619047619047</v>
+        <v>13.142857142857142</v>
       </c>
       <c r="C24" s="8">
         <f>AVERAGE(C2:C22)</f>
@@ -15251,15 +15342,15 @@
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D2:D22)</f>
-        <v>28.333333333333332</v>
+        <v>28.476190476190474</v>
       </c>
       <c r="E24" s="8">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.380952380952381</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59831932773109231</v>
+        <v>0.59866220735785947</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4861" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B15B63F6-A46C-4402-AB63-8B7DFF793F1F}"/>
+  <xr:revisionPtr revIDLastSave="4862" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5488D2AD-DED3-49C6-8BB0-8E2014E96D92}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -6289,10 +6289,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6596,20 +6592,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6629,7 +6625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6649,7 +6645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6683,20 +6679,20 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6716,7 +6712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -6736,7 +6732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -6750,7 +6746,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -6764,7 +6760,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -6778,7 +6774,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -6792,7 +6788,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -6812,7 +6808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -6826,7 +6822,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6840,7 +6836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -6854,7 +6850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -6868,7 +6864,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -6882,7 +6878,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -6896,7 +6892,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -6916,7 +6912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -6930,7 +6926,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -6944,7 +6940,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>38</v>
       </c>
@@ -6958,7 +6954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>64</v>
       </c>
@@ -6972,7 +6968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -6992,7 +6988,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -7006,7 +7002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -7020,7 +7016,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -7034,7 +7030,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -7048,7 +7044,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -7062,7 +7058,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -7082,7 +7078,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -7096,7 +7092,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -7110,7 +7106,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -7124,7 +7120,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -7144,7 +7140,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -7158,7 +7154,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -7172,7 +7168,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>64</v>
       </c>
@@ -7186,7 +7182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>746</v>
       </c>
@@ -7206,7 +7202,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -7220,7 +7216,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -7234,7 +7230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -7248,7 +7244,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -7262,7 +7258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>64</v>
       </c>
@@ -7276,7 +7272,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -7296,7 +7292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>26</v>
       </c>
@@ -7310,7 +7306,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7330,7 +7326,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -7344,7 +7340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -7358,7 +7354,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -7372,7 +7368,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -7392,7 +7388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>151</v>
       </c>
@@ -7406,7 +7402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7420,7 +7416,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -7434,7 +7430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7448,7 +7444,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -7462,7 +7458,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>316</v>
       </c>
@@ -7482,7 +7478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>151</v>
       </c>
@@ -7496,7 +7492,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7510,7 +7506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>26</v>
       </c>
@@ -7524,7 +7520,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>25</v>
       </c>
@@ -7538,7 +7534,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>38</v>
       </c>
@@ -7552,7 +7548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>312</v>
       </c>
@@ -7572,7 +7568,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -7592,7 +7588,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>151</v>
       </c>
@@ -7606,7 +7602,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>12</v>
       </c>
@@ -7620,7 +7616,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>26</v>
       </c>
@@ -7634,7 +7630,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>25</v>
       </c>
@@ -7648,7 +7644,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>38</v>
       </c>
@@ -7662,7 +7658,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>64</v>
       </c>
@@ -7676,7 +7672,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>362</v>
       </c>
@@ -7696,7 +7692,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -7710,7 +7706,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -7724,7 +7720,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>364</v>
       </c>
@@ -7744,7 +7740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>12</v>
       </c>
@@ -7758,7 +7754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>26</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>25</v>
       </c>
@@ -7786,7 +7782,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>38</v>
       </c>
@@ -7800,7 +7796,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>64</v>
       </c>
@@ -7814,8 +7810,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>484</v>
       </c>
@@ -7835,7 +7831,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>26</v>
       </c>
@@ -7849,7 +7845,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>25</v>
       </c>
@@ -7863,7 +7859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>38</v>
       </c>
@@ -7877,7 +7873,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>64</v>
       </c>
@@ -7891,7 +7887,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>366</v>
       </c>
@@ -7911,7 +7907,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>367</v>
       </c>
@@ -7925,7 +7921,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>367</v>
       </c>
@@ -7939,7 +7935,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>38</v>
       </c>
@@ -7968,20 +7964,20 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8001,7 +7997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -8021,7 +8017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -8035,7 +8031,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -8049,7 +8045,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -8069,7 +8065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -8083,7 +8079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -8097,7 +8093,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -8111,7 +8107,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -8125,7 +8121,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -8139,7 +8135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>64</v>
       </c>
@@ -8153,7 +8149,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -8173,7 +8169,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -8187,7 +8183,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8201,7 +8197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -8215,7 +8211,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -8229,7 +8225,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>672</v>
       </c>
@@ -8249,7 +8245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -8263,7 +8259,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -8277,7 +8273,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -8291,7 +8287,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>746</v>
       </c>
@@ -8311,7 +8307,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -8325,7 +8321,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -8345,7 +8341,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -8359,7 +8355,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -8373,7 +8369,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -8387,7 +8383,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -8401,7 +8397,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -8421,7 +8417,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>151</v>
       </c>
@@ -8435,7 +8431,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -8449,7 +8445,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -8463,7 +8459,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -8477,7 +8473,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>38</v>
       </c>
@@ -8491,7 +8487,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -8511,7 +8507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -8525,7 +8521,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>506</v>
       </c>
@@ -8545,7 +8541,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8559,7 +8555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>38</v>
       </c>
@@ -8573,7 +8569,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>64</v>
       </c>
@@ -8587,7 +8583,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>355</v>
       </c>
@@ -8607,7 +8603,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -8621,7 +8617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8635,7 +8631,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -8649,7 +8645,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>64</v>
       </c>
@@ -8663,7 +8659,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -8683,7 +8679,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -8697,7 +8693,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -8711,7 +8707,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>26</v>
       </c>
@@ -8725,7 +8721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8739,7 +8735,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>38</v>
       </c>
@@ -8753,7 +8749,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>64</v>
       </c>
@@ -8767,7 +8763,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -8787,7 +8783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -8807,7 +8803,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -8827,7 +8823,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>367</v>
       </c>
@@ -8841,7 +8837,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>367</v>
       </c>
@@ -8870,20 +8866,20 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8903,7 +8899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -8923,7 +8919,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -8951,7 +8947,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>64</v>
       </c>
@@ -8965,7 +8961,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -8985,7 +8981,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -8999,7 +8995,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -9013,7 +9009,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9027,7 +9023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9041,7 +9037,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -9061,7 +9057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>308</v>
       </c>
@@ -9081,7 +9077,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -9101,7 +9097,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>151</v>
       </c>
@@ -9115,7 +9111,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>248</v>
       </c>
@@ -9135,7 +9131,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -9155,7 +9151,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -9169,7 +9165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9183,7 +9179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -9203,7 +9199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>137</v>
       </c>
@@ -9217,7 +9213,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -9231,7 +9227,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -9245,7 +9241,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -9259,7 +9255,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>362</v>
       </c>
@@ -9279,7 +9275,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -9308,20 +9304,20 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9341,7 +9337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -9361,7 +9357,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -9381,7 +9377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>151</v>
       </c>
@@ -9395,7 +9391,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -9409,7 +9405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -9423,7 +9419,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>418</v>
       </c>
@@ -9443,7 +9439,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9457,7 +9453,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9471,7 +9467,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>38</v>
       </c>
@@ -9485,7 +9481,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>64</v>
       </c>
@@ -9499,7 +9495,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>672</v>
       </c>
@@ -9519,7 +9515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9533,8 +9529,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -9554,7 +9550,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -9568,7 +9564,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -9582,7 +9578,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -9602,7 +9598,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -9616,7 +9612,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -9630,7 +9626,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -9650,7 +9646,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -9664,7 +9660,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -9678,7 +9674,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -9692,7 +9688,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -9712,7 +9708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>151</v>
       </c>
@@ -9726,7 +9722,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -9740,7 +9736,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>542</v>
       </c>
@@ -9760,7 +9756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -9774,7 +9770,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -9794,7 +9790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>151</v>
       </c>
@@ -9808,7 +9804,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -9836,7 +9832,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -9850,7 +9846,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>312</v>
       </c>
@@ -9870,7 +9866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -9884,7 +9880,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -9898,7 +9894,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -9918,7 +9914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -9932,7 +9928,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -9946,7 +9942,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -9966,7 +9962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>151</v>
       </c>
@@ -9980,7 +9976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -9994,7 +9990,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>26</v>
       </c>
@@ -10008,7 +10004,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -10022,7 +10018,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>551</v>
       </c>
@@ -10042,7 +10038,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -10071,20 +10067,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10104,7 +10100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -10124,7 +10120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10138,7 +10134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -10152,7 +10148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -10180,7 +10176,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -10200,7 +10196,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -10214,7 +10210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -10228,7 +10224,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -10242,7 +10238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -10256,7 +10252,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>559</v>
       </c>
@@ -10276,7 +10272,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -10290,7 +10286,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>672</v>
       </c>
@@ -10310,7 +10306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10324,7 +10320,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -10338,7 +10334,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -10352,7 +10348,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -10366,7 +10362,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>64</v>
       </c>
@@ -10380,7 +10376,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -10400,7 +10396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -10414,7 +10410,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -10428,7 +10424,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -10442,7 +10438,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -10456,7 +10452,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>64</v>
       </c>
@@ -10470,7 +10466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>568</v>
       </c>
@@ -10487,7 +10483,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>571</v>
       </c>
@@ -10498,7 +10494,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>746</v>
       </c>
@@ -10518,7 +10514,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -10532,7 +10528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -10546,7 +10542,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -10566,7 +10562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -10601,20 +10597,20 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>575</v>
       </c>
@@ -10654,7 +10650,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10668,7 +10664,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -10688,7 +10684,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10702,7 +10698,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10716,7 +10712,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10745,20 +10741,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10778,7 +10774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -10798,7 +10794,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>151</v>
       </c>
@@ -10812,7 +10808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -10832,7 +10828,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10846,7 +10842,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10860,7 +10856,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10874,7 +10870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -10888,7 +10884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -10902,7 +10898,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>746</v>
       </c>
@@ -10922,7 +10918,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -10936,7 +10932,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -10956,7 +10952,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -10976,7 +10972,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>575</v>
       </c>
@@ -10996,7 +10992,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11010,7 +11006,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -11030,7 +11026,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>151</v>
       </c>
@@ -11044,7 +11040,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>591</v>
       </c>
@@ -11064,7 +11060,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -11078,7 +11074,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -11092,7 +11088,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -11112,7 +11108,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11126,7 +11122,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -11146,7 +11142,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11160,7 +11156,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -11180,7 +11176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>151</v>
       </c>
@@ -11194,7 +11190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -11208,7 +11204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>362</v>
       </c>
@@ -11228,7 +11224,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -11242,7 +11238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -11271,20 +11267,20 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11304,7 +11300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -11324,7 +11320,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -11344,7 +11340,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>605</v>
       </c>
@@ -11364,7 +11360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -11378,7 +11374,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>559</v>
       </c>
@@ -11398,7 +11394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -11412,7 +11408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -11426,7 +11422,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -11446,7 +11442,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -11460,7 +11456,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -11480,7 +11476,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>151</v>
       </c>
@@ -11494,7 +11490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>612</v>
       </c>
@@ -11514,7 +11510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11528,7 +11524,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -11542,7 +11538,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>38</v>
       </c>
@@ -11556,7 +11552,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>64</v>
       </c>
@@ -11570,7 +11566,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>568</v>
       </c>
@@ -11587,7 +11583,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>600</v>
       </c>
@@ -11598,7 +11594,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -11618,7 +11614,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -11632,7 +11628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -11646,7 +11642,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>746</v>
       </c>
@@ -11666,7 +11662,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11680,7 +11676,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -11700,7 +11696,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11714,7 +11710,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -11728,7 +11724,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -11742,7 +11738,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -11762,7 +11758,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>151</v>
       </c>
@@ -11776,7 +11772,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>575</v>
       </c>
@@ -11796,7 +11792,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>185</v>
       </c>
@@ -11816,7 +11812,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -11830,7 +11826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -11844,7 +11840,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>591</v>
       </c>
@@ -11864,7 +11860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -11878,7 +11874,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -11898,7 +11894,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -11912,7 +11908,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -11932,7 +11928,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -11946,7 +11942,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>189</v>
       </c>
@@ -11981,20 +11977,20 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12014,7 +12010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -12034,7 +12030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>627</v>
       </c>
@@ -12054,7 +12050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -12074,7 +12070,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -12088,7 +12084,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12102,7 +12098,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12116,7 +12112,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12130,7 +12126,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>64</v>
       </c>
@@ -12144,7 +12140,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -12164,7 +12160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -12178,7 +12174,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -12192,7 +12188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -12206,7 +12202,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -12220,7 +12216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>38</v>
       </c>
@@ -12234,7 +12230,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>64</v>
       </c>
@@ -12248,7 +12244,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -12265,7 +12261,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -12279,7 +12275,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -12293,7 +12289,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -12307,7 +12303,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -12327,7 +12323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>151</v>
       </c>
@@ -12341,7 +12337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>641</v>
       </c>
@@ -12361,7 +12357,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -12375,7 +12371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -12389,7 +12385,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -12418,20 +12414,20 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12451,7 +12447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>644</v>
       </c>
@@ -12471,7 +12467,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -12485,7 +12481,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12505,7 +12501,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -12525,7 +12521,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12539,7 +12535,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12553,7 +12549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12567,7 +12563,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -12587,7 +12583,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -12601,7 +12597,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -12615,7 +12611,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>746</v>
       </c>
@@ -12635,7 +12631,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -12649,7 +12645,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -12669,7 +12665,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>151</v>
       </c>
@@ -12683,7 +12679,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -12697,7 +12693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -12711,7 +12707,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -12731,7 +12727,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -12745,7 +12741,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -12759,7 +12755,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -12773,7 +12769,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>656</v>
       </c>
@@ -12793,7 +12789,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -12807,7 +12803,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -12821,7 +12817,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -12841,7 +12837,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -12855,7 +12851,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>312</v>
       </c>
@@ -12875,7 +12871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -12889,7 +12885,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -12903,7 +12899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>355</v>
       </c>
@@ -12923,7 +12919,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -12937,7 +12933,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>26</v>
       </c>
@@ -12951,7 +12947,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -12971,7 +12967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>151</v>
       </c>
@@ -12985,7 +12981,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -12999,7 +12995,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>668</v>
       </c>
@@ -13019,7 +13015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -13033,7 +13029,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -13047,7 +13043,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>672</v>
       </c>
@@ -13067,7 +13063,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -13081,7 +13077,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -13095,7 +13091,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -13109,7 +13105,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>38</v>
       </c>
@@ -13123,7 +13119,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>64</v>
       </c>
@@ -13151,20 +13147,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13184,7 +13180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13204,7 +13200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13218,7 +13214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13232,7 +13228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -13252,7 +13248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -13272,7 +13268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13286,7 +13282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -13300,7 +13296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -13314,7 +13310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -13334,7 +13330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -13348,7 +13344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -13368,7 +13364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -13382,7 +13378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -13410,20 +13406,20 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13443,7 +13439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>680</v>
       </c>
@@ -13463,7 +13459,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13477,7 +13473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13491,7 +13487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -13511,7 +13507,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -13525,7 +13521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -13539,7 +13535,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13553,7 +13549,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -13573,7 +13569,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>418</v>
       </c>
@@ -13593,7 +13589,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -13607,7 +13603,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -13627,7 +13623,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -13641,7 +13637,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -13661,7 +13657,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -13675,7 +13671,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -13695,7 +13691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -13709,7 +13705,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -13723,7 +13719,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -13743,7 +13739,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -13757,7 +13753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -13771,7 +13767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -13791,7 +13787,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>151</v>
       </c>
@@ -13805,7 +13801,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -13819,7 +13815,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>705</v>
       </c>
@@ -13839,7 +13835,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>26</v>
       </c>
@@ -13853,7 +13849,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -13867,7 +13863,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>355</v>
       </c>
@@ -13887,7 +13883,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -13901,7 +13897,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -13921,7 +13917,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -13935,7 +13931,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -13949,7 +13945,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -13963,7 +13959,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>715</v>
       </c>
@@ -13983,7 +13979,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -13997,7 +13993,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>26</v>
       </c>
@@ -14011,7 +14007,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -14025,7 +14021,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>38</v>
       </c>
@@ -14053,20 +14049,20 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14086,7 +14082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>729</v>
       </c>
@@ -14106,7 +14102,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="C3" t="s">
         <v>26</v>
@@ -14121,7 +14117,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -14135,7 +14131,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>730</v>
       </c>
@@ -14155,7 +14151,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -14175,7 +14171,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -14189,7 +14185,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -14203,7 +14199,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -14217,7 +14213,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -14231,7 +14227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -14245,7 +14241,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -14265,7 +14261,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -14279,7 +14275,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -14299,7 +14295,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -14313,7 +14309,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -14327,7 +14323,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -14347,7 +14343,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -14367,7 +14363,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -14381,7 +14377,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>742</v>
       </c>
@@ -14401,7 +14397,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -14415,7 +14411,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>746</v>
       </c>
@@ -14435,7 +14431,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -14455,7 +14451,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -14469,7 +14465,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -14489,7 +14485,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>751</v>
       </c>
@@ -14509,7 +14505,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -14523,7 +14519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>653</v>
       </c>
@@ -14543,7 +14539,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>185</v>
       </c>
@@ -14563,7 +14559,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -14577,7 +14573,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -14591,7 +14587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -14605,7 +14601,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>705</v>
       </c>
@@ -14625,7 +14621,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>757</v>
       </c>
@@ -14645,7 +14641,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -14659,7 +14655,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>355</v>
       </c>
@@ -14679,7 +14675,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -14693,7 +14689,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -14713,7 +14709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -14727,7 +14723,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>715</v>
       </c>
@@ -14747,7 +14743,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -14761,7 +14757,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>26</v>
       </c>
@@ -14775,7 +14771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -14789,7 +14785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -14809,7 +14805,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>763</v>
       </c>
@@ -14843,20 +14839,20 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14876,7 +14872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -14897,7 +14893,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -14918,7 +14914,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -14939,7 +14935,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -14960,7 +14956,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -14981,7 +14977,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -15002,7 +14998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -15023,7 +15019,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -15044,7 +15040,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -15065,7 +15061,7 @@
         <v>0.69811320754716977</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -15086,7 +15082,7 @@
         <v>0.85507246376811596</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -15107,7 +15103,7 @@
         <v>0.79069767441860461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -15128,7 +15124,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -15149,7 +15145,7 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -15170,7 +15166,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -15191,7 +15187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -15212,7 +15208,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -15233,7 +15229,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -15254,7 +15250,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -15275,7 +15271,7 @@
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>13</v>
       </c>
@@ -15293,7 +15289,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2023</v>
       </c>
@@ -15314,7 +15310,7 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -15339,7 +15335,7 @@
         <v>0.59698996655518399</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -15387,20 +15383,20 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15420,7 +15416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -15440,7 +15436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -15454,7 +15450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -15468,7 +15464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -15488,7 +15484,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -15502,7 +15498,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -15516,7 +15512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>38</v>
       </c>
@@ -15530,7 +15526,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -15544,7 +15540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -15564,7 +15560,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -15578,7 +15574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -15592,7 +15588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>38</v>
       </c>
@@ -15606,7 +15602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -15626,7 +15622,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>86</v>
       </c>
@@ -15640,7 +15636,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -15654,7 +15650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -15671,7 +15667,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -15685,7 +15681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -15699,7 +15695,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>38</v>
       </c>
@@ -15713,7 +15709,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -15733,7 +15729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -15747,7 +15743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -15761,7 +15757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -15775,7 +15771,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -15789,7 +15785,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -15809,7 +15805,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -15823,7 +15819,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>85</v>
       </c>
@@ -15837,7 +15833,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -15857,7 +15853,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -15877,7 +15873,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>86</v>
       </c>
@@ -15891,7 +15887,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -15905,7 +15901,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -15919,7 +15915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -15933,7 +15929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -15947,7 +15943,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -15981,20 +15977,20 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16014,7 +16010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -16034,7 +16030,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -16048,7 +16044,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -16068,7 +16064,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -16082,7 +16078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -16096,7 +16092,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>137</v>
       </c>
@@ -16110,7 +16106,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -16130,7 +16126,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -16144,7 +16140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -16164,7 +16160,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>86</v>
       </c>
@@ -16178,7 +16174,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -16198,7 +16194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>86</v>
       </c>
@@ -16212,7 +16208,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>137</v>
       </c>
@@ -16226,7 +16222,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -16240,7 +16236,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -16254,7 +16250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -16274,7 +16270,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -16288,7 +16284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -16302,7 +16298,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -16316,7 +16312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -16336,7 +16332,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>86</v>
       </c>
@@ -16350,7 +16346,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>85</v>
       </c>
@@ -16364,7 +16360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -16378,7 +16374,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -16398,7 +16394,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -16412,7 +16408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -16426,7 +16422,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -16446,7 +16442,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -16460,7 +16456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>85</v>
       </c>
@@ -16474,7 +16470,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>137</v>
       </c>
@@ -16488,7 +16484,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -16508,7 +16504,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -16528,7 +16524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -16548,7 +16544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -16562,7 +16558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -16576,7 +16572,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -16596,7 +16592,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -16610,7 +16606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -16624,7 +16620,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -16638,7 +16634,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -16658,7 +16654,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -16678,7 +16674,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -16692,7 +16688,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -16706,7 +16702,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -16720,7 +16716,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>64</v>
       </c>
@@ -16748,20 +16744,20 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16781,7 +16777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -16801,7 +16797,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -16815,7 +16811,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -16835,7 +16831,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -16849,7 +16845,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -16863,7 +16859,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -16883,7 +16879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -16897,7 +16893,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -16917,7 +16913,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -16931,7 +16927,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>137</v>
       </c>
@@ -16945,7 +16941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>151</v>
       </c>
@@ -16959,7 +16955,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -16973,7 +16969,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -16993,7 +16989,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -17007,7 +17003,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -17021,7 +17017,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>230</v>
       </c>
@@ -17041,7 +17037,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -17061,7 +17057,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -17075,7 +17071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -17089,7 +17085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -17103,7 +17099,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>64</v>
       </c>
@@ -17117,7 +17113,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -17137,7 +17133,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -17151,7 +17147,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17165,7 +17161,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>38</v>
       </c>
@@ -17179,7 +17175,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -17199,7 +17195,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -17219,7 +17215,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -17239,7 +17235,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>151</v>
       </c>
@@ -17253,7 +17249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -17267,7 +17263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -17287,7 +17283,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -17307,7 +17303,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -17321,7 +17317,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -17341,7 +17337,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -17355,7 +17351,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -17369,7 +17365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -17383,7 +17379,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -17403,7 +17399,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -17417,7 +17413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -17431,7 +17427,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -17445,7 +17441,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -17465,7 +17461,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -17479,7 +17475,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -17493,7 +17489,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -17513,7 +17509,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -17527,7 +17523,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -17541,7 +17537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -17555,7 +17551,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>64</v>
       </c>
@@ -17569,7 +17565,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -17589,7 +17585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -17603,7 +17599,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -17631,20 +17627,20 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17664,7 +17660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -17684,7 +17680,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -17698,7 +17694,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -17712,7 +17708,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -17726,7 +17722,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -17740,7 +17736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -17760,7 +17756,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -17780,7 +17776,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>151</v>
       </c>
@@ -17794,7 +17790,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -17808,7 +17804,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -17828,7 +17824,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -17848,7 +17844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -17862,7 +17858,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -17882,7 +17878,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -17896,7 +17892,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -17916,7 +17912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -17930,7 +17926,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -17944,7 +17940,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -17964,7 +17960,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -17978,7 +17974,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -17992,7 +17988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -18006,7 +18002,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -18020,7 +18016,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>299</v>
       </c>
@@ -18040,7 +18036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -18054,7 +18050,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>26</v>
       </c>
@@ -18068,7 +18064,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -18082,7 +18078,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -18096,7 +18092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -18116,7 +18112,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -18130,7 +18126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -18144,7 +18140,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -18164,7 +18160,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -18178,7 +18174,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -18192,7 +18188,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -18206,7 +18202,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>308</v>
       </c>
@@ -18226,7 +18222,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -18246,7 +18242,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -18260,7 +18256,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -18274,7 +18270,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -18294,7 +18290,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -18308,7 +18304,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -18322,7 +18318,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>312</v>
       </c>
@@ -18342,7 +18338,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -18356,7 +18352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -18370,7 +18366,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -18384,7 +18380,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>38</v>
       </c>
@@ -18398,7 +18394,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -18418,7 +18414,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -18432,7 +18428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>26</v>
       </c>
@@ -18446,7 +18442,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -18466,7 +18462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -18480,7 +18476,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -18494,7 +18490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -18514,7 +18510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -18528,7 +18524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -18542,7 +18538,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -18556,7 +18552,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -18576,7 +18572,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>381</v>
       </c>
@@ -18596,7 +18592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -18610,7 +18606,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -18638,20 +18634,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18671,7 +18667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -18691,7 +18687,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -18705,7 +18701,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -18719,7 +18715,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -18733,7 +18729,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -18747,7 +18743,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -18767,7 +18763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -18781,7 +18777,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -18795,7 +18791,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -18809,7 +18805,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -18829,7 +18825,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -18843,7 +18839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -18857,7 +18853,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -18871,7 +18867,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -18885,7 +18881,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -18905,7 +18901,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -18919,7 +18915,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -18933,7 +18929,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -18947,7 +18943,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -18961,7 +18957,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -18981,7 +18977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -18995,7 +18991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -19009,7 +19005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -19023,7 +19019,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -19037,7 +19033,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -19051,7 +19047,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -19071,7 +19067,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -19085,7 +19081,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -19105,7 +19101,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -19119,7 +19115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -19133,7 +19129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -19147,7 +19143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>746</v>
       </c>
@@ -19167,7 +19163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -19181,7 +19177,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -19201,7 +19197,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>151</v>
       </c>
@@ -19215,7 +19211,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -19229,7 +19225,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -19243,7 +19239,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -19257,7 +19253,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -19277,7 +19273,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -19291,7 +19287,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -19305,7 +19301,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -19319,7 +19315,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19333,7 +19329,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -19353,7 +19349,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>355</v>
       </c>
@@ -19373,7 +19369,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -19387,7 +19383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -19401,7 +19397,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -19421,7 +19417,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -19435,7 +19431,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -19455,7 +19451,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>151</v>
       </c>
@@ -19469,7 +19465,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -19483,7 +19479,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -19503,7 +19499,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -19517,7 +19513,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -19531,7 +19527,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>364</v>
       </c>
@@ -19551,7 +19547,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -19565,7 +19561,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -19585,7 +19581,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>367</v>
       </c>
@@ -19599,7 +19595,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -19627,20 +19623,20 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19660,7 +19656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -19680,7 +19676,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -19694,7 +19690,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -19708,7 +19704,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -19722,7 +19718,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -19742,7 +19738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -19756,7 +19752,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -19770,7 +19766,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -19784,7 +19780,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -19798,7 +19794,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>376</v>
       </c>
@@ -19818,7 +19814,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -19832,7 +19828,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -19846,7 +19842,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -19860,7 +19856,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -19874,7 +19870,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -19894,7 +19890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -19908,7 +19904,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -19928,7 +19924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -19942,7 +19938,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -19956,7 +19952,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -19976,7 +19972,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -19990,7 +19986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -20004,7 +20000,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>292</v>
       </c>
@@ -20024,7 +20020,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -20044,7 +20040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -20058,7 +20054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -20078,7 +20074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -20092,7 +20088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>746</v>
       </c>
@@ -20112,7 +20108,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -20132,7 +20128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>308</v>
       </c>
@@ -20152,7 +20148,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>26</v>
       </c>
@@ -20166,7 +20162,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -20180,7 +20176,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>38</v>
       </c>
@@ -20194,7 +20190,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>64</v>
       </c>
@@ -20208,7 +20204,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -20228,7 +20224,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>151</v>
       </c>
@@ -20242,7 +20238,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -20256,7 +20252,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -20276,7 +20272,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>26</v>
       </c>
@@ -20290,7 +20286,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>25</v>
       </c>
@@ -20304,7 +20300,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>38</v>
       </c>
@@ -20318,7 +20314,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>64</v>
       </c>
@@ -20332,7 +20328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>355</v>
       </c>
@@ -20352,7 +20348,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>312</v>
       </c>
@@ -20372,7 +20368,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -20386,7 +20382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>26</v>
       </c>
@@ -20400,7 +20396,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>25</v>
       </c>
@@ -20414,7 +20410,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>38</v>
       </c>
@@ -20428,7 +20424,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>189</v>
       </c>
@@ -20448,7 +20444,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>151</v>
       </c>
@@ -20462,7 +20458,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>362</v>
       </c>
@@ -20482,7 +20478,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>26</v>
       </c>
@@ -20496,7 +20492,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -20510,7 +20506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>38</v>
       </c>
@@ -20524,7 +20520,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>364</v>
       </c>
@@ -20544,7 +20540,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -20564,7 +20560,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20578,7 +20574,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>38</v>
       </c>
@@ -20592,7 +20588,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>64</v>
       </c>
@@ -20606,7 +20602,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>366</v>
       </c>
@@ -20626,7 +20622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>367</v>
       </c>
@@ -20640,7 +20636,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -20668,20 +20664,20 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -20701,7 +20697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -20721,7 +20717,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -20735,7 +20731,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -20749,7 +20745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -20769,7 +20765,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -20783,7 +20779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -20797,7 +20793,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -20811,7 +20807,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -20831,7 +20827,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -20845,7 +20841,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -20865,7 +20861,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -20885,7 +20881,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -20899,7 +20895,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -20913,7 +20909,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -20927,7 +20923,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -20944,7 +20940,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -20958,7 +20954,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -20972,7 +20968,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -20986,7 +20982,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>38</v>
       </c>
@@ -21000,7 +20996,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>64</v>
       </c>
@@ -21014,7 +21010,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>382</v>
       </c>
@@ -21034,7 +21030,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -21048,7 +21044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -21062,7 +21058,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -21076,7 +21072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -21090,7 +21086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -21110,7 +21106,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>746</v>
       </c>
@@ -21130,7 +21126,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -21144,7 +21140,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -21158,7 +21154,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -21172,7 +21168,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>38</v>
       </c>
@@ -21186,7 +21182,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>64</v>
       </c>
@@ -21200,7 +21196,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -21220,7 +21216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -21234,7 +21230,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -21248,7 +21244,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -21268,7 +21264,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>151</v>
       </c>
@@ -21282,7 +21278,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -21296,7 +21292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -21310,7 +21306,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -21324,7 +21320,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -21344,7 +21340,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -21358,7 +21354,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -21372,7 +21368,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -21386,7 +21382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -21400,7 +21396,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>38</v>
       </c>
@@ -21414,7 +21410,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -21434,7 +21430,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>312</v>
       </c>
@@ -21454,7 +21450,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -21468,7 +21464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -21482,7 +21478,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -21496,7 +21492,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -21516,7 +21512,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -21530,7 +21526,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -21544,7 +21540,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>362</v>
       </c>
@@ -21564,7 +21560,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -21578,7 +21574,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -21592,7 +21588,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -21606,7 +21602,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -21626,7 +21622,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>26</v>
       </c>
@@ -21640,7 +21636,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>263</v>
       </c>
@@ -21660,7 +21656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>26</v>
       </c>
@@ -21674,7 +21670,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>25</v>
       </c>
@@ -21688,7 +21684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>38</v>
       </c>
@@ -21702,7 +21698,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>64</v>
       </c>
@@ -21716,7 +21712,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>366</v>
       </c>
@@ -21736,7 +21732,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>367</v>
       </c>
@@ -21750,7 +21746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -21764,7 +21760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>38</v>
       </c>
@@ -21778,7 +21774,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>64</v>
       </c>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4862" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5488D2AD-DED3-49C6-8BB0-8E2014E96D92}"/>
+  <xr:revisionPtr revIDLastSave="4864" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCEB15B8-A766-4ED4-BAD7-1C6B4A3F1B00}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -6289,6 +6289,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6592,7 +6596,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6679,7 +6683,7 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7964,7 +7968,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8866,7 +8870,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9304,7 +9308,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10067,7 +10071,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10597,7 +10601,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10741,7 +10745,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11267,7 +11271,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11977,7 +11981,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12414,7 +12418,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13147,7 +13151,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13406,7 +13410,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14048,8 +14052,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14839,7 +14843,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15383,7 +15387,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15977,7 +15981,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16744,7 +16748,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17627,7 +17631,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18634,7 +18638,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19623,7 +19627,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20664,7 +20668,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4864" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCEB15B8-A766-4ED4-BAD7-1C6B4A3F1B00}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -6289,10 +6289,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4864" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCEB15B8-A766-4ED4-BAD7-1C6B4A3F1B00}"/>
+  <xr:revisionPtr revIDLastSave="4921" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{652F4D15-4640-44F6-B4D1-B8A63B17EC7B}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -34,9 +34,10 @@
     <sheet name="2021" sheetId="21" r:id="rId19"/>
     <sheet name="2022" sheetId="24" r:id="rId20"/>
     <sheet name="2023" sheetId="27" r:id="rId21"/>
-    <sheet name="Stats" sheetId="1" r:id="rId22"/>
-    <sheet name="Wins-Losses" sheetId="28" r:id="rId23"/>
-    <sheet name="Winning Percentile Range" sheetId="29" r:id="rId24"/>
+    <sheet name="2024" sheetId="30" r:id="rId22"/>
+    <sheet name="Stats" sheetId="1" r:id="rId23"/>
+    <sheet name="Wins-Losses" sheetId="31" r:id="rId24"/>
+    <sheet name="Winning Percentile Range" sheetId="32" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="769">
   <si>
     <t>YEAR</t>
   </si>
@@ -2355,6 +2356,15 @@
   </si>
   <si>
     <t>2-6 6-3 RETIRED</t>
+  </si>
+  <si>
+    <t>6-1 7-6(8)</t>
+  </si>
+  <si>
+    <t>Clara Burel (FRANCE)</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
   </si>
 </sst>
 </file>
@@ -2505,12 +2515,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Victória Azárenka (BELARUS): Wins-Losses</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2576,10 +2583,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$22</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -2637,18 +2644,24 @@
                 <c:pt idx="18">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
                 <c:pt idx="20">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$22</c:f>
+              <c:f>Stats!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2712,12 +2725,15 @@
                 <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6188-430D-B512-93FE9FC7673C}"/>
+              <c16:uniqueId val="{00000000-5678-43C0-95DB-6A6DA6727BD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2747,10 +2763,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$22</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -2808,18 +2824,24 @@
                 <c:pt idx="18">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
                 <c:pt idx="20">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$22</c:f>
+              <c:f>Stats!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2883,12 +2905,15 @@
                 <c:pt idx="20">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6188-430D-B512-93FE9FC7673C}"/>
+              <c16:uniqueId val="{00000001-5678-43C0-95DB-6A6DA6727BD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2902,11 +2927,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="488244224"/>
-        <c:axId val="488262944"/>
+        <c:axId val="274984991"/>
+        <c:axId val="330214975"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488244224"/>
+        <c:axId val="274984991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488262944"/>
+        <c:crossAx val="330214975"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3012,7 +3037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488262944"/>
+        <c:axId val="330214975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3118,7 +3143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488244224"/>
+        <c:crossAx val="274984991"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3227,12 +3252,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Victória Azárenka (BELARUS): Winning Percentile Range</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Victória Azárenka (BELARUS):</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3325,10 +3352,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$22</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -3386,18 +3413,24 @@
                 <c:pt idx="18">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
                 <c:pt idx="20">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$22</c:f>
+              <c:f>Stats!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3461,13 +3494,16 @@
                 <c:pt idx="20">
                   <c:v>0.21739130434782608</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9CFE-4954-833A-8482310AE2D8}"/>
+              <c16:uniqueId val="{00000000-22ED-42C2-B1E7-96ED0FF6E4E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3481,11 +3517,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1148970976"/>
-        <c:axId val="1148977216"/>
+        <c:axId val="515049103"/>
+        <c:axId val="547299983"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1148970976"/>
+        <c:axId val="515049103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,7 +3619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148977216"/>
+        <c:crossAx val="547299983"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3591,7 +3627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1148977216"/>
+        <c:axId val="547299983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3697,7 +3733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148970976"/>
+        <c:crossAx val="515049103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4859,26 +4895,24 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F28FE5CA-7275-4E52-BED5-FFE814E14E77}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0BC78BED-FA36-4648-A6BD-4BC36CDF7123}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D1B526D-7EF2-4333-8870-2201971CB4C5}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7E044286-B40F-46D1-9F1A-BE09E45711E0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -5035,13 +5069,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA50FB3E-1515-00F0-A724-A863313C4554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBA2F3F-7736-B0CE-688A-18E109C6EBDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,13 +5102,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C1595E-9571-88B1-12B4-399447506CA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA2C265-6586-BD85-2E56-09CBC768C8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6289,6 +6323,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6591,18 +6629,18 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6678,18 +6716,18 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7963,18 +8001,18 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8865,18 +8903,18 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9303,18 +9341,18 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10066,18 +10104,18 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10596,18 +10634,18 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10740,18 +10778,18 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11266,18 +11304,18 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11976,18 +12014,18 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12413,18 +12451,18 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13146,18 +13184,18 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13405,18 +13443,18 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14048,18 +14086,18 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14832,24 +14870,133 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88142B08-6AFC-4461-A7B0-8794526A21CB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>768</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8319C28C-0EEA-4862-95BF-C791938968A5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14994,7 +15141,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:F22" si="0">(D7-E7)/D7</f>
+        <f t="shared" ref="F7:F23" si="0">(D7-E7)/D7</f>
         <v>0.5</v>
       </c>
     </row>
@@ -15272,6 +15419,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2022</v>
+      </c>
       <c r="B21">
         <v>13</v>
       </c>
@@ -15311,57 +15461,78 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1">
-        <f>SUM(B2:B22)</f>
-        <v>277</v>
-      </c>
-      <c r="C23" s="1">
-        <f>SUM(C2:C22)</f>
-        <v>21</v>
-      </c>
-      <c r="D23" s="1">
-        <f>SUM(D2:D22)</f>
-        <v>598</v>
-      </c>
-      <c r="E23" s="1">
-        <f>SUM(E2:E22)</f>
-        <v>241</v>
-      </c>
-      <c r="F23" s="9">
-        <f>(D23-E23)/D23</f>
-        <v>0.59698996655518399</v>
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8">
-        <f>AVERAGE(B2:B22)</f>
-        <v>13.19047619047619</v>
-      </c>
-      <c r="C24" s="8">
-        <f>AVERAGE(C2:C22)</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <f>AVERAGE(D2:D22)</f>
-        <v>28.476190476190474</v>
-      </c>
-      <c r="E24" s="8">
-        <f>AVERAGE(E2:E22)</f>
-        <v>11.476190476190476</v>
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <f>SUM(B2:B23)</f>
+        <v>278</v>
+      </c>
+      <c r="C24" s="1">
+        <f>SUM(C2:C23)</f>
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUM(D2:D23)</f>
+        <v>601</v>
+      </c>
+      <c r="E24" s="1">
+        <f>SUM(E2:E23)</f>
+        <v>242</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59698996655518399</v>
+        <v>0.59733777038269553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8">
+        <f>AVERAGE(B2:B23)</f>
+        <v>12.636363636363637</v>
+      </c>
+      <c r="C25" s="8">
+        <f>AVERAGE(C2:C23)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="D25" s="8">
+        <f>AVERAGE(D2:D23)</f>
+        <v>27.318181818181817</v>
+      </c>
+      <c r="E25" s="8">
+        <f>AVERAGE(E2:E23)</f>
+        <v>11</v>
+      </c>
+      <c r="F25" s="9">
+        <f>(D25-E25)/D25</f>
+        <v>0.59733777038269553</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F22">
+  <conditionalFormatting sqref="F2:F23">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -15382,18 +15553,18 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15976,18 +16147,18 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16743,18 +16914,18 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -17626,18 +17797,18 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18633,18 +18804,18 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -19622,18 +19793,18 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -20663,18 +20834,18 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4921" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{652F4D15-4640-44F6-B4D1-B8A63B17EC7B}"/>
+  <xr:revisionPtr revIDLastSave="4944" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DFE1762-A7DD-4436-865A-C4108E4C015B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="17535" windowHeight="15285" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="770">
   <si>
     <t>YEAR</t>
   </si>
@@ -2365,6 +2365,9 @@
   </si>
   <si>
     <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>Clara Tauson (DENMARK)</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2729,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,7 +2909,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6328,9 +6331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6368,7 +6371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6474,7 +6477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6616,7 +6619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6633,17 +6636,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6720,17 +6723,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -6770,7 +6773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -6798,7 +6801,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -6812,7 +6815,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -6860,7 +6863,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6874,7 +6877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -6888,7 +6891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -6916,7 +6919,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -6978,7 +6981,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>38</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>64</v>
       </c>
@@ -7006,7 +7009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -7026,7 +7029,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -7096,7 +7099,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -7158,7 +7161,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>64</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>746</v>
       </c>
@@ -7240,7 +7243,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -7254,7 +7257,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>64</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>26</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7364,7 +7367,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -7392,7 +7395,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>151</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -7468,7 +7471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>316</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>151</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>26</v>
       </c>
@@ -7558,7 +7561,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>25</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>38</v>
       </c>
@@ -7586,7 +7589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>312</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -7626,7 +7629,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>151</v>
       </c>
@@ -7640,7 +7643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>12</v>
       </c>
@@ -7654,7 +7657,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>26</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>25</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>38</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>64</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>362</v>
       </c>
@@ -7730,7 +7733,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>364</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>12</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>26</v>
       </c>
@@ -7806,7 +7809,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>25</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>38</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>64</v>
       </c>
@@ -7848,8 +7851,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>484</v>
       </c>
@@ -7869,7 +7872,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>26</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>25</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>38</v>
       </c>
@@ -7911,7 +7914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>64</v>
       </c>
@@ -7925,7 +7928,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>366</v>
       </c>
@@ -7945,7 +7948,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>367</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>367</v>
       </c>
@@ -7973,7 +7976,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>38</v>
       </c>
@@ -8005,17 +8008,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -8069,7 +8072,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -8083,7 +8086,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>64</v>
       </c>
@@ -8187,7 +8190,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -8221,7 +8224,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -8263,7 +8266,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>672</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -8311,7 +8314,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>746</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -8359,7 +8362,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -8393,7 +8396,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -8421,7 +8424,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>151</v>
       </c>
@@ -8469,7 +8472,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -8483,7 +8486,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -8497,7 +8500,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -8511,7 +8514,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>38</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -8559,7 +8562,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>506</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>38</v>
       </c>
@@ -8607,7 +8610,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>64</v>
       </c>
@@ -8621,7 +8624,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>355</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -8655,7 +8658,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8669,7 +8672,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>64</v>
       </c>
@@ -8697,7 +8700,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -8717,7 +8720,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -8731,7 +8734,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -8745,7 +8748,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>26</v>
       </c>
@@ -8759,7 +8762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>38</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>64</v>
       </c>
@@ -8801,7 +8804,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -8821,7 +8824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -8841,7 +8844,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -8861,7 +8864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>367</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>367</v>
       </c>
@@ -8907,17 +8910,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8937,7 +8940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>64</v>
       </c>
@@ -8999,7 +9002,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -9019,7 +9022,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -9047,7 +9050,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9061,7 +9064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9075,7 +9078,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -9095,7 +9098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>308</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -9135,7 +9138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>151</v>
       </c>
@@ -9149,7 +9152,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>248</v>
       </c>
@@ -9169,7 +9172,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9217,7 +9220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -9237,7 +9240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>137</v>
       </c>
@@ -9251,7 +9254,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -9293,7 +9296,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>362</v>
       </c>
@@ -9313,7 +9316,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -9345,17 +9348,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -9395,7 +9398,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -9415,7 +9418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>151</v>
       </c>
@@ -9429,7 +9432,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -9457,7 +9460,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>418</v>
       </c>
@@ -9477,7 +9480,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9505,7 +9508,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>38</v>
       </c>
@@ -9519,7 +9522,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>64</v>
       </c>
@@ -9533,7 +9536,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>672</v>
       </c>
@@ -9553,7 +9556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9567,8 +9570,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -9602,7 +9605,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -9650,7 +9653,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -9664,7 +9667,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -9698,7 +9701,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -9712,7 +9715,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>151</v>
       </c>
@@ -9760,7 +9763,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -9774,7 +9777,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>542</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>151</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -9870,7 +9873,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>312</v>
       </c>
@@ -9904,7 +9907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -9918,7 +9921,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -9932,7 +9935,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -9952,7 +9955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -9966,7 +9969,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -9980,7 +9983,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>151</v>
       </c>
@@ -10014,7 +10017,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -10028,7 +10031,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>26</v>
       </c>
@@ -10042,7 +10045,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -10056,7 +10059,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>551</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -10108,17 +10111,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10138,7 +10141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -10186,7 +10189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -10214,7 +10217,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -10248,7 +10251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -10262,7 +10265,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -10276,7 +10279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -10290,7 +10293,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>559</v>
       </c>
@@ -10310,7 +10313,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -10324,7 +10327,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>672</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10358,7 +10361,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -10386,7 +10389,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>64</v>
       </c>
@@ -10414,7 +10417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -10462,7 +10465,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -10476,7 +10479,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>64</v>
       </c>
@@ -10504,7 +10507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>568</v>
       </c>
@@ -10521,7 +10524,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>571</v>
       </c>
@@ -10532,7 +10535,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>746</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -10566,7 +10569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -10600,7 +10603,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -10638,17 +10641,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10668,7 +10671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>575</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10702,7 +10705,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -10722,7 +10725,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10736,7 +10739,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10750,7 +10753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10782,17 +10785,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10812,7 +10815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -10832,7 +10835,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>151</v>
       </c>
@@ -10846,7 +10849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -10866,7 +10869,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10894,7 +10897,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10908,7 +10911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>746</v>
       </c>
@@ -10956,7 +10959,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -10970,7 +10973,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -10990,7 +10993,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -11010,7 +11013,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>575</v>
       </c>
@@ -11030,7 +11033,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11044,7 +11047,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -11064,7 +11067,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>151</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>591</v>
       </c>
@@ -11098,7 +11101,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -11112,7 +11115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -11146,7 +11149,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11160,7 +11163,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -11180,7 +11183,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -11214,7 +11217,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>151</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -11242,7 +11245,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>362</v>
       </c>
@@ -11262,7 +11265,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -11276,7 +11279,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -11308,17 +11311,17 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11338,7 +11341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -11358,7 +11361,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -11378,7 +11381,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>605</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -11412,7 +11415,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>559</v>
       </c>
@@ -11432,7 +11435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -11446,7 +11449,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -11460,7 +11463,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -11480,7 +11483,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -11514,7 +11517,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>151</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>612</v>
       </c>
@@ -11548,7 +11551,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11562,7 +11565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -11576,7 +11579,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>38</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>64</v>
       </c>
@@ -11604,7 +11607,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>568</v>
       </c>
@@ -11621,7 +11624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>600</v>
       </c>
@@ -11632,7 +11635,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -11652,7 +11655,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -11666,7 +11669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>746</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -11734,7 +11737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11748,7 +11751,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -11762,7 +11765,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -11776,7 +11779,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>151</v>
       </c>
@@ -11810,7 +11813,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>575</v>
       </c>
@@ -11830,7 +11833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>185</v>
       </c>
@@ -11850,7 +11853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -11878,7 +11881,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>591</v>
       </c>
@@ -11898,7 +11901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -11912,7 +11915,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -11966,7 +11969,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -11980,7 +11983,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>189</v>
       </c>
@@ -12018,17 +12021,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12048,7 +12051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -12068,7 +12071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>627</v>
       </c>
@@ -12088,7 +12091,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -12108,7 +12111,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -12122,7 +12125,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12136,7 +12139,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12150,7 +12153,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12164,7 +12167,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>64</v>
       </c>
@@ -12178,7 +12181,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -12226,7 +12229,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -12240,7 +12243,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -12254,7 +12257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>38</v>
       </c>
@@ -12268,7 +12271,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>64</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -12299,7 +12302,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -12313,7 +12316,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -12327,7 +12330,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -12341,7 +12344,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -12361,7 +12364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>151</v>
       </c>
@@ -12375,7 +12378,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>641</v>
       </c>
@@ -12395,7 +12398,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -12409,7 +12412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -12423,7 +12426,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -12455,17 +12458,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12485,7 +12488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>644</v>
       </c>
@@ -12505,7 +12508,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -12519,7 +12522,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12539,7 +12542,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -12559,7 +12562,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12573,7 +12576,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12587,7 +12590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12601,7 +12604,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -12621,7 +12624,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -12649,7 +12652,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>746</v>
       </c>
@@ -12669,7 +12672,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -12683,7 +12686,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -12703,7 +12706,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>151</v>
       </c>
@@ -12717,7 +12720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -12731,7 +12734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -12745,7 +12748,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -12765,7 +12768,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -12779,7 +12782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -12793,7 +12796,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -12807,7 +12810,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>656</v>
       </c>
@@ -12827,7 +12830,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -12841,7 +12844,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -12855,7 +12858,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -12875,7 +12878,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -12889,7 +12892,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>312</v>
       </c>
@@ -12909,7 +12912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -12923,7 +12926,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -12937,7 +12940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>355</v>
       </c>
@@ -12957,7 +12960,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -12971,7 +12974,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>26</v>
       </c>
@@ -12985,7 +12988,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -13005,7 +13008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>151</v>
       </c>
@@ -13019,7 +13022,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -13033,7 +13036,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>668</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -13067,7 +13070,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -13081,7 +13084,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>672</v>
       </c>
@@ -13101,7 +13104,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -13115,7 +13118,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -13129,7 +13132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -13143,7 +13146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>38</v>
       </c>
@@ -13157,7 +13160,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>64</v>
       </c>
@@ -13188,17 +13191,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13218,7 +13221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13238,7 +13241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13252,7 +13255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -13286,7 +13289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -13306,7 +13309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13320,7 +13323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -13348,7 +13351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -13368,7 +13371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -13382,7 +13385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -13402,7 +13405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -13416,7 +13419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -13447,17 +13450,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13477,7 +13480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>680</v>
       </c>
@@ -13497,7 +13500,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13511,7 +13514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13525,7 +13528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -13545,7 +13548,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -13559,7 +13562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -13573,7 +13576,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13587,7 +13590,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -13607,7 +13610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>418</v>
       </c>
@@ -13627,7 +13630,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -13641,7 +13644,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -13661,7 +13664,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -13675,7 +13678,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -13695,7 +13698,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -13709,7 +13712,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -13729,7 +13732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -13743,7 +13746,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -13757,7 +13760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -13777,7 +13780,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -13791,7 +13794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -13805,7 +13808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -13825,7 +13828,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>151</v>
       </c>
@@ -13839,7 +13842,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -13853,7 +13856,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>705</v>
       </c>
@@ -13873,7 +13876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>26</v>
       </c>
@@ -13887,7 +13890,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -13901,7 +13904,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>355</v>
       </c>
@@ -13921,7 +13924,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -13935,7 +13938,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -13955,7 +13958,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -13969,7 +13972,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -13983,7 +13986,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -13997,7 +14000,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>715</v>
       </c>
@@ -14017,7 +14020,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -14031,7 +14034,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>26</v>
       </c>
@@ -14045,7 +14048,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -14059,7 +14062,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>38</v>
       </c>
@@ -14087,20 +14090,20 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C13"/>
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14120,7 +14123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>729</v>
       </c>
@@ -14140,7 +14143,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="C3" t="s">
         <v>26</v>
@@ -14155,7 +14158,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -14169,7 +14172,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>730</v>
       </c>
@@ -14189,7 +14192,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -14209,7 +14212,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -14223,7 +14226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -14251,7 +14254,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -14265,7 +14268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -14279,7 +14282,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -14299,7 +14302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -14313,7 +14316,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -14333,7 +14336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -14347,7 +14350,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -14361,7 +14364,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -14381,7 +14384,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -14401,7 +14404,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>742</v>
       </c>
@@ -14435,7 +14438,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -14449,7 +14452,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>746</v>
       </c>
@@ -14469,7 +14472,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -14489,7 +14492,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -14503,7 +14506,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -14523,7 +14526,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>751</v>
       </c>
@@ -14543,7 +14546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -14557,7 +14560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>653</v>
       </c>
@@ -14577,7 +14580,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>185</v>
       </c>
@@ -14597,7 +14600,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -14625,7 +14628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -14639,7 +14642,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>705</v>
       </c>
@@ -14659,7 +14662,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>757</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>355</v>
       </c>
@@ -14713,7 +14716,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -14727,7 +14730,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -14747,7 +14750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -14761,7 +14764,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>715</v>
       </c>
@@ -14781,7 +14784,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -14795,7 +14798,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>26</v>
       </c>
@@ -14809,7 +14812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -14823,7 +14826,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -14843,7 +14846,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>763</v>
       </c>
@@ -14874,23 +14877,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" activeCellId="1" sqref="E2:E4 E7:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14910,7 +14913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -14930,7 +14933,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -14944,7 +14947,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -14958,7 +14961,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -14970,6 +14973,68 @@
       </c>
       <c r="F5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>769</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -14986,20 +15051,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15019,7 +15084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -15040,7 +15105,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -15061,7 +15126,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -15082,7 +15147,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -15103,7 +15168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -15124,7 +15189,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -15145,7 +15210,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -15166,7 +15231,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -15187,7 +15252,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -15208,7 +15273,7 @@
         <v>0.69811320754716977</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -15229,7 +15294,7 @@
         <v>0.85507246376811596</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -15250,7 +15315,7 @@
         <v>0.79069767441860461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -15271,7 +15336,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -15292,7 +15357,7 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -15313,7 +15378,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -15334,7 +15399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -15355,7 +15420,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -15376,7 +15441,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -15397,7 +15462,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -15418,7 +15483,7 @@
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -15439,7 +15504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2023</v>
       </c>
@@ -15460,34 +15525,34 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -15495,24 +15560,24 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59733777038269553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.59768211920529801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>12.636363636363637</v>
+        <v>12.681818181818182</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -15520,15 +15585,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>27.318181818181817</v>
+        <v>27.454545454545453</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>11</v>
+        <v>11.045454545454545</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.59733777038269553</v>
+        <v>0.5976821192052979</v>
       </c>
     </row>
   </sheetData>
@@ -15557,17 +15622,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15587,7 +15652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -15607,7 +15672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -15621,7 +15686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -15635,7 +15700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -15655,7 +15720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -15669,7 +15734,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -15683,7 +15748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>38</v>
       </c>
@@ -15697,7 +15762,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -15711,7 +15776,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -15731,7 +15796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -15745,7 +15810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -15759,7 +15824,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>38</v>
       </c>
@@ -15773,7 +15838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -15793,7 +15858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>86</v>
       </c>
@@ -15807,7 +15872,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -15821,7 +15886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -15838,7 +15903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -15852,7 +15917,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -15866,7 +15931,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>38</v>
       </c>
@@ -15880,7 +15945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -15900,7 +15965,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -15914,7 +15979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -15928,7 +15993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -15942,7 +16007,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -15956,7 +16021,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -15976,7 +16041,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -15990,7 +16055,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>85</v>
       </c>
@@ -16004,7 +16069,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -16024,7 +16089,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -16044,7 +16109,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>86</v>
       </c>
@@ -16058,7 +16123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -16072,7 +16137,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -16086,7 +16151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -16100,7 +16165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -16114,7 +16179,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -16151,17 +16216,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16181,7 +16246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -16201,7 +16266,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -16215,7 +16280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -16235,7 +16300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -16249,7 +16314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -16263,7 +16328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>137</v>
       </c>
@@ -16277,7 +16342,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -16297,7 +16362,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -16311,7 +16376,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -16331,7 +16396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>86</v>
       </c>
@@ -16345,7 +16410,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -16365,7 +16430,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>86</v>
       </c>
@@ -16379,7 +16444,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>137</v>
       </c>
@@ -16393,7 +16458,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -16407,7 +16472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -16421,7 +16486,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -16441,7 +16506,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -16455,7 +16520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -16469,7 +16534,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -16483,7 +16548,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -16503,7 +16568,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>86</v>
       </c>
@@ -16517,7 +16582,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>85</v>
       </c>
@@ -16531,7 +16596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -16545,7 +16610,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -16565,7 +16630,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -16579,7 +16644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -16593,7 +16658,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -16613,7 +16678,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -16627,7 +16692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>85</v>
       </c>
@@ -16641,7 +16706,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>137</v>
       </c>
@@ -16655,7 +16720,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -16675,7 +16740,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -16695,7 +16760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -16715,7 +16780,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -16729,7 +16794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -16743,7 +16808,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -16763,7 +16828,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -16777,7 +16842,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -16791,7 +16856,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -16805,7 +16870,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -16825,7 +16890,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -16845,7 +16910,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -16859,7 +16924,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -16873,7 +16938,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -16887,7 +16952,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>64</v>
       </c>
@@ -16918,17 +16983,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16948,7 +17013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -16968,7 +17033,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -16982,7 +17047,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -17002,7 +17067,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -17016,7 +17081,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -17030,7 +17095,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -17050,7 +17115,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -17064,7 +17129,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -17084,7 +17149,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -17098,7 +17163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>137</v>
       </c>
@@ -17112,7 +17177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>151</v>
       </c>
@@ -17126,7 +17191,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -17140,7 +17205,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -17160,7 +17225,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -17174,7 +17239,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -17188,7 +17253,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>230</v>
       </c>
@@ -17208,7 +17273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -17228,7 +17293,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -17242,7 +17307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -17256,7 +17321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -17270,7 +17335,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>64</v>
       </c>
@@ -17284,7 +17349,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -17304,7 +17369,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -17318,7 +17383,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17332,7 +17397,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>38</v>
       </c>
@@ -17346,7 +17411,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -17366,7 +17431,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -17386,7 +17451,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -17406,7 +17471,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>151</v>
       </c>
@@ -17420,7 +17485,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -17434,7 +17499,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -17454,7 +17519,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -17474,7 +17539,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -17488,7 +17553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -17508,7 +17573,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -17522,7 +17587,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -17536,7 +17601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -17550,7 +17615,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -17570,7 +17635,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -17584,7 +17649,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -17598,7 +17663,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -17612,7 +17677,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -17632,7 +17697,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -17646,7 +17711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -17660,7 +17725,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -17680,7 +17745,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -17694,7 +17759,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -17708,7 +17773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -17722,7 +17787,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>64</v>
       </c>
@@ -17736,7 +17801,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -17756,7 +17821,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -17770,7 +17835,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -17801,17 +17866,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17831,7 +17896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -17851,7 +17916,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -17865,7 +17930,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -17879,7 +17944,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -17893,7 +17958,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -17907,7 +17972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -17927,7 +17992,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -17947,7 +18012,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>151</v>
       </c>
@@ -17961,7 +18026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -17975,7 +18040,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -17995,7 +18060,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -18015,7 +18080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -18029,7 +18094,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -18049,7 +18114,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -18063,7 +18128,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -18083,7 +18148,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -18097,7 +18162,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -18111,7 +18176,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -18131,7 +18196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -18145,7 +18210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -18159,7 +18224,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -18173,7 +18238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -18187,7 +18252,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>299</v>
       </c>
@@ -18207,7 +18272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -18221,7 +18286,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>26</v>
       </c>
@@ -18235,7 +18300,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -18249,7 +18314,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -18263,7 +18328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -18283,7 +18348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -18297,7 +18362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -18311,7 +18376,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -18331,7 +18396,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -18345,7 +18410,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -18359,7 +18424,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -18373,7 +18438,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>308</v>
       </c>
@@ -18393,7 +18458,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -18413,7 +18478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -18427,7 +18492,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -18441,7 +18506,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -18461,7 +18526,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -18475,7 +18540,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -18489,7 +18554,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>312</v>
       </c>
@@ -18509,7 +18574,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -18523,7 +18588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -18537,7 +18602,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -18551,7 +18616,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>38</v>
       </c>
@@ -18565,7 +18630,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -18585,7 +18650,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -18599,7 +18664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>26</v>
       </c>
@@ -18613,7 +18678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -18633,7 +18698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -18647,7 +18712,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -18661,7 +18726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -18681,7 +18746,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -18695,7 +18760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -18709,7 +18774,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -18723,7 +18788,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -18743,7 +18808,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>381</v>
       </c>
@@ -18763,7 +18828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -18777,7 +18842,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -18808,17 +18873,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18838,7 +18903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -18858,7 +18923,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -18872,7 +18937,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -18886,7 +18951,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -18900,7 +18965,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -18914,7 +18979,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -18934,7 +18999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -18948,7 +19013,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -18962,7 +19027,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -18976,7 +19041,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -18996,7 +19061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -19010,7 +19075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -19024,7 +19089,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -19038,7 +19103,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -19052,7 +19117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -19072,7 +19137,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -19086,7 +19151,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -19100,7 +19165,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -19114,7 +19179,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -19128,7 +19193,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -19148,7 +19213,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -19162,7 +19227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -19176,7 +19241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -19190,7 +19255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -19204,7 +19269,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -19218,7 +19283,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -19238,7 +19303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -19252,7 +19317,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -19272,7 +19337,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -19286,7 +19351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -19300,7 +19365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -19314,7 +19379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>746</v>
       </c>
@@ -19334,7 +19399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -19348,7 +19413,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -19368,7 +19433,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>151</v>
       </c>
@@ -19382,7 +19447,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -19396,7 +19461,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -19410,7 +19475,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -19424,7 +19489,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -19444,7 +19509,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -19458,7 +19523,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -19472,7 +19537,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -19486,7 +19551,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19500,7 +19565,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -19520,7 +19585,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>355</v>
       </c>
@@ -19540,7 +19605,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -19554,7 +19619,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -19568,7 +19633,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -19588,7 +19653,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -19602,7 +19667,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -19622,7 +19687,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>151</v>
       </c>
@@ -19636,7 +19701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -19650,7 +19715,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -19670,7 +19735,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -19684,7 +19749,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -19698,7 +19763,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>364</v>
       </c>
@@ -19718,7 +19783,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -19732,7 +19797,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -19752,7 +19817,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>367</v>
       </c>
@@ -19766,7 +19831,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -19797,17 +19862,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19827,7 +19892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -19847,7 +19912,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -19861,7 +19926,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -19875,7 +19940,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -19889,7 +19954,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -19909,7 +19974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -19923,7 +19988,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -19937,7 +20002,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -19951,7 +20016,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -19965,7 +20030,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>376</v>
       </c>
@@ -19985,7 +20050,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -19999,7 +20064,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -20013,7 +20078,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -20027,7 +20092,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -20041,7 +20106,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -20061,7 +20126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -20075,7 +20140,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -20095,7 +20160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -20109,7 +20174,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -20123,7 +20188,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -20143,7 +20208,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -20157,7 +20222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -20171,7 +20236,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>292</v>
       </c>
@@ -20191,7 +20256,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -20211,7 +20276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -20225,7 +20290,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -20245,7 +20310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -20259,7 +20324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>746</v>
       </c>
@@ -20279,7 +20344,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -20299,7 +20364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>308</v>
       </c>
@@ -20319,7 +20384,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>26</v>
       </c>
@@ -20333,7 +20398,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -20347,7 +20412,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>38</v>
       </c>
@@ -20361,7 +20426,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>64</v>
       </c>
@@ -20375,7 +20440,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -20395,7 +20460,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>151</v>
       </c>
@@ -20409,7 +20474,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -20423,7 +20488,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -20443,7 +20508,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>26</v>
       </c>
@@ -20457,7 +20522,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>25</v>
       </c>
@@ -20471,7 +20536,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>38</v>
       </c>
@@ -20485,7 +20550,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>64</v>
       </c>
@@ -20499,7 +20564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>355</v>
       </c>
@@ -20519,7 +20584,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>312</v>
       </c>
@@ -20539,7 +20604,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -20553,7 +20618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>26</v>
       </c>
@@ -20567,7 +20632,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>25</v>
       </c>
@@ -20581,7 +20646,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>38</v>
       </c>
@@ -20595,7 +20660,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>189</v>
       </c>
@@ -20615,7 +20680,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>151</v>
       </c>
@@ -20629,7 +20694,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>362</v>
       </c>
@@ -20649,7 +20714,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>26</v>
       </c>
@@ -20663,7 +20728,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -20677,7 +20742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>38</v>
       </c>
@@ -20691,7 +20756,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>364</v>
       </c>
@@ -20711,7 +20776,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -20731,7 +20796,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20745,7 +20810,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>38</v>
       </c>
@@ -20759,7 +20824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>64</v>
       </c>
@@ -20773,7 +20838,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>366</v>
       </c>
@@ -20793,7 +20858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>367</v>
       </c>
@@ -20807,7 +20872,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -20838,17 +20903,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -20868,7 +20933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -20888,7 +20953,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -20902,7 +20967,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -20916,7 +20981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -20936,7 +21001,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -20950,7 +21015,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -20964,7 +21029,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -20978,7 +21043,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -20998,7 +21063,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -21012,7 +21077,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -21032,7 +21097,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -21052,7 +21117,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -21066,7 +21131,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -21080,7 +21145,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -21094,7 +21159,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -21111,7 +21176,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -21125,7 +21190,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -21139,7 +21204,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -21153,7 +21218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>38</v>
       </c>
@@ -21167,7 +21232,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>64</v>
       </c>
@@ -21181,7 +21246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>382</v>
       </c>
@@ -21201,7 +21266,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -21215,7 +21280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -21229,7 +21294,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -21243,7 +21308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -21257,7 +21322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -21277,7 +21342,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>746</v>
       </c>
@@ -21297,7 +21362,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -21311,7 +21376,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -21325,7 +21390,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -21339,7 +21404,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>38</v>
       </c>
@@ -21353,7 +21418,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>64</v>
       </c>
@@ -21367,7 +21432,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -21387,7 +21452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -21401,7 +21466,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -21415,7 +21480,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -21435,7 +21500,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>151</v>
       </c>
@@ -21449,7 +21514,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -21463,7 +21528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -21477,7 +21542,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -21491,7 +21556,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -21511,7 +21576,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -21525,7 +21590,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -21539,7 +21604,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -21553,7 +21618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -21567,7 +21632,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>38</v>
       </c>
@@ -21581,7 +21646,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -21601,7 +21666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>312</v>
       </c>
@@ -21621,7 +21686,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -21635,7 +21700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -21649,7 +21714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -21663,7 +21728,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -21683,7 +21748,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -21697,7 +21762,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -21711,7 +21776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>362</v>
       </c>
@@ -21731,7 +21796,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -21745,7 +21810,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -21759,7 +21824,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -21773,7 +21838,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -21793,7 +21858,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>26</v>
       </c>
@@ -21807,7 +21872,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>263</v>
       </c>
@@ -21827,7 +21892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>26</v>
       </c>
@@ -21841,7 +21906,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>25</v>
       </c>
@@ -21855,7 +21920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>38</v>
       </c>
@@ -21869,7 +21934,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>64</v>
       </c>
@@ -21883,7 +21948,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>366</v>
       </c>
@@ -21903,7 +21968,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>367</v>
       </c>
@@ -21917,7 +21982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -21931,7 +21996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>38</v>
       </c>
@@ -21945,7 +22010,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>64</v>
       </c>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4944" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DFE1762-A7DD-4436-865A-C4108E4C015B}"/>
+  <xr:revisionPtr revIDLastSave="4962" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{510C6A3D-04E1-4EDA-90E7-0EDCC220EDA5}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17535" windowHeight="15285" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4177" uniqueCount="774">
   <si>
     <t>YEAR</t>
   </si>
@@ -2368,6 +2368,18 @@
   </si>
   <si>
     <t>Clara Tauson (DENMARK)</t>
+  </si>
+  <si>
+    <t>Magdalena Fręch (POLAND)</t>
+  </si>
+  <si>
+    <t>Wang Xinyu (CHINA)</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-3</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-2</t>
   </si>
 </sst>
 </file>
@@ -2729,7 +2741,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2909,7 +2921,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6331,9 +6343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6371,7 +6383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6477,7 +6489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6619,7 +6631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13446,8 +13458,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14877,10 +14889,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="E2:E4 E7:E9"/>
+      <selection activeCell="E12" activeCellId="2" sqref="E2:E4 E7:E9 E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15035,6 +15047,68 @@
       </c>
       <c r="F10" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>771</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>621</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>636</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -15530,16 +15604,16 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
@@ -15552,7 +15626,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -15560,15 +15634,15 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59768211920529801</v>
+        <v>0.59802306425041185</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -15577,7 +15651,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>12.681818181818182</v>
+        <v>12.727272727272727</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -15585,15 +15659,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>27.454545454545453</v>
+        <v>27.59090909090909</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>11.045454545454545</v>
+        <v>11.090909090909092</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.5976821192052979</v>
+        <v>0.59802306425041185</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4962" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{510C6A3D-04E1-4EDA-90E7-0EDCC220EDA5}"/>
+  <xr:revisionPtr revIDLastSave="4975" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5E8B7B-A878-41E1-9E4F-007D3EF461BF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4177" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="776">
   <si>
     <t>YEAR</t>
   </si>
@@ -2380,6 +2380,12 @@
   </si>
   <si>
     <t>7-6(5) 6-2</t>
+  </si>
+  <si>
+    <t>Arantxa Rus (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>4-6 6-2 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2747,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,7 +2927,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3510,7 +3516,7 @@
                   <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14102,7 +14108,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14889,20 +14895,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" activeCellId="2" sqref="E2:E4 E7:E9 E12:E14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -15109,6 +15115,40 @@
       </c>
       <c r="F15" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>774</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>692</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -15604,20 +15644,20 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -15626,7 +15666,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -15634,15 +15674,15 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59802306425041185</v>
+        <v>0.59703947368421051</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -15651,7 +15691,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>12.727272727272727</v>
+        <v>12.772727272727273</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -15659,15 +15699,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>27.59090909090909</v>
+        <v>27.636363636363637</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>11.090909090909092</v>
+        <v>11.136363636363637</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.59802306425041185</v>
+        <v>0.59703947368421051</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4975" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5E8B7B-A878-41E1-9E4F-007D3EF461BF}"/>
+  <xr:revisionPtr revIDLastSave="4983" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F2910F-DC11-4883-A26C-D3A99B1E5B4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="28800" windowHeight="15285" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4193" uniqueCount="778">
   <si>
     <t>YEAR</t>
   </si>
@@ -2386,6 +2386,12 @@
   </si>
   <si>
     <t>4-6 6-2 RETIRED</t>
+  </si>
+  <si>
+    <t>Caroline Dolehide (USA)</t>
+  </si>
+  <si>
+    <t>7-5 2-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -2927,7 +2933,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3516,7 +3522,7 @@
                   <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6349,9 +6355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6389,7 +6395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6495,7 +6501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6637,7 +6643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14895,10 +14901,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15149,6 +15155,26 @@
       </c>
       <c r="F18" t="s">
         <v>775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>672</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>776</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -15644,7 +15670,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -15653,11 +15679,11 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -15666,7 +15692,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -15678,11 +15704,11 @@
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59703947368421051</v>
+        <v>0.59539473684210531</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -15691,7 +15717,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>12.772727272727273</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -15703,11 +15729,11 @@
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>11.136363636363637</v>
+        <v>11.181818181818182</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.59703947368421051</v>
+        <v>0.5953947368421052</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4983" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F2910F-DC11-4883-A26C-D3A99B1E5B4C}"/>
+  <xr:revisionPtr revIDLastSave="5018" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77FB7F35-2ABC-438D-B1A7-CB478E85ADBB}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="28800" windowHeight="15285" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4193" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="786">
   <si>
     <t>YEAR</t>
   </si>
@@ -2392,6 +2392,30 @@
   </si>
   <si>
     <t>7-5 2-6 6-3</t>
+  </si>
+  <si>
+    <t>Peyton Stearns (USA)</t>
+  </si>
+  <si>
+    <t>7-5 3-6 6-4</t>
+  </si>
+  <si>
+    <t>7-6(4) 1-6 6-3</t>
+  </si>
+  <si>
+    <t>6-4 0-6 7-6(2)</t>
+  </si>
+  <si>
+    <t>Katie Boulter (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Taylor Townsend (USA)</t>
   </si>
 </sst>
 </file>
@@ -2753,7 +2777,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,7 +2957,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3522,7 +3546,7 @@
                   <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6350,10 +6374,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6660,17 +6680,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6690,7 +6710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6710,7 +6730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6747,17 +6767,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6777,7 +6797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -6797,7 +6817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -6811,7 +6831,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -6825,7 +6845,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -6839,7 +6859,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -6853,7 +6873,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -6873,7 +6893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -6887,7 +6907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6901,7 +6921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -6915,7 +6935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -6929,7 +6949,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -6943,7 +6963,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -6957,7 +6977,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -6977,7 +6997,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -6991,7 +7011,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7005,7 +7025,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>38</v>
       </c>
@@ -7019,7 +7039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>64</v>
       </c>
@@ -7033,7 +7053,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -7053,7 +7073,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -7067,7 +7087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -7081,7 +7101,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -7095,7 +7115,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -7109,7 +7129,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -7123,7 +7143,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -7143,7 +7163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -7157,7 +7177,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -7171,7 +7191,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -7185,7 +7205,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -7205,7 +7225,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -7219,7 +7239,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -7233,7 +7253,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>64</v>
       </c>
@@ -7247,7 +7267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>746</v>
       </c>
@@ -7267,7 +7287,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -7281,7 +7301,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -7295,7 +7315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -7309,7 +7329,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -7323,7 +7343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>64</v>
       </c>
@@ -7337,7 +7357,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -7357,7 +7377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>26</v>
       </c>
@@ -7371,7 +7391,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7391,7 +7411,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -7405,7 +7425,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -7419,7 +7439,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -7433,7 +7453,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -7453,7 +7473,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>151</v>
       </c>
@@ -7467,7 +7487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7481,7 +7501,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -7495,7 +7515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7509,7 +7529,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -7523,7 +7543,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>316</v>
       </c>
@@ -7543,7 +7563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>151</v>
       </c>
@@ -7557,7 +7577,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7571,7 +7591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>26</v>
       </c>
@@ -7585,7 +7605,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>25</v>
       </c>
@@ -7599,7 +7619,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>38</v>
       </c>
@@ -7613,7 +7633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>312</v>
       </c>
@@ -7633,7 +7653,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -7653,7 +7673,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>151</v>
       </c>
@@ -7667,7 +7687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>12</v>
       </c>
@@ -7681,7 +7701,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>26</v>
       </c>
@@ -7695,7 +7715,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>25</v>
       </c>
@@ -7709,7 +7729,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>38</v>
       </c>
@@ -7723,7 +7743,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>64</v>
       </c>
@@ -7737,7 +7757,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>362</v>
       </c>
@@ -7757,7 +7777,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -7771,7 +7791,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -7785,7 +7805,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>364</v>
       </c>
@@ -7805,7 +7825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>12</v>
       </c>
@@ -7819,7 +7839,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>26</v>
       </c>
@@ -7833,7 +7853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>25</v>
       </c>
@@ -7847,7 +7867,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>38</v>
       </c>
@@ -7861,7 +7881,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>64</v>
       </c>
@@ -7875,8 +7895,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>484</v>
       </c>
@@ -7896,7 +7916,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>26</v>
       </c>
@@ -7910,7 +7930,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>25</v>
       </c>
@@ -7924,7 +7944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>38</v>
       </c>
@@ -7938,7 +7958,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>64</v>
       </c>
@@ -7952,7 +7972,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>366</v>
       </c>
@@ -7972,7 +7992,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>367</v>
       </c>
@@ -7986,7 +8006,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>367</v>
       </c>
@@ -8000,7 +8020,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>38</v>
       </c>
@@ -8032,17 +8052,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8062,7 +8082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -8082,7 +8102,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -8096,7 +8116,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -8110,7 +8130,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -8130,7 +8150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -8144,7 +8164,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -8158,7 +8178,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -8172,7 +8192,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -8186,7 +8206,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -8200,7 +8220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>64</v>
       </c>
@@ -8214,7 +8234,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -8234,7 +8254,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -8248,7 +8268,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8262,7 +8282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -8276,7 +8296,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -8290,7 +8310,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>672</v>
       </c>
@@ -8310,7 +8330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -8324,7 +8344,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -8338,7 +8358,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -8352,7 +8372,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>746</v>
       </c>
@@ -8372,7 +8392,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -8386,7 +8406,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -8406,7 +8426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -8420,7 +8440,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -8434,7 +8454,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -8448,7 +8468,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -8462,7 +8482,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -8482,7 +8502,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>151</v>
       </c>
@@ -8496,7 +8516,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -8510,7 +8530,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -8524,7 +8544,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -8538,7 +8558,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>38</v>
       </c>
@@ -8552,7 +8572,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -8572,7 +8592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -8586,7 +8606,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>506</v>
       </c>
@@ -8606,7 +8626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8620,7 +8640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>38</v>
       </c>
@@ -8634,7 +8654,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>64</v>
       </c>
@@ -8648,7 +8668,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>355</v>
       </c>
@@ -8668,7 +8688,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -8682,7 +8702,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8696,7 +8716,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -8710,7 +8730,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>64</v>
       </c>
@@ -8724,7 +8744,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -8744,7 +8764,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -8758,7 +8778,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -8772,7 +8792,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>26</v>
       </c>
@@ -8786,7 +8806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8800,7 +8820,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>38</v>
       </c>
@@ -8814,7 +8834,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>64</v>
       </c>
@@ -8828,7 +8848,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -8848,7 +8868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -8868,7 +8888,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -8888,7 +8908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>367</v>
       </c>
@@ -8902,7 +8922,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>367</v>
       </c>
@@ -8934,17 +8954,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8964,7 +8984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -8984,7 +9004,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -8998,7 +9018,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -9012,7 +9032,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>64</v>
       </c>
@@ -9026,7 +9046,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -9046,7 +9066,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -9060,7 +9080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -9074,7 +9094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9088,7 +9108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9102,7 +9122,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -9122,7 +9142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>308</v>
       </c>
@@ -9142,7 +9162,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -9162,7 +9182,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>151</v>
       </c>
@@ -9176,7 +9196,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>248</v>
       </c>
@@ -9196,7 +9216,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -9216,7 +9236,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -9230,7 +9250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9244,7 +9264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -9264,7 +9284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>137</v>
       </c>
@@ -9278,7 +9298,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -9292,7 +9312,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -9306,7 +9326,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -9320,7 +9340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>362</v>
       </c>
@@ -9340,7 +9360,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -9372,17 +9392,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9402,7 +9422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -9422,7 +9442,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -9442,7 +9462,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>151</v>
       </c>
@@ -9456,7 +9476,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -9470,7 +9490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -9484,7 +9504,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>418</v>
       </c>
@@ -9504,7 +9524,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9518,7 +9538,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9532,7 +9552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>38</v>
       </c>
@@ -9546,7 +9566,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>64</v>
       </c>
@@ -9560,7 +9580,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>672</v>
       </c>
@@ -9580,7 +9600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9594,8 +9614,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -9615,7 +9635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -9629,7 +9649,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -9643,7 +9663,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -9663,7 +9683,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -9677,7 +9697,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -9691,7 +9711,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -9711,7 +9731,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -9725,7 +9745,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -9739,7 +9759,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -9753,7 +9773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -9773,7 +9793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>151</v>
       </c>
@@ -9787,7 +9807,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -9801,7 +9821,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>542</v>
       </c>
@@ -9821,7 +9841,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -9835,7 +9855,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -9855,7 +9875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>151</v>
       </c>
@@ -9869,7 +9889,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -9883,7 +9903,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -9897,7 +9917,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -9911,7 +9931,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>312</v>
       </c>
@@ -9931,7 +9951,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -9945,7 +9965,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -9959,7 +9979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -9979,7 +9999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -9993,7 +10013,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -10007,7 +10027,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -10027,7 +10047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>151</v>
       </c>
@@ -10041,7 +10061,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -10055,7 +10075,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>26</v>
       </c>
@@ -10069,7 +10089,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -10083,7 +10103,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>551</v>
       </c>
@@ -10103,7 +10123,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -10135,17 +10155,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10165,7 +10185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -10185,7 +10205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10199,7 +10219,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -10213,7 +10233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -10227,7 +10247,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -10241,7 +10261,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -10261,7 +10281,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -10275,7 +10295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -10289,7 +10309,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -10303,7 +10323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -10317,7 +10337,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>559</v>
       </c>
@@ -10337,7 +10357,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -10351,7 +10371,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>672</v>
       </c>
@@ -10371,7 +10391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10385,7 +10405,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -10399,7 +10419,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -10413,7 +10433,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -10427,7 +10447,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>64</v>
       </c>
@@ -10441,7 +10461,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -10461,7 +10481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -10475,7 +10495,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -10489,7 +10509,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -10503,7 +10523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -10517,7 +10537,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>64</v>
       </c>
@@ -10531,7 +10551,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>568</v>
       </c>
@@ -10548,7 +10568,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>571</v>
       </c>
@@ -10559,7 +10579,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>746</v>
       </c>
@@ -10579,7 +10599,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -10593,7 +10613,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -10607,7 +10627,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -10627,7 +10647,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -10665,17 +10685,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10695,7 +10715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>575</v>
       </c>
@@ -10715,7 +10735,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10729,7 +10749,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -10749,7 +10769,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10763,7 +10783,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10777,7 +10797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10809,17 +10829,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10839,7 +10859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -10859,7 +10879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>151</v>
       </c>
@@ -10873,7 +10893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -10893,7 +10913,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10907,7 +10927,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10921,7 +10941,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10935,7 +10955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -10949,7 +10969,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -10963,7 +10983,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>746</v>
       </c>
@@ -10983,7 +11003,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -10997,7 +11017,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -11017,7 +11037,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -11037,7 +11057,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>575</v>
       </c>
@@ -11057,7 +11077,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11071,7 +11091,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -11091,7 +11111,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>151</v>
       </c>
@@ -11105,7 +11125,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>591</v>
       </c>
@@ -11125,7 +11145,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -11139,7 +11159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -11153,7 +11173,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -11173,7 +11193,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11187,7 +11207,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -11207,7 +11227,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11221,7 +11241,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -11241,7 +11261,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>151</v>
       </c>
@@ -11255,7 +11275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -11269,7 +11289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>362</v>
       </c>
@@ -11289,7 +11309,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -11303,7 +11323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -11335,17 +11355,17 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11365,7 +11385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -11385,7 +11405,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -11405,7 +11425,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>605</v>
       </c>
@@ -11425,7 +11445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -11439,7 +11459,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>559</v>
       </c>
@@ -11459,7 +11479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -11473,7 +11493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -11487,7 +11507,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -11507,7 +11527,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -11521,7 +11541,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -11541,7 +11561,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>151</v>
       </c>
@@ -11555,7 +11575,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>612</v>
       </c>
@@ -11575,7 +11595,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11589,7 +11609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -11603,7 +11623,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>38</v>
       </c>
@@ -11617,7 +11637,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>64</v>
       </c>
@@ -11631,7 +11651,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>568</v>
       </c>
@@ -11648,7 +11668,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>600</v>
       </c>
@@ -11659,7 +11679,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -11679,7 +11699,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -11693,7 +11713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -11707,7 +11727,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>746</v>
       </c>
@@ -11727,7 +11747,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11741,7 +11761,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -11761,7 +11781,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11775,7 +11795,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -11789,7 +11809,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -11803,7 +11823,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -11823,7 +11843,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>151</v>
       </c>
@@ -11837,7 +11857,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>575</v>
       </c>
@@ -11857,7 +11877,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>185</v>
       </c>
@@ -11877,7 +11897,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -11891,7 +11911,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -11905,7 +11925,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>591</v>
       </c>
@@ -11925,7 +11945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -11939,7 +11959,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -11959,7 +11979,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -11973,7 +11993,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -11993,7 +12013,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -12007,7 +12027,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>189</v>
       </c>
@@ -12045,17 +12065,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12075,7 +12095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -12095,7 +12115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>627</v>
       </c>
@@ -12115,7 +12135,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -12135,7 +12155,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -12149,7 +12169,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12163,7 +12183,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12177,7 +12197,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12191,7 +12211,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>64</v>
       </c>
@@ -12205,7 +12225,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -12225,7 +12245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -12239,7 +12259,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -12253,7 +12273,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -12267,7 +12287,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -12281,7 +12301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>38</v>
       </c>
@@ -12295,7 +12315,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>64</v>
       </c>
@@ -12309,7 +12329,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -12326,7 +12346,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -12340,7 +12360,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -12354,7 +12374,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -12368,7 +12388,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -12388,7 +12408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>151</v>
       </c>
@@ -12402,7 +12422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>641</v>
       </c>
@@ -12422,7 +12442,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -12436,7 +12456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -12450,7 +12470,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -12482,17 +12502,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12512,7 +12532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>644</v>
       </c>
@@ -12532,7 +12552,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -12546,7 +12566,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12566,7 +12586,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -12586,7 +12606,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12600,7 +12620,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12614,7 +12634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12628,7 +12648,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -12648,7 +12668,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -12662,7 +12682,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -12676,7 +12696,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>746</v>
       </c>
@@ -12696,7 +12716,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -12710,7 +12730,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -12730,7 +12750,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>151</v>
       </c>
@@ -12744,7 +12764,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -12758,7 +12778,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -12772,7 +12792,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -12792,7 +12812,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -12806,7 +12826,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -12820,7 +12840,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -12834,7 +12854,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>656</v>
       </c>
@@ -12854,7 +12874,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -12868,7 +12888,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -12882,7 +12902,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -12902,7 +12922,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -12916,7 +12936,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>312</v>
       </c>
@@ -12936,7 +12956,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -12950,7 +12970,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -12964,7 +12984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>355</v>
       </c>
@@ -12984,7 +13004,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -12998,7 +13018,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>26</v>
       </c>
@@ -13012,7 +13032,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -13032,7 +13052,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>151</v>
       </c>
@@ -13046,7 +13066,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -13060,7 +13080,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>668</v>
       </c>
@@ -13080,7 +13100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -13094,7 +13114,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -13108,7 +13128,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>672</v>
       </c>
@@ -13128,7 +13148,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -13142,7 +13162,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -13156,7 +13176,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -13170,7 +13190,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>38</v>
       </c>
@@ -13184,7 +13204,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>64</v>
       </c>
@@ -13215,17 +13235,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13245,7 +13265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13265,7 +13285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13279,7 +13299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13293,7 +13313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -13313,7 +13333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -13333,7 +13353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13347,7 +13367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -13361,7 +13381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -13375,7 +13395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -13395,7 +13415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -13409,7 +13429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -13429,7 +13449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -13443,7 +13463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -13474,17 +13494,17 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13504,7 +13524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>680</v>
       </c>
@@ -13524,7 +13544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13538,7 +13558,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13552,7 +13572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -13572,7 +13592,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -13586,7 +13606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -13600,7 +13620,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13614,7 +13634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -13634,7 +13654,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>418</v>
       </c>
@@ -13654,7 +13674,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -13668,7 +13688,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -13688,7 +13708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -13702,7 +13722,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -13722,7 +13742,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -13736,7 +13756,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -13756,7 +13776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -13770,7 +13790,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -13784,7 +13804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -13804,7 +13824,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -13818,7 +13838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -13832,7 +13852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -13852,7 +13872,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>151</v>
       </c>
@@ -13866,7 +13886,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -13880,7 +13900,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>705</v>
       </c>
@@ -13900,7 +13920,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>26</v>
       </c>
@@ -13914,7 +13934,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -13928,7 +13948,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>355</v>
       </c>
@@ -13948,7 +13968,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -13962,7 +13982,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -13982,7 +14002,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -13996,7 +14016,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -14010,7 +14030,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -14024,7 +14044,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>715</v>
       </c>
@@ -14044,7 +14064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -14058,7 +14078,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>26</v>
       </c>
@@ -14072,7 +14092,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -14086,7 +14106,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>38</v>
       </c>
@@ -14117,17 +14137,17 @@
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14147,7 +14167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>729</v>
       </c>
@@ -14167,7 +14187,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="C3" t="s">
         <v>26</v>
@@ -14182,7 +14202,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -14196,7 +14216,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>730</v>
       </c>
@@ -14216,7 +14236,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -14236,7 +14256,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -14250,7 +14270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -14264,7 +14284,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -14278,7 +14298,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -14292,7 +14312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -14306,7 +14326,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -14326,7 +14346,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -14340,7 +14360,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -14360,7 +14380,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -14374,7 +14394,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -14388,7 +14408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -14408,7 +14428,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -14428,7 +14448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -14442,7 +14462,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>742</v>
       </c>
@@ -14462,7 +14482,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -14476,7 +14496,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>746</v>
       </c>
@@ -14496,7 +14516,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -14516,7 +14536,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -14530,7 +14550,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -14550,7 +14570,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>751</v>
       </c>
@@ -14570,7 +14590,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -14584,7 +14604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>653</v>
       </c>
@@ -14604,7 +14624,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>185</v>
       </c>
@@ -14624,7 +14644,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -14638,7 +14658,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -14652,7 +14672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -14666,7 +14686,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>705</v>
       </c>
@@ -14686,7 +14706,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>757</v>
       </c>
@@ -14706,7 +14726,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -14720,7 +14740,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>355</v>
       </c>
@@ -14740,7 +14760,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -14754,7 +14774,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -14774,7 +14794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -14788,7 +14808,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>715</v>
       </c>
@@ -14808,7 +14828,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -14822,7 +14842,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>26</v>
       </c>
@@ -14836,7 +14856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -14850,7 +14870,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -14870,7 +14890,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>763</v>
       </c>
@@ -14901,23 +14921,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" activeCellId="6" sqref="E5 E10 E15 E18 E20 E26 E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14937,7 +14957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -14957,7 +14977,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -14971,7 +14991,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -14985,7 +15005,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -14999,7 +15019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -15019,7 +15039,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -15033,7 +15053,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -15047,7 +15067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -15061,7 +15081,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>733</v>
       </c>
@@ -15081,7 +15101,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -15095,7 +15115,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -15109,7 +15129,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -15123,7 +15143,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>376</v>
       </c>
@@ -15143,7 +15163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -15157,7 +15177,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>672</v>
       </c>
@@ -15175,6 +15195,130 @@
       </c>
       <c r="F20" t="s">
         <v>777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" t="s">
+        <v>778</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>738</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>782</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>688</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>692</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>742</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>783</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>785</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>676</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -15194,17 +15338,17 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15224,7 +15368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -15245,7 +15389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -15266,7 +15410,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -15287,7 +15431,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -15308,7 +15452,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -15329,7 +15473,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -15350,7 +15494,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -15371,7 +15515,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -15392,7 +15536,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -15413,7 +15557,7 @@
         <v>0.69811320754716977</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -15434,7 +15578,7 @@
         <v>0.85507246376811596</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -15455,7 +15599,7 @@
         <v>0.79069767441860461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -15476,7 +15620,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -15497,7 +15641,7 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -15518,7 +15662,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -15539,7 +15683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -15560,7 +15704,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -15581,7 +15725,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -15602,7 +15746,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -15623,7 +15767,7 @@
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -15644,7 +15788,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2023</v>
       </c>
@@ -15665,34 +15809,34 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -15700,24 +15844,24 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59539473684210531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.59609120521172643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>12.818181818181818</v>
+        <v>12.909090909090908</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -15725,15 +15869,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>27.636363636363637</v>
+        <v>27.90909090909091</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>11.181818181818182</v>
+        <v>11.272727272727273</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.5953947368421052</v>
+        <v>0.59609120521172643</v>
       </c>
     </row>
   </sheetData>
@@ -15762,17 +15906,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15792,7 +15936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -15812,7 +15956,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -15826,7 +15970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -15840,7 +15984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -15860,7 +16004,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -15874,7 +16018,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -15888,7 +16032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>38</v>
       </c>
@@ -15902,7 +16046,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -15916,7 +16060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -15936,7 +16080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -15950,7 +16094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -15964,7 +16108,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>38</v>
       </c>
@@ -15978,7 +16122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -15998,7 +16142,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>86</v>
       </c>
@@ -16012,7 +16156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -16026,7 +16170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -16043,7 +16187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -16057,7 +16201,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -16071,7 +16215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>38</v>
       </c>
@@ -16085,7 +16229,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -16105,7 +16249,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -16119,7 +16263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16133,7 +16277,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -16147,7 +16291,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -16161,7 +16305,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -16181,7 +16325,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -16195,7 +16339,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>85</v>
       </c>
@@ -16209,7 +16353,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -16229,7 +16373,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -16249,7 +16393,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>86</v>
       </c>
@@ -16263,7 +16407,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -16277,7 +16421,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -16291,7 +16435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -16305,7 +16449,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -16319,7 +16463,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -16356,17 +16500,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16386,7 +16530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -16406,7 +16550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -16420,7 +16564,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -16440,7 +16584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -16454,7 +16598,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -16468,7 +16612,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>137</v>
       </c>
@@ -16482,7 +16626,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -16502,7 +16646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -16516,7 +16660,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -16536,7 +16680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>86</v>
       </c>
@@ -16550,7 +16694,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -16570,7 +16714,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>86</v>
       </c>
@@ -16584,7 +16728,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>137</v>
       </c>
@@ -16598,7 +16742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -16612,7 +16756,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -16626,7 +16770,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -16646,7 +16790,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -16660,7 +16804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -16674,7 +16818,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -16688,7 +16832,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -16708,7 +16852,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>86</v>
       </c>
@@ -16722,7 +16866,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>85</v>
       </c>
@@ -16736,7 +16880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -16750,7 +16894,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -16770,7 +16914,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -16784,7 +16928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -16798,7 +16942,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -16818,7 +16962,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -16832,7 +16976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>85</v>
       </c>
@@ -16846,7 +16990,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>137</v>
       </c>
@@ -16860,7 +17004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -16880,7 +17024,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -16900,7 +17044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -16920,7 +17064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -16934,7 +17078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -16948,7 +17092,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -16968,7 +17112,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -16982,7 +17126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -16996,7 +17140,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -17010,7 +17154,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -17030,7 +17174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -17050,7 +17194,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -17064,7 +17208,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -17078,7 +17222,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -17092,7 +17236,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>64</v>
       </c>
@@ -17123,17 +17267,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17153,7 +17297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -17173,7 +17317,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -17187,7 +17331,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -17207,7 +17351,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -17221,7 +17365,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -17235,7 +17379,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -17255,7 +17399,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -17269,7 +17413,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -17289,7 +17433,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -17303,7 +17447,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>137</v>
       </c>
@@ -17317,7 +17461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>151</v>
       </c>
@@ -17331,7 +17475,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -17345,7 +17489,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -17365,7 +17509,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -17379,7 +17523,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -17393,7 +17537,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>230</v>
       </c>
@@ -17413,7 +17557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -17433,7 +17577,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -17447,7 +17591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -17461,7 +17605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -17475,7 +17619,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>64</v>
       </c>
@@ -17489,7 +17633,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -17509,7 +17653,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -17523,7 +17667,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17537,7 +17681,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>38</v>
       </c>
@@ -17551,7 +17695,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -17571,7 +17715,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -17591,7 +17735,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -17611,7 +17755,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>151</v>
       </c>
@@ -17625,7 +17769,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -17639,7 +17783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -17659,7 +17803,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -17679,7 +17823,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -17693,7 +17837,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -17713,7 +17857,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -17727,7 +17871,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -17741,7 +17885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -17755,7 +17899,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -17775,7 +17919,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -17789,7 +17933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -17803,7 +17947,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -17817,7 +17961,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -17837,7 +17981,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -17851,7 +17995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -17865,7 +18009,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -17885,7 +18029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -17899,7 +18043,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -17913,7 +18057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -17927,7 +18071,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>64</v>
       </c>
@@ -17941,7 +18085,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -17961,7 +18105,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -17975,7 +18119,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18006,17 +18150,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18036,7 +18180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -18056,7 +18200,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -18070,7 +18214,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -18084,7 +18228,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -18098,7 +18242,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -18112,7 +18256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -18132,7 +18276,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -18152,7 +18296,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>151</v>
       </c>
@@ -18166,7 +18310,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -18180,7 +18324,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -18200,7 +18344,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -18220,7 +18364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -18234,7 +18378,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -18254,7 +18398,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -18268,7 +18412,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -18288,7 +18432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -18302,7 +18446,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -18316,7 +18460,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -18336,7 +18480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -18350,7 +18494,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -18364,7 +18508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -18378,7 +18522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -18392,7 +18536,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>299</v>
       </c>
@@ -18412,7 +18556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -18426,7 +18570,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>26</v>
       </c>
@@ -18440,7 +18584,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -18454,7 +18598,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -18468,7 +18612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -18488,7 +18632,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -18502,7 +18646,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -18516,7 +18660,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -18536,7 +18680,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -18550,7 +18694,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -18564,7 +18708,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -18578,7 +18722,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>308</v>
       </c>
@@ -18598,7 +18742,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -18618,7 +18762,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -18632,7 +18776,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -18646,7 +18790,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -18666,7 +18810,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -18680,7 +18824,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -18694,7 +18838,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>312</v>
       </c>
@@ -18714,7 +18858,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -18728,7 +18872,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -18742,7 +18886,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -18756,7 +18900,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>38</v>
       </c>
@@ -18770,7 +18914,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -18790,7 +18934,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -18804,7 +18948,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>26</v>
       </c>
@@ -18818,7 +18962,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -18838,7 +18982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -18852,7 +18996,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -18866,7 +19010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -18886,7 +19030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -18900,7 +19044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -18914,7 +19058,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -18928,7 +19072,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -18948,7 +19092,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>381</v>
       </c>
@@ -18968,7 +19112,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -18982,7 +19126,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -19013,17 +19157,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19043,7 +19187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -19063,7 +19207,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -19077,7 +19221,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -19091,7 +19235,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -19105,7 +19249,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -19119,7 +19263,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -19139,7 +19283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -19153,7 +19297,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -19167,7 +19311,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -19181,7 +19325,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -19201,7 +19345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -19215,7 +19359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -19229,7 +19373,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -19243,7 +19387,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -19257,7 +19401,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -19277,7 +19421,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -19291,7 +19435,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -19305,7 +19449,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -19319,7 +19463,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -19333,7 +19477,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -19353,7 +19497,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -19367,7 +19511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -19381,7 +19525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -19395,7 +19539,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -19409,7 +19553,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -19423,7 +19567,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -19443,7 +19587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -19457,7 +19601,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -19477,7 +19621,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -19491,7 +19635,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -19505,7 +19649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -19519,7 +19663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>746</v>
       </c>
@@ -19539,7 +19683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -19553,7 +19697,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -19573,7 +19717,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>151</v>
       </c>
@@ -19587,7 +19731,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -19601,7 +19745,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -19615,7 +19759,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -19629,7 +19773,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -19649,7 +19793,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -19663,7 +19807,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -19677,7 +19821,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -19691,7 +19835,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19705,7 +19849,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -19725,7 +19869,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>355</v>
       </c>
@@ -19745,7 +19889,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -19759,7 +19903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -19773,7 +19917,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -19793,7 +19937,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -19807,7 +19951,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -19827,7 +19971,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>151</v>
       </c>
@@ -19841,7 +19985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -19855,7 +19999,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -19875,7 +20019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -19889,7 +20033,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -19903,7 +20047,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>364</v>
       </c>
@@ -19923,7 +20067,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -19937,7 +20081,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -19957,7 +20101,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>367</v>
       </c>
@@ -19971,7 +20115,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -20002,17 +20146,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -20032,7 +20176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -20052,7 +20196,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -20066,7 +20210,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -20080,7 +20224,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -20094,7 +20238,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -20114,7 +20258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -20128,7 +20272,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -20142,7 +20286,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -20156,7 +20300,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -20170,7 +20314,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>376</v>
       </c>
@@ -20190,7 +20334,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -20204,7 +20348,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -20218,7 +20362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -20232,7 +20376,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -20246,7 +20390,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -20266,7 +20410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -20280,7 +20424,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -20300,7 +20444,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -20314,7 +20458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -20328,7 +20472,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -20348,7 +20492,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -20362,7 +20506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -20376,7 +20520,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>292</v>
       </c>
@@ -20396,7 +20540,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -20416,7 +20560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -20430,7 +20574,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -20450,7 +20594,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -20464,7 +20608,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>746</v>
       </c>
@@ -20484,7 +20628,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -20504,7 +20648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>308</v>
       </c>
@@ -20524,7 +20668,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>26</v>
       </c>
@@ -20538,7 +20682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -20552,7 +20696,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>38</v>
       </c>
@@ -20566,7 +20710,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>64</v>
       </c>
@@ -20580,7 +20724,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -20600,7 +20744,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>151</v>
       </c>
@@ -20614,7 +20758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -20628,7 +20772,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -20648,7 +20792,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>26</v>
       </c>
@@ -20662,7 +20806,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>25</v>
       </c>
@@ -20676,7 +20820,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>38</v>
       </c>
@@ -20690,7 +20834,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>64</v>
       </c>
@@ -20704,7 +20848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>355</v>
       </c>
@@ -20724,7 +20868,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>312</v>
       </c>
@@ -20744,7 +20888,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -20758,7 +20902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>26</v>
       </c>
@@ -20772,7 +20916,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>25</v>
       </c>
@@ -20786,7 +20930,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>38</v>
       </c>
@@ -20800,7 +20944,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>189</v>
       </c>
@@ -20820,7 +20964,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>151</v>
       </c>
@@ -20834,7 +20978,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>362</v>
       </c>
@@ -20854,7 +20998,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>26</v>
       </c>
@@ -20868,7 +21012,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -20882,7 +21026,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>38</v>
       </c>
@@ -20896,7 +21040,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>364</v>
       </c>
@@ -20916,7 +21060,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -20936,7 +21080,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -20950,7 +21094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>38</v>
       </c>
@@ -20964,7 +21108,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>64</v>
       </c>
@@ -20978,7 +21122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>366</v>
       </c>
@@ -20998,7 +21142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>367</v>
       </c>
@@ -21012,7 +21156,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -21043,17 +21187,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -21073,7 +21217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -21093,7 +21237,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -21107,7 +21251,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -21121,7 +21265,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -21141,7 +21285,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -21155,7 +21299,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -21169,7 +21313,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -21183,7 +21327,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -21203,7 +21347,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -21217,7 +21361,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -21237,7 +21381,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -21257,7 +21401,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -21271,7 +21415,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -21285,7 +21429,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -21299,7 +21443,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -21316,7 +21460,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -21330,7 +21474,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -21344,7 +21488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -21358,7 +21502,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>38</v>
       </c>
@@ -21372,7 +21516,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>64</v>
       </c>
@@ -21386,7 +21530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>382</v>
       </c>
@@ -21406,7 +21550,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -21420,7 +21564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -21434,7 +21578,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -21448,7 +21592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -21462,7 +21606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -21482,7 +21626,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>746</v>
       </c>
@@ -21502,7 +21646,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -21516,7 +21660,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -21530,7 +21674,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -21544,7 +21688,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>38</v>
       </c>
@@ -21558,7 +21702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>64</v>
       </c>
@@ -21572,7 +21716,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -21592,7 +21736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -21606,7 +21750,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -21620,7 +21764,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -21640,7 +21784,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>151</v>
       </c>
@@ -21654,7 +21798,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -21668,7 +21812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -21682,7 +21826,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -21696,7 +21840,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -21716,7 +21860,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -21730,7 +21874,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -21744,7 +21888,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -21758,7 +21902,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -21772,7 +21916,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>38</v>
       </c>
@@ -21786,7 +21930,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -21806,7 +21950,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>312</v>
       </c>
@@ -21826,7 +21970,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -21840,7 +21984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -21854,7 +21998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -21868,7 +22012,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -21888,7 +22032,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -21902,7 +22046,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -21916,7 +22060,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>362</v>
       </c>
@@ -21936,7 +22080,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -21950,7 +22094,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -21964,7 +22108,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -21978,7 +22122,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -21998,7 +22142,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>26</v>
       </c>
@@ -22012,7 +22156,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>263</v>
       </c>
@@ -22032,7 +22176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>26</v>
       </c>
@@ -22046,7 +22190,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>25</v>
       </c>
@@ -22060,7 +22204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>38</v>
       </c>
@@ -22074,7 +22218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>64</v>
       </c>
@@ -22088,7 +22232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>366</v>
       </c>
@@ -22108,7 +22252,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>367</v>
       </c>
@@ -22122,7 +22266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -22136,7 +22280,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>38</v>
       </c>
@@ -22150,7 +22294,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>64</v>
       </c>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5018" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77FB7F35-2ABC-438D-B1A7-CB478E85ADBB}"/>
+  <xr:revisionPtr revIDLastSave="5029" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F970DDC-C430-42D0-837C-29DF7AADFB2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4239" uniqueCount="788">
   <si>
     <t>YEAR</t>
   </si>
@@ -2416,6 +2416,12 @@
   </si>
   <si>
     <t>Taylor Townsend (USA)</t>
+  </si>
+  <si>
+    <t>Tatjana Maria (GERMANY)</t>
+  </si>
+  <si>
+    <t>7-6(0) 6-3</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2783,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,7 +2963,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,7 +3552,7 @@
                   <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.52941176470588236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12499,7 +12505,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14133,8 +14139,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14921,10 +14927,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" activeCellId="6" sqref="E5 E10 E15 E18 E20 E26 E30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15319,6 +15325,40 @@
       </c>
       <c r="F30" t="s">
         <v>657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>746</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" t="s">
+        <v>786</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>659</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -15814,20 +15854,20 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -15836,7 +15876,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -15844,15 +15884,15 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59609120521172643</v>
+        <v>0.59512195121951217</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -15861,7 +15901,7 @@
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>12.909090909090908</v>
+        <v>12.954545454545455</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -15869,15 +15909,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>27.90909090909091</v>
+        <v>27.954545454545453</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>11.272727272727273</v>
+        <v>11.318181818181818</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.59609120521172643</v>
+        <v>0.59512195121951206</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5029" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F970DDC-C430-42D0-837C-29DF7AADFB2B}"/>
+  <xr:revisionPtr revIDLastSave="5048" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27D5C890-22DA-4FC7-9733-2A5A0394FECE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4239" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="793">
   <si>
     <t>YEAR</t>
   </si>
@@ -2422,6 +2422,21 @@
   </si>
   <si>
     <t>7-6(0) 6-3</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-4 6-3</t>
+  </si>
+  <si>
+    <t>6-2 6-7(6) 6-3</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>Maria Sakkari (GREECE)</t>
+  </si>
+  <si>
+    <t>Mayar Sherif (EGYPT)</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2798,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,7 +2978,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,7 +3567,7 @@
                   <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.52941176470588236</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6686,17 +6701,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6716,7 +6731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6736,7 +6751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6773,17 +6788,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6803,7 +6818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -6823,7 +6838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -6837,7 +6852,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -6851,7 +6866,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -6865,7 +6880,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -6879,7 +6894,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -6899,7 +6914,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -6913,7 +6928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6927,7 +6942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -6941,7 +6956,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -6955,7 +6970,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -6969,7 +6984,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -6983,7 +6998,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -7003,7 +7018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -7017,7 +7032,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7031,7 +7046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>38</v>
       </c>
@@ -7045,7 +7060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>64</v>
       </c>
@@ -7059,7 +7074,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -7079,7 +7094,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -7093,7 +7108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -7107,7 +7122,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -7121,7 +7136,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -7135,7 +7150,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -7149,7 +7164,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -7169,7 +7184,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -7183,7 +7198,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -7197,7 +7212,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -7211,7 +7226,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -7231,7 +7246,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -7245,7 +7260,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -7259,7 +7274,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>64</v>
       </c>
@@ -7273,7 +7288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>746</v>
       </c>
@@ -7293,7 +7308,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -7307,7 +7322,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -7321,7 +7336,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -7335,7 +7350,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -7349,7 +7364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>64</v>
       </c>
@@ -7363,7 +7378,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -7383,7 +7398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>26</v>
       </c>
@@ -7397,7 +7412,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7417,7 +7432,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -7431,7 +7446,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -7445,7 +7460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -7459,7 +7474,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -7479,7 +7494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>151</v>
       </c>
@@ -7493,7 +7508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7507,7 +7522,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -7521,7 +7536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7535,7 +7550,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -7549,7 +7564,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>316</v>
       </c>
@@ -7569,7 +7584,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>151</v>
       </c>
@@ -7583,7 +7598,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7597,7 +7612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>26</v>
       </c>
@@ -7611,7 +7626,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>25</v>
       </c>
@@ -7625,7 +7640,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>38</v>
       </c>
@@ -7639,7 +7654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>312</v>
       </c>
@@ -7659,7 +7674,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -7679,7 +7694,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>151</v>
       </c>
@@ -7693,7 +7708,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>12</v>
       </c>
@@ -7707,7 +7722,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>26</v>
       </c>
@@ -7721,7 +7736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>25</v>
       </c>
@@ -7735,7 +7750,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>38</v>
       </c>
@@ -7749,7 +7764,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>64</v>
       </c>
@@ -7763,7 +7778,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>362</v>
       </c>
@@ -7783,7 +7798,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -7797,7 +7812,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -7811,7 +7826,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>364</v>
       </c>
@@ -7831,7 +7846,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>12</v>
       </c>
@@ -7845,7 +7860,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>26</v>
       </c>
@@ -7859,7 +7874,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>25</v>
       </c>
@@ -7873,7 +7888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>38</v>
       </c>
@@ -7887,7 +7902,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>64</v>
       </c>
@@ -7901,8 +7916,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>484</v>
       </c>
@@ -7922,7 +7937,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>26</v>
       </c>
@@ -7936,7 +7951,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>25</v>
       </c>
@@ -7950,7 +7965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>38</v>
       </c>
@@ -7964,7 +7979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>64</v>
       </c>
@@ -7978,7 +7993,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>366</v>
       </c>
@@ -7998,7 +8013,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>367</v>
       </c>
@@ -8012,7 +8027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>367</v>
       </c>
@@ -8026,7 +8041,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>38</v>
       </c>
@@ -8058,17 +8073,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8088,7 +8103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -8108,7 +8123,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -8122,7 +8137,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -8136,7 +8151,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -8156,7 +8171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -8170,7 +8185,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -8184,7 +8199,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -8198,7 +8213,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -8212,7 +8227,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -8226,7 +8241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>64</v>
       </c>
@@ -8240,7 +8255,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -8260,7 +8275,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -8274,7 +8289,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8288,7 +8303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -8302,7 +8317,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -8316,7 +8331,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>672</v>
       </c>
@@ -8336,7 +8351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -8350,7 +8365,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -8364,7 +8379,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -8378,7 +8393,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>746</v>
       </c>
@@ -8398,7 +8413,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -8412,7 +8427,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -8432,7 +8447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -8446,7 +8461,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -8460,7 +8475,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -8474,7 +8489,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -8488,7 +8503,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -8508,7 +8523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>151</v>
       </c>
@@ -8522,7 +8537,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -8536,7 +8551,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -8550,7 +8565,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -8564,7 +8579,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>38</v>
       </c>
@@ -8578,7 +8593,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -8598,7 +8613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -8612,7 +8627,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>506</v>
       </c>
@@ -8632,7 +8647,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8646,7 +8661,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>38</v>
       </c>
@@ -8660,7 +8675,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>64</v>
       </c>
@@ -8674,7 +8689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>355</v>
       </c>
@@ -8694,7 +8709,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -8708,7 +8723,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8722,7 +8737,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -8736,7 +8751,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>64</v>
       </c>
@@ -8750,7 +8765,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -8770,7 +8785,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -8784,7 +8799,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -8798,7 +8813,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>26</v>
       </c>
@@ -8812,7 +8827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8826,7 +8841,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>38</v>
       </c>
@@ -8840,7 +8855,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>64</v>
       </c>
@@ -8854,7 +8869,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -8874,7 +8889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -8894,7 +8909,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -8914,7 +8929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>367</v>
       </c>
@@ -8928,7 +8943,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>367</v>
       </c>
@@ -8960,17 +8975,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8990,7 +9005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -9010,7 +9025,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -9024,7 +9039,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -9038,7 +9053,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>64</v>
       </c>
@@ -9052,7 +9067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -9072,7 +9087,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -9086,7 +9101,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -9100,7 +9115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9114,7 +9129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9128,7 +9143,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -9148,7 +9163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>308</v>
       </c>
@@ -9168,7 +9183,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -9188,7 +9203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>151</v>
       </c>
@@ -9202,7 +9217,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>248</v>
       </c>
@@ -9222,7 +9237,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -9242,7 +9257,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -9256,7 +9271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9270,7 +9285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -9290,7 +9305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>137</v>
       </c>
@@ -9304,7 +9319,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -9318,7 +9333,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -9332,7 +9347,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -9346,7 +9361,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>362</v>
       </c>
@@ -9366,7 +9381,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -9398,17 +9413,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9428,7 +9443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -9448,7 +9463,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -9468,7 +9483,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>151</v>
       </c>
@@ -9482,7 +9497,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -9496,7 +9511,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -9510,7 +9525,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>418</v>
       </c>
@@ -9530,7 +9545,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9544,7 +9559,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9558,7 +9573,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>38</v>
       </c>
@@ -9572,7 +9587,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>64</v>
       </c>
@@ -9586,7 +9601,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>672</v>
       </c>
@@ -9606,7 +9621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9620,8 +9635,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -9641,7 +9656,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -9655,7 +9670,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -9669,7 +9684,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -9689,7 +9704,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -9703,7 +9718,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -9717,7 +9732,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -9737,7 +9752,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -9751,7 +9766,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -9765,7 +9780,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -9779,7 +9794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -9799,7 +9814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>151</v>
       </c>
@@ -9813,7 +9828,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -9827,7 +9842,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>542</v>
       </c>
@@ -9847,7 +9862,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -9861,7 +9876,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -9881,7 +9896,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>151</v>
       </c>
@@ -9895,7 +9910,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -9909,7 +9924,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -9923,7 +9938,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -9937,7 +9952,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>312</v>
       </c>
@@ -9957,7 +9972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -9971,7 +9986,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -9985,7 +10000,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -10005,7 +10020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -10019,7 +10034,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -10033,7 +10048,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -10053,7 +10068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>151</v>
       </c>
@@ -10067,7 +10082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -10081,7 +10096,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>26</v>
       </c>
@@ -10095,7 +10110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -10109,7 +10124,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>551</v>
       </c>
@@ -10129,7 +10144,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -10161,17 +10176,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10191,7 +10206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -10211,7 +10226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10225,7 +10240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -10239,7 +10254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -10253,7 +10268,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -10267,7 +10282,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -10287,7 +10302,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -10301,7 +10316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -10315,7 +10330,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -10329,7 +10344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -10343,7 +10358,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>559</v>
       </c>
@@ -10363,7 +10378,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -10377,7 +10392,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>672</v>
       </c>
@@ -10397,7 +10412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10411,7 +10426,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -10425,7 +10440,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -10439,7 +10454,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -10453,7 +10468,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>64</v>
       </c>
@@ -10467,7 +10482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -10487,7 +10502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -10501,7 +10516,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -10515,7 +10530,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -10529,7 +10544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -10543,7 +10558,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>64</v>
       </c>
@@ -10557,7 +10572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>568</v>
       </c>
@@ -10574,7 +10589,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>571</v>
       </c>
@@ -10585,7 +10600,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>746</v>
       </c>
@@ -10605,7 +10620,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -10619,7 +10634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -10633,7 +10648,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -10653,7 +10668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -10691,17 +10706,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10721,7 +10736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>575</v>
       </c>
@@ -10741,7 +10756,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10755,7 +10770,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -10775,7 +10790,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10789,7 +10804,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10803,7 +10818,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10835,17 +10850,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10865,7 +10880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -10885,7 +10900,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>151</v>
       </c>
@@ -10899,7 +10914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -10919,7 +10934,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10933,7 +10948,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10947,7 +10962,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10961,7 +10976,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -10975,7 +10990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -10989,7 +11004,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>746</v>
       </c>
@@ -11009,7 +11024,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -11023,7 +11038,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -11043,7 +11058,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -11063,7 +11078,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>575</v>
       </c>
@@ -11083,7 +11098,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11097,7 +11112,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -11117,7 +11132,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>151</v>
       </c>
@@ -11131,7 +11146,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>591</v>
       </c>
@@ -11151,7 +11166,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -11165,7 +11180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -11179,7 +11194,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -11199,7 +11214,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11213,7 +11228,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -11233,7 +11248,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11247,7 +11262,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -11267,7 +11282,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>151</v>
       </c>
@@ -11281,7 +11296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -11295,7 +11310,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>362</v>
       </c>
@@ -11315,7 +11330,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -11329,7 +11344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -11361,17 +11376,17 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11391,7 +11406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -11411,7 +11426,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -11431,7 +11446,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>605</v>
       </c>
@@ -11451,7 +11466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -11465,7 +11480,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>559</v>
       </c>
@@ -11485,7 +11500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -11499,7 +11514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -11513,7 +11528,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -11533,7 +11548,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -11547,7 +11562,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -11567,7 +11582,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>151</v>
       </c>
@@ -11581,7 +11596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>612</v>
       </c>
@@ -11601,7 +11616,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11615,7 +11630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -11629,7 +11644,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>38</v>
       </c>
@@ -11643,7 +11658,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>64</v>
       </c>
@@ -11657,7 +11672,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>568</v>
       </c>
@@ -11674,7 +11689,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>600</v>
       </c>
@@ -11685,7 +11700,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -11705,7 +11720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -11719,7 +11734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -11733,7 +11748,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>746</v>
       </c>
@@ -11753,7 +11768,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11767,7 +11782,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -11787,7 +11802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11801,7 +11816,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -11815,7 +11830,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -11829,7 +11844,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -11849,7 +11864,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>151</v>
       </c>
@@ -11863,7 +11878,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>575</v>
       </c>
@@ -11883,7 +11898,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>185</v>
       </c>
@@ -11903,7 +11918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -11917,7 +11932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -11931,7 +11946,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>591</v>
       </c>
@@ -11951,7 +11966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -11965,7 +11980,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -11985,7 +12000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -11999,7 +12014,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -12019,7 +12034,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -12033,7 +12048,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>189</v>
       </c>
@@ -12071,17 +12086,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12101,7 +12116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -12121,7 +12136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>627</v>
       </c>
@@ -12141,7 +12156,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -12161,7 +12176,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -12175,7 +12190,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12189,7 +12204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12203,7 +12218,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12217,7 +12232,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>64</v>
       </c>
@@ -12231,7 +12246,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -12251,7 +12266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -12265,7 +12280,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -12279,7 +12294,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -12293,7 +12308,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -12307,7 +12322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>38</v>
       </c>
@@ -12321,7 +12336,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>64</v>
       </c>
@@ -12335,7 +12350,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -12352,7 +12367,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -12366,7 +12381,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -12380,7 +12395,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -12394,7 +12409,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -12414,7 +12429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>151</v>
       </c>
@@ -12428,7 +12443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>641</v>
       </c>
@@ -12448,7 +12463,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -12462,7 +12477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -12476,7 +12491,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -12508,17 +12523,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12538,7 +12553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>644</v>
       </c>
@@ -12558,7 +12573,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -12572,7 +12587,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12592,7 +12607,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -12612,7 +12627,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12626,7 +12641,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12640,7 +12655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12654,7 +12669,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -12674,7 +12689,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -12688,7 +12703,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -12702,7 +12717,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>746</v>
       </c>
@@ -12722,7 +12737,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -12736,7 +12751,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -12756,7 +12771,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>151</v>
       </c>
@@ -12770,7 +12785,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -12784,7 +12799,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -12798,7 +12813,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -12818,7 +12833,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -12832,7 +12847,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -12846,7 +12861,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -12860,7 +12875,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>656</v>
       </c>
@@ -12880,7 +12895,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -12894,7 +12909,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -12908,7 +12923,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -12928,7 +12943,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -12942,7 +12957,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>312</v>
       </c>
@@ -12962,7 +12977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -12976,7 +12991,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -12990,7 +13005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>355</v>
       </c>
@@ -13010,7 +13025,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -13024,7 +13039,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>26</v>
       </c>
@@ -13038,7 +13053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -13058,7 +13073,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>151</v>
       </c>
@@ -13072,7 +13087,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -13086,7 +13101,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>668</v>
       </c>
@@ -13106,7 +13121,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -13120,7 +13135,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -13134,7 +13149,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>672</v>
       </c>
@@ -13154,7 +13169,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -13168,7 +13183,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -13182,7 +13197,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -13196,7 +13211,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>38</v>
       </c>
@@ -13210,7 +13225,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>64</v>
       </c>
@@ -13241,17 +13256,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13271,7 +13286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13291,7 +13306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13305,7 +13320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13319,7 +13334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -13339,7 +13354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -13359,7 +13374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13373,7 +13388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -13387,7 +13402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -13401,7 +13416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -13421,7 +13436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -13435,7 +13450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -13455,7 +13470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -13469,7 +13484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -13500,17 +13515,17 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13530,7 +13545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>680</v>
       </c>
@@ -13550,7 +13565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13564,7 +13579,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13578,7 +13593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -13598,7 +13613,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -13612,7 +13627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -13626,7 +13641,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13640,7 +13655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -13660,7 +13675,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>418</v>
       </c>
@@ -13680,7 +13695,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -13694,7 +13709,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -13714,7 +13729,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -13728,7 +13743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -13748,7 +13763,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -13762,7 +13777,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -13782,7 +13797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -13796,7 +13811,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -13810,7 +13825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -13830,7 +13845,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -13844,7 +13859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -13858,7 +13873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -13878,7 +13893,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>151</v>
       </c>
@@ -13892,7 +13907,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -13906,7 +13921,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>705</v>
       </c>
@@ -13926,7 +13941,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>26</v>
       </c>
@@ -13940,7 +13955,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -13954,7 +13969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>355</v>
       </c>
@@ -13974,7 +13989,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -13988,7 +14003,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -14008,7 +14023,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -14022,7 +14037,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -14036,7 +14051,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -14050,7 +14065,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>715</v>
       </c>
@@ -14070,7 +14085,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -14084,7 +14099,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>26</v>
       </c>
@@ -14098,7 +14113,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -14112,7 +14127,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>38</v>
       </c>
@@ -14143,17 +14158,17 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14173,7 +14188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>729</v>
       </c>
@@ -14193,7 +14208,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="C3" t="s">
         <v>26</v>
@@ -14208,7 +14223,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -14222,7 +14237,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>730</v>
       </c>
@@ -14242,7 +14257,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -14262,7 +14277,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -14276,7 +14291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -14290,7 +14305,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -14304,7 +14319,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -14318,7 +14333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -14332,7 +14347,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -14352,7 +14367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -14366,7 +14381,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -14386,7 +14401,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -14400,7 +14415,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -14414,7 +14429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -14434,7 +14449,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -14454,7 +14469,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -14468,7 +14483,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>742</v>
       </c>
@@ -14488,7 +14503,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -14502,7 +14517,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>746</v>
       </c>
@@ -14522,7 +14537,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -14542,7 +14557,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -14556,7 +14571,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -14576,7 +14591,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>751</v>
       </c>
@@ -14596,7 +14611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -14610,7 +14625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>653</v>
       </c>
@@ -14630,7 +14645,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>185</v>
       </c>
@@ -14650,7 +14665,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -14664,7 +14679,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -14678,7 +14693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -14692,7 +14707,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>705</v>
       </c>
@@ -14712,7 +14727,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>757</v>
       </c>
@@ -14732,7 +14747,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -14746,7 +14761,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>355</v>
       </c>
@@ -14766,7 +14781,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -14780,7 +14795,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -14800,7 +14815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -14814,7 +14829,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>715</v>
       </c>
@@ -14834,7 +14849,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -14848,7 +14863,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>26</v>
       </c>
@@ -14862,7 +14877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -14876,7 +14891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -14896,7 +14911,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>763</v>
       </c>
@@ -14927,23 +14942,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" activeCellId="5" sqref="E5 E10 E15 E18 E20 E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14963,7 +14978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -14983,7 +14998,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -14997,7 +15012,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -15011,7 +15026,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -15025,7 +15040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -15045,7 +15060,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -15059,7 +15074,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -15073,7 +15088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -15087,7 +15102,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>733</v>
       </c>
@@ -15107,7 +15122,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -15121,7 +15136,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -15135,7 +15150,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -15149,7 +15164,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>376</v>
       </c>
@@ -15169,7 +15184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -15183,7 +15198,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>672</v>
       </c>
@@ -15203,7 +15218,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -15223,7 +15238,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -15237,7 +15252,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -15251,7 +15266,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -15265,7 +15280,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -15279,7 +15294,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>742</v>
       </c>
@@ -15299,7 +15314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -15313,7 +15328,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -15327,7 +15342,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>746</v>
       </c>
@@ -15347,7 +15362,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -15359,6 +15374,68 @@
       </c>
       <c r="F33" t="s">
         <v>787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>792</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>791</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>790</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -15378,17 +15455,17 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15408,7 +15485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -15429,7 +15506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -15450,7 +15527,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -15471,7 +15548,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -15492,7 +15569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -15513,7 +15590,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -15534,7 +15611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -15555,7 +15632,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -15576,7 +15653,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -15597,7 +15674,7 @@
         <v>0.69811320754716977</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -15618,7 +15695,7 @@
         <v>0.85507246376811596</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -15639,7 +15716,7 @@
         <v>0.79069767441860461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -15660,7 +15737,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -15681,7 +15758,7 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -15702,7 +15779,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -15723,7 +15800,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -15744,7 +15821,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -15765,7 +15842,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -15786,7 +15863,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -15807,7 +15884,7 @@
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -15828,7 +15905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2023</v>
       </c>
@@ -15849,34 +15926,34 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>0.52941176470588236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -15884,24 +15961,24 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59512195121951217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.59546925566343045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>12.954545454545455</v>
+        <v>13</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -15909,15 +15986,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>27.954545454545453</v>
+        <v>28.09090909090909</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>11.318181818181818</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.59512195121951206</v>
+        <v>0.59546925566343045</v>
       </c>
     </row>
   </sheetData>
@@ -15946,17 +16023,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15976,7 +16053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -15996,7 +16073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -16010,7 +16087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16024,7 +16101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -16044,7 +16121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -16058,7 +16135,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -16072,7 +16149,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>38</v>
       </c>
@@ -16086,7 +16163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -16100,7 +16177,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -16120,7 +16197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -16134,7 +16211,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -16148,7 +16225,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>38</v>
       </c>
@@ -16162,7 +16239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -16182,7 +16259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>86</v>
       </c>
@@ -16196,7 +16273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -16210,7 +16287,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -16227,7 +16304,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -16241,7 +16318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -16255,7 +16332,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>38</v>
       </c>
@@ -16269,7 +16346,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -16289,7 +16366,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -16303,7 +16380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16317,7 +16394,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -16331,7 +16408,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -16345,7 +16422,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -16365,7 +16442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -16379,7 +16456,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>85</v>
       </c>
@@ -16393,7 +16470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -16413,7 +16490,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -16433,7 +16510,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>86</v>
       </c>
@@ -16447,7 +16524,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -16461,7 +16538,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -16475,7 +16552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -16489,7 +16566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -16503,7 +16580,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -16540,17 +16617,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16570,7 +16647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -16590,7 +16667,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -16604,7 +16681,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -16624,7 +16701,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -16638,7 +16715,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -16652,7 +16729,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>137</v>
       </c>
@@ -16666,7 +16743,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -16686,7 +16763,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -16700,7 +16777,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -16720,7 +16797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>86</v>
       </c>
@@ -16734,7 +16811,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -16754,7 +16831,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>86</v>
       </c>
@@ -16768,7 +16845,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>137</v>
       </c>
@@ -16782,7 +16859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -16796,7 +16873,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -16810,7 +16887,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -16830,7 +16907,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -16844,7 +16921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -16858,7 +16935,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -16872,7 +16949,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -16892,7 +16969,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>86</v>
       </c>
@@ -16906,7 +16983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>85</v>
       </c>
@@ -16920,7 +16997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -16934,7 +17011,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -16954,7 +17031,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -16968,7 +17045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -16982,7 +17059,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -17002,7 +17079,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -17016,7 +17093,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>85</v>
       </c>
@@ -17030,7 +17107,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>137</v>
       </c>
@@ -17044,7 +17121,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -17064,7 +17141,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -17084,7 +17161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -17104,7 +17181,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -17118,7 +17195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -17132,7 +17209,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -17152,7 +17229,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -17166,7 +17243,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -17180,7 +17257,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -17194,7 +17271,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -17214,7 +17291,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -17234,7 +17311,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -17248,7 +17325,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -17262,7 +17339,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -17276,7 +17353,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>64</v>
       </c>
@@ -17307,17 +17384,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17337,7 +17414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -17357,7 +17434,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -17371,7 +17448,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -17391,7 +17468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -17405,7 +17482,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -17419,7 +17496,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -17439,7 +17516,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -17453,7 +17530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -17473,7 +17550,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -17487,7 +17564,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>137</v>
       </c>
@@ -17501,7 +17578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>151</v>
       </c>
@@ -17515,7 +17592,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -17529,7 +17606,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -17549,7 +17626,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -17563,7 +17640,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -17577,7 +17654,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>230</v>
       </c>
@@ -17597,7 +17674,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -17617,7 +17694,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -17631,7 +17708,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -17645,7 +17722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -17659,7 +17736,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>64</v>
       </c>
@@ -17673,7 +17750,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -17693,7 +17770,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -17707,7 +17784,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17721,7 +17798,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>38</v>
       </c>
@@ -17735,7 +17812,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -17755,7 +17832,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -17775,7 +17852,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -17795,7 +17872,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>151</v>
       </c>
@@ -17809,7 +17886,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -17823,7 +17900,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -17843,7 +17920,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -17863,7 +17940,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -17877,7 +17954,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -17897,7 +17974,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -17911,7 +17988,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -17925,7 +18002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -17939,7 +18016,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -17959,7 +18036,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -17973,7 +18050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -17987,7 +18064,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -18001,7 +18078,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -18021,7 +18098,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -18035,7 +18112,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -18049,7 +18126,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -18069,7 +18146,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -18083,7 +18160,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -18097,7 +18174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -18111,7 +18188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>64</v>
       </c>
@@ -18125,7 +18202,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -18145,7 +18222,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -18159,7 +18236,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18190,17 +18267,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18220,7 +18297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -18240,7 +18317,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -18254,7 +18331,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -18268,7 +18345,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -18282,7 +18359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -18296,7 +18373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -18316,7 +18393,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -18336,7 +18413,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>151</v>
       </c>
@@ -18350,7 +18427,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -18364,7 +18441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -18384,7 +18461,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -18404,7 +18481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -18418,7 +18495,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -18438,7 +18515,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -18452,7 +18529,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -18472,7 +18549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -18486,7 +18563,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -18500,7 +18577,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -18520,7 +18597,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -18534,7 +18611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -18548,7 +18625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -18562,7 +18639,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -18576,7 +18653,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>299</v>
       </c>
@@ -18596,7 +18673,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -18610,7 +18687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>26</v>
       </c>
@@ -18624,7 +18701,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -18638,7 +18715,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -18652,7 +18729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -18672,7 +18749,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -18686,7 +18763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -18700,7 +18777,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -18720,7 +18797,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -18734,7 +18811,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -18748,7 +18825,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -18762,7 +18839,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>308</v>
       </c>
@@ -18782,7 +18859,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -18802,7 +18879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -18816,7 +18893,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -18830,7 +18907,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -18850,7 +18927,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -18864,7 +18941,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -18878,7 +18955,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>312</v>
       </c>
@@ -18898,7 +18975,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -18912,7 +18989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -18926,7 +19003,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -18940,7 +19017,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>38</v>
       </c>
@@ -18954,7 +19031,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -18974,7 +19051,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -18988,7 +19065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>26</v>
       </c>
@@ -19002,7 +19079,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -19022,7 +19099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -19036,7 +19113,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -19050,7 +19127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -19070,7 +19147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -19084,7 +19161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -19098,7 +19175,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -19112,7 +19189,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -19132,7 +19209,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>381</v>
       </c>
@@ -19152,7 +19229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -19166,7 +19243,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -19197,17 +19274,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19227,7 +19304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -19247,7 +19324,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -19261,7 +19338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -19275,7 +19352,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -19289,7 +19366,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -19303,7 +19380,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -19323,7 +19400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -19337,7 +19414,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -19351,7 +19428,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -19365,7 +19442,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -19385,7 +19462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -19399,7 +19476,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -19413,7 +19490,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -19427,7 +19504,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -19441,7 +19518,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -19461,7 +19538,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -19475,7 +19552,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -19489,7 +19566,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -19503,7 +19580,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -19517,7 +19594,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -19537,7 +19614,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -19551,7 +19628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -19565,7 +19642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -19579,7 +19656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -19593,7 +19670,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -19607,7 +19684,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -19627,7 +19704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -19641,7 +19718,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -19661,7 +19738,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -19675,7 +19752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -19689,7 +19766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -19703,7 +19780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>746</v>
       </c>
@@ -19723,7 +19800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -19737,7 +19814,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -19757,7 +19834,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>151</v>
       </c>
@@ -19771,7 +19848,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -19785,7 +19862,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -19799,7 +19876,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -19813,7 +19890,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -19833,7 +19910,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -19847,7 +19924,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -19861,7 +19938,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -19875,7 +19952,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19889,7 +19966,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -19909,7 +19986,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>355</v>
       </c>
@@ -19929,7 +20006,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -19943,7 +20020,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -19957,7 +20034,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -19977,7 +20054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -19991,7 +20068,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -20011,7 +20088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>151</v>
       </c>
@@ -20025,7 +20102,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -20039,7 +20116,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -20059,7 +20136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -20073,7 +20150,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -20087,7 +20164,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>364</v>
       </c>
@@ -20107,7 +20184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -20121,7 +20198,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -20141,7 +20218,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>367</v>
       </c>
@@ -20155,7 +20232,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -20186,17 +20263,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -20216,7 +20293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -20236,7 +20313,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -20250,7 +20327,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -20264,7 +20341,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -20278,7 +20355,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -20298,7 +20375,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -20312,7 +20389,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -20326,7 +20403,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -20340,7 +20417,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -20354,7 +20431,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>376</v>
       </c>
@@ -20374,7 +20451,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -20388,7 +20465,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -20402,7 +20479,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -20416,7 +20493,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -20430,7 +20507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -20450,7 +20527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -20464,7 +20541,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -20484,7 +20561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -20498,7 +20575,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -20512,7 +20589,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -20532,7 +20609,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -20546,7 +20623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -20560,7 +20637,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>292</v>
       </c>
@@ -20580,7 +20657,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -20600,7 +20677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -20614,7 +20691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -20634,7 +20711,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -20648,7 +20725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>746</v>
       </c>
@@ -20668,7 +20745,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -20688,7 +20765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>308</v>
       </c>
@@ -20708,7 +20785,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>26</v>
       </c>
@@ -20722,7 +20799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -20736,7 +20813,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>38</v>
       </c>
@@ -20750,7 +20827,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>64</v>
       </c>
@@ -20764,7 +20841,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -20784,7 +20861,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>151</v>
       </c>
@@ -20798,7 +20875,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -20812,7 +20889,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -20832,7 +20909,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>26</v>
       </c>
@@ -20846,7 +20923,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>25</v>
       </c>
@@ -20860,7 +20937,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>38</v>
       </c>
@@ -20874,7 +20951,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>64</v>
       </c>
@@ -20888,7 +20965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>355</v>
       </c>
@@ -20908,7 +20985,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>312</v>
       </c>
@@ -20928,7 +21005,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -20942,7 +21019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>26</v>
       </c>
@@ -20956,7 +21033,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>25</v>
       </c>
@@ -20970,7 +21047,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>38</v>
       </c>
@@ -20984,7 +21061,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>189</v>
       </c>
@@ -21004,7 +21081,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>151</v>
       </c>
@@ -21018,7 +21095,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>362</v>
       </c>
@@ -21038,7 +21115,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>26</v>
       </c>
@@ -21052,7 +21129,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -21066,7 +21143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>38</v>
       </c>
@@ -21080,7 +21157,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>364</v>
       </c>
@@ -21100,7 +21177,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -21120,7 +21197,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -21134,7 +21211,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>38</v>
       </c>
@@ -21148,7 +21225,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>64</v>
       </c>
@@ -21162,7 +21239,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>366</v>
       </c>
@@ -21182,7 +21259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>367</v>
       </c>
@@ -21196,7 +21273,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -21227,17 +21304,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -21257,7 +21334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -21277,7 +21354,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -21291,7 +21368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -21305,7 +21382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -21325,7 +21402,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -21339,7 +21416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -21353,7 +21430,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -21367,7 +21444,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -21387,7 +21464,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -21401,7 +21478,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -21421,7 +21498,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -21441,7 +21518,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -21455,7 +21532,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -21469,7 +21546,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -21483,7 +21560,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -21500,7 +21577,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -21514,7 +21591,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -21528,7 +21605,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -21542,7 +21619,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>38</v>
       </c>
@@ -21556,7 +21633,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>64</v>
       </c>
@@ -21570,7 +21647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>382</v>
       </c>
@@ -21590,7 +21667,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -21604,7 +21681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -21618,7 +21695,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -21632,7 +21709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -21646,7 +21723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -21666,7 +21743,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>746</v>
       </c>
@@ -21686,7 +21763,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -21700,7 +21777,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -21714,7 +21791,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -21728,7 +21805,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>38</v>
       </c>
@@ -21742,7 +21819,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>64</v>
       </c>
@@ -21756,7 +21833,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -21776,7 +21853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -21790,7 +21867,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -21804,7 +21881,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -21824,7 +21901,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>151</v>
       </c>
@@ -21838,7 +21915,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -21852,7 +21929,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -21866,7 +21943,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -21880,7 +21957,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -21900,7 +21977,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -21914,7 +21991,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -21928,7 +22005,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -21942,7 +22019,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -21956,7 +22033,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>38</v>
       </c>
@@ -21970,7 +22047,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -21990,7 +22067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>312</v>
       </c>
@@ -22010,7 +22087,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -22024,7 +22101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -22038,7 +22115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -22052,7 +22129,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -22072,7 +22149,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -22086,7 +22163,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -22100,7 +22177,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>362</v>
       </c>
@@ -22120,7 +22197,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -22134,7 +22211,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -22148,7 +22225,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -22162,7 +22239,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -22182,7 +22259,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>26</v>
       </c>
@@ -22196,7 +22273,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>263</v>
       </c>
@@ -22216,7 +22293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>26</v>
       </c>
@@ -22230,7 +22307,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>25</v>
       </c>
@@ -22244,7 +22321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>38</v>
       </c>
@@ -22258,7 +22335,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>64</v>
       </c>
@@ -22272,7 +22349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>366</v>
       </c>
@@ -22292,7 +22369,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>367</v>
       </c>
@@ -22306,7 +22383,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -22320,7 +22397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>38</v>
       </c>
@@ -22334,7 +22411,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>64</v>
       </c>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5048" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27D5C890-22DA-4FC7-9733-2A5A0394FECE}"/>
+  <xr:revisionPtr revIDLastSave="5059" documentId="8_{B33A379A-342A-4FDA-8150-D4D50BE36A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6915FB0-4BB0-41EC-8DD1-18F514F899D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{AEBAD47E-15B5-4BBC-880D-948AA901B524}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4267" uniqueCount="794">
   <si>
     <t>YEAR</t>
   </si>
@@ -2437,6 +2437,9 @@
   </si>
   <si>
     <t>Mayar Sherif (EGYPT)</t>
+  </si>
+  <si>
+    <t>Mirra Andreeva (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2798,7 +2801,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,7 +2981,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3567,7 +3570,7 @@
                   <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.52380952380952384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6395,6 +6398,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6701,17 +6708,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6731,7 +6738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6751,7 +6758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6788,17 +6795,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6818,7 +6825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -6838,7 +6845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -6852,7 +6859,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -6866,7 +6873,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -6880,7 +6887,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -6894,7 +6901,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -6914,7 +6921,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -6928,7 +6935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6942,7 +6949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -6956,7 +6963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -6970,7 +6977,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -6984,7 +6991,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -6998,7 +7005,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -7018,7 +7025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -7032,7 +7039,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -7046,7 +7053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>38</v>
       </c>
@@ -7060,7 +7067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>64</v>
       </c>
@@ -7074,7 +7081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -7094,7 +7101,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -7108,7 +7115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -7122,7 +7129,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -7136,7 +7143,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -7150,7 +7157,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -7164,7 +7171,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -7184,7 +7191,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -7198,7 +7205,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -7212,7 +7219,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -7226,7 +7233,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -7246,7 +7253,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -7260,7 +7267,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -7274,7 +7281,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>64</v>
       </c>
@@ -7288,7 +7295,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>746</v>
       </c>
@@ -7308,7 +7315,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -7322,7 +7329,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -7336,7 +7343,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -7350,7 +7357,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -7364,7 +7371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>64</v>
       </c>
@@ -7378,7 +7385,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -7398,7 +7405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>26</v>
       </c>
@@ -7412,7 +7419,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7432,7 +7439,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -7446,7 +7453,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -7460,7 +7467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -7474,7 +7481,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -7494,7 +7501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>151</v>
       </c>
@@ -7508,7 +7515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -7522,7 +7529,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -7536,7 +7543,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -7550,7 +7557,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -7564,7 +7571,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>316</v>
       </c>
@@ -7584,7 +7591,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>151</v>
       </c>
@@ -7598,7 +7605,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -7612,7 +7619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>26</v>
       </c>
@@ -7626,7 +7633,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>25</v>
       </c>
@@ -7640,7 +7647,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>38</v>
       </c>
@@ -7654,7 +7661,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>312</v>
       </c>
@@ -7674,7 +7681,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -7694,7 +7701,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>151</v>
       </c>
@@ -7708,7 +7715,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7729,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>26</v>
       </c>
@@ -7736,7 +7743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>25</v>
       </c>
@@ -7750,7 +7757,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>38</v>
       </c>
@@ -7764,7 +7771,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>64</v>
       </c>
@@ -7778,7 +7785,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>362</v>
       </c>
@@ -7798,7 +7805,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -7812,7 +7819,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -7826,7 +7833,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>364</v>
       </c>
@@ -7846,7 +7853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>12</v>
       </c>
@@ -7860,7 +7867,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>26</v>
       </c>
@@ -7874,7 +7881,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>25</v>
       </c>
@@ -7888,7 +7895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>38</v>
       </c>
@@ -7902,7 +7909,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>64</v>
       </c>
@@ -7916,8 +7923,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>484</v>
       </c>
@@ -7937,7 +7944,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>26</v>
       </c>
@@ -7951,7 +7958,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>25</v>
       </c>
@@ -7965,7 +7972,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>38</v>
       </c>
@@ -7979,7 +7986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>64</v>
       </c>
@@ -7993,7 +8000,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>366</v>
       </c>
@@ -8013,7 +8020,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>367</v>
       </c>
@@ -8027,7 +8034,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>367</v>
       </c>
@@ -8041,7 +8048,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>38</v>
       </c>
@@ -8073,17 +8080,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8103,7 +8110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -8123,7 +8130,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -8137,7 +8144,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -8151,7 +8158,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -8171,7 +8178,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -8185,7 +8192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -8199,7 +8206,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -8213,7 +8220,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -8227,7 +8234,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -8241,7 +8248,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>64</v>
       </c>
@@ -8255,7 +8262,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -8275,7 +8282,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -8289,7 +8296,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -8303,7 +8310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -8317,7 +8324,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -8331,7 +8338,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>672</v>
       </c>
@@ -8351,7 +8358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -8365,7 +8372,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -8379,7 +8386,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -8393,7 +8400,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>746</v>
       </c>
@@ -8413,7 +8420,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -8427,7 +8434,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -8447,7 +8454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -8461,7 +8468,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -8475,7 +8482,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -8489,7 +8496,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -8503,7 +8510,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -8523,7 +8530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>151</v>
       </c>
@@ -8537,7 +8544,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -8551,7 +8558,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -8565,7 +8572,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -8579,7 +8586,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>38</v>
       </c>
@@ -8593,7 +8600,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -8613,7 +8620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -8627,7 +8634,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>506</v>
       </c>
@@ -8647,7 +8654,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -8661,7 +8668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>38</v>
       </c>
@@ -8675,7 +8682,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>64</v>
       </c>
@@ -8689,7 +8696,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>355</v>
       </c>
@@ -8709,7 +8716,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -8723,7 +8730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -8737,7 +8744,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -8751,7 +8758,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>64</v>
       </c>
@@ -8765,7 +8772,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -8785,7 +8792,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -8799,7 +8806,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -8813,7 +8820,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>26</v>
       </c>
@@ -8827,7 +8834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -8841,7 +8848,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>38</v>
       </c>
@@ -8855,7 +8862,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>64</v>
       </c>
@@ -8869,7 +8876,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -8889,7 +8896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -8909,7 +8916,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -8929,7 +8936,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>367</v>
       </c>
@@ -8943,7 +8950,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>367</v>
       </c>
@@ -8975,17 +8982,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9005,7 +9012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -9025,7 +9032,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -9039,7 +9046,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -9053,7 +9060,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>64</v>
       </c>
@@ -9067,7 +9074,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -9087,7 +9094,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -9101,7 +9108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -9115,7 +9122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9129,7 +9136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9143,7 +9150,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -9163,7 +9170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>308</v>
       </c>
@@ -9183,7 +9190,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -9203,7 +9210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>151</v>
       </c>
@@ -9217,7 +9224,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>248</v>
       </c>
@@ -9237,7 +9244,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -9257,7 +9264,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -9271,7 +9278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -9285,7 +9292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -9305,7 +9312,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>137</v>
       </c>
@@ -9319,7 +9326,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -9333,7 +9340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -9347,7 +9354,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -9361,7 +9368,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>362</v>
       </c>
@@ -9381,7 +9388,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -9413,17 +9420,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9443,7 +9450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -9463,7 +9470,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -9483,7 +9490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>151</v>
       </c>
@@ -9497,7 +9504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -9511,7 +9518,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -9525,7 +9532,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>418</v>
       </c>
@@ -9545,7 +9552,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -9559,7 +9566,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -9573,7 +9580,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>38</v>
       </c>
@@ -9587,7 +9594,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>64</v>
       </c>
@@ -9601,7 +9608,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>672</v>
       </c>
@@ -9621,7 +9628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9635,8 +9642,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -9656,7 +9663,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -9670,7 +9677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -9684,7 +9691,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -9704,7 +9711,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -9718,7 +9725,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -9732,7 +9739,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -9752,7 +9759,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -9766,7 +9773,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -9780,7 +9787,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -9794,7 +9801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -9814,7 +9821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>151</v>
       </c>
@@ -9828,7 +9835,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -9842,7 +9849,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>542</v>
       </c>
@@ -9862,7 +9869,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -9876,7 +9883,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -9896,7 +9903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>151</v>
       </c>
@@ -9910,7 +9917,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -9924,7 +9931,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -9938,7 +9945,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -9952,7 +9959,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>312</v>
       </c>
@@ -9972,7 +9979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -9986,7 +9993,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -10000,7 +10007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -10020,7 +10027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -10034,7 +10041,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -10048,7 +10055,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -10068,7 +10075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>151</v>
       </c>
@@ -10082,7 +10089,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -10096,7 +10103,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>26</v>
       </c>
@@ -10110,7 +10117,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -10124,7 +10131,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>551</v>
       </c>
@@ -10144,7 +10151,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -10176,17 +10183,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10206,7 +10213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -10226,7 +10233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10240,7 +10247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -10254,7 +10261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -10268,7 +10275,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -10282,7 +10289,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -10302,7 +10309,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -10316,7 +10323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -10330,7 +10337,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -10344,7 +10351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -10358,7 +10365,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>559</v>
       </c>
@@ -10378,7 +10385,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -10392,7 +10399,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>672</v>
       </c>
@@ -10412,7 +10419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10426,7 +10433,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -10440,7 +10447,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -10454,7 +10461,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -10468,7 +10475,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>64</v>
       </c>
@@ -10482,7 +10489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -10502,7 +10509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -10516,7 +10523,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -10530,7 +10537,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -10544,7 +10551,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -10558,7 +10565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>64</v>
       </c>
@@ -10572,7 +10579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>568</v>
       </c>
@@ -10589,7 +10596,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>571</v>
       </c>
@@ -10600,7 +10607,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>746</v>
       </c>
@@ -10620,7 +10627,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -10634,7 +10641,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -10648,7 +10655,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -10668,7 +10675,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -10706,17 +10713,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10736,7 +10743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>575</v>
       </c>
@@ -10756,7 +10763,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -10770,7 +10777,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -10790,7 +10797,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10804,7 +10811,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10818,7 +10825,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10850,17 +10857,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10880,7 +10887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>672</v>
       </c>
@@ -10900,7 +10907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>151</v>
       </c>
@@ -10914,7 +10921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -10934,7 +10941,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -10948,7 +10955,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -10962,7 +10969,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -10976,7 +10983,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -10990,7 +10997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -11004,7 +11011,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>746</v>
       </c>
@@ -11024,7 +11031,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -11038,7 +11045,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -11058,7 +11065,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -11078,7 +11085,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>575</v>
       </c>
@@ -11098,7 +11105,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11112,7 +11119,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -11132,7 +11139,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>151</v>
       </c>
@@ -11146,7 +11153,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>591</v>
       </c>
@@ -11166,7 +11173,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -11180,7 +11187,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -11194,7 +11201,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -11214,7 +11221,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11228,7 +11235,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -11248,7 +11255,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11262,7 +11269,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -11282,7 +11289,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>151</v>
       </c>
@@ -11296,7 +11303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -11310,7 +11317,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>362</v>
       </c>
@@ -11330,7 +11337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -11344,7 +11351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -11376,17 +11383,17 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11406,7 +11413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -11426,7 +11433,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -11446,7 +11453,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>605</v>
       </c>
@@ -11466,7 +11473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -11480,7 +11487,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>559</v>
       </c>
@@ -11500,7 +11507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -11514,7 +11521,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -11528,7 +11535,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -11548,7 +11555,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -11562,7 +11569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -11582,7 +11589,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>151</v>
       </c>
@@ -11596,7 +11603,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>612</v>
       </c>
@@ -11616,7 +11623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -11630,7 +11637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -11644,7 +11651,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>38</v>
       </c>
@@ -11658,7 +11665,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>64</v>
       </c>
@@ -11672,7 +11679,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>568</v>
       </c>
@@ -11689,7 +11696,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>600</v>
       </c>
@@ -11700,7 +11707,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -11720,7 +11727,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -11734,7 +11741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -11748,7 +11755,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>746</v>
       </c>
@@ -11768,7 +11775,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -11782,7 +11789,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -11802,7 +11809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11816,7 +11823,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -11830,7 +11837,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -11844,7 +11851,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -11864,7 +11871,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>151</v>
       </c>
@@ -11878,7 +11885,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>575</v>
       </c>
@@ -11898,7 +11905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>185</v>
       </c>
@@ -11918,7 +11925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -11932,7 +11939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -11946,7 +11953,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>591</v>
       </c>
@@ -11966,7 +11973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -11980,7 +11987,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -12000,7 +12007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -12014,7 +12021,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -12034,7 +12041,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -12048,7 +12055,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>189</v>
       </c>
@@ -12086,17 +12093,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12116,7 +12123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -12136,7 +12143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>627</v>
       </c>
@@ -12156,7 +12163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -12176,7 +12183,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -12190,7 +12197,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12204,7 +12211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12218,7 +12225,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12232,7 +12239,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>64</v>
       </c>
@@ -12246,7 +12253,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -12266,7 +12273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>151</v>
       </c>
@@ -12280,7 +12287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -12294,7 +12301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -12308,7 +12315,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -12322,7 +12329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>38</v>
       </c>
@@ -12336,7 +12343,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>64</v>
       </c>
@@ -12350,7 +12357,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -12367,7 +12374,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -12381,7 +12388,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -12395,7 +12402,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -12409,7 +12416,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -12429,7 +12436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>151</v>
       </c>
@@ -12443,7 +12450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>641</v>
       </c>
@@ -12463,7 +12470,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -12477,7 +12484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -12491,7 +12498,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -12523,17 +12530,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12553,7 +12560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>644</v>
       </c>
@@ -12573,7 +12580,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -12587,7 +12594,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -12607,7 +12614,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -12627,7 +12634,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -12641,7 +12648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -12655,7 +12662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -12669,7 +12676,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -12689,7 +12696,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -12703,7 +12710,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -12717,7 +12724,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>746</v>
       </c>
@@ -12737,7 +12744,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -12751,7 +12758,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -12771,7 +12778,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>151</v>
       </c>
@@ -12785,7 +12792,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -12799,7 +12806,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -12813,7 +12820,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -12833,7 +12840,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -12847,7 +12854,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -12861,7 +12868,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -12875,7 +12882,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>656</v>
       </c>
@@ -12895,7 +12902,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -12909,7 +12916,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -12923,7 +12930,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -12943,7 +12950,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -12957,7 +12964,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>312</v>
       </c>
@@ -12977,7 +12984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -12991,7 +12998,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -13005,7 +13012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>355</v>
       </c>
@@ -13025,7 +13032,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -13039,7 +13046,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>26</v>
       </c>
@@ -13053,7 +13060,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -13073,7 +13080,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>151</v>
       </c>
@@ -13087,7 +13094,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -13101,7 +13108,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>668</v>
       </c>
@@ -13121,7 +13128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -13135,7 +13142,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -13149,7 +13156,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>672</v>
       </c>
@@ -13169,7 +13176,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -13183,7 +13190,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -13197,7 +13204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -13211,7 +13218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>38</v>
       </c>
@@ -13225,7 +13232,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>64</v>
       </c>
@@ -13256,17 +13263,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13286,7 +13293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -13306,7 +13313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13320,7 +13327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13334,7 +13341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -13354,7 +13361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -13374,7 +13381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13388,7 +13395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -13402,7 +13409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -13416,7 +13423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -13436,7 +13443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -13450,7 +13457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -13470,7 +13477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -13484,7 +13491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -13515,17 +13522,17 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13545,7 +13552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>680</v>
       </c>
@@ -13565,7 +13572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -13579,7 +13586,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -13593,7 +13600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -13613,7 +13620,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -13627,7 +13634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -13641,7 +13648,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -13655,7 +13662,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -13675,7 +13682,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>418</v>
       </c>
@@ -13695,7 +13702,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -13709,7 +13716,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -13729,7 +13736,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -13743,7 +13750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -13777,7 +13784,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>746</v>
       </c>
@@ -13797,7 +13804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -13811,7 +13818,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -13825,7 +13832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -13845,7 +13852,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -13859,7 +13866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -13873,7 +13880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -13893,7 +13900,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>151</v>
       </c>
@@ -13907,7 +13914,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -13921,7 +13928,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>705</v>
       </c>
@@ -13941,7 +13948,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>26</v>
       </c>
@@ -13955,7 +13962,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>25</v>
       </c>
@@ -13969,7 +13976,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>355</v>
       </c>
@@ -13989,7 +13996,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -14003,7 +14010,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -14023,7 +14030,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>151</v>
       </c>
@@ -14037,7 +14044,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -14051,7 +14058,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -14065,7 +14072,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>715</v>
       </c>
@@ -14085,7 +14092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -14099,7 +14106,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>26</v>
       </c>
@@ -14113,7 +14120,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -14127,7 +14134,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>38</v>
       </c>
@@ -14154,21 +14161,21 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14188,7 +14195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>729</v>
       </c>
@@ -14208,7 +14215,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="C3" t="s">
         <v>26</v>
@@ -14223,7 +14230,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -14237,7 +14244,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>730</v>
       </c>
@@ -14257,7 +14264,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -14277,7 +14284,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -14291,7 +14298,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -14305,7 +14312,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -14319,7 +14326,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -14333,7 +14340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>38</v>
       </c>
@@ -14347,7 +14354,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -14367,7 +14374,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -14381,7 +14388,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>376</v>
       </c>
@@ -14401,7 +14408,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -14415,7 +14422,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -14429,7 +14436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>672</v>
       </c>
@@ -14449,7 +14456,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -14469,7 +14476,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -14483,7 +14490,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>742</v>
       </c>
@@ -14503,7 +14510,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -14517,7 +14524,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>746</v>
       </c>
@@ -14537,7 +14544,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -14557,7 +14564,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -14571,7 +14578,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -14591,7 +14598,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>751</v>
       </c>
@@ -14611,7 +14618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -14625,7 +14632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>653</v>
       </c>
@@ -14645,7 +14652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>185</v>
       </c>
@@ -14665,7 +14672,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -14679,7 +14686,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -14693,7 +14700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -14707,7 +14714,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>705</v>
       </c>
@@ -14727,7 +14734,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>757</v>
       </c>
@@ -14747,7 +14754,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -14761,7 +14768,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>355</v>
       </c>
@@ -14781,7 +14788,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -14795,7 +14802,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -14815,7 +14822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>151</v>
       </c>
@@ -14829,7 +14836,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>715</v>
       </c>
@@ -14849,7 +14856,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -14863,7 +14870,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>26</v>
       </c>
@@ -14877,7 +14884,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>25</v>
       </c>
@@ -14891,7 +14898,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -14911,7 +14918,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>763</v>
       </c>
@@ -14942,23 +14949,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" activeCellId="5" sqref="E5 E10 E15 E18 E20 E26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14978,7 +14985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -14998,7 +15005,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -15012,7 +15019,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -15026,7 +15033,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -15040,7 +15047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -15060,7 +15067,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -15074,7 +15081,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -15088,7 +15095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -15102,7 +15109,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>733</v>
       </c>
@@ -15122,7 +15129,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -15136,7 +15143,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -15150,7 +15157,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -15164,7 +15171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>376</v>
       </c>
@@ -15184,7 +15191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -15198,7 +15205,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>672</v>
       </c>
@@ -15218,7 +15225,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -15238,7 +15245,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -15252,7 +15259,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -15266,7 +15273,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -15280,7 +15287,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -15294,7 +15301,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>742</v>
       </c>
@@ -15314,7 +15321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -15328,7 +15335,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -15342,7 +15349,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>746</v>
       </c>
@@ -15362,7 +15369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -15376,7 +15383,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -15396,7 +15403,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -15410,7 +15417,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>26</v>
       </c>
@@ -15424,7 +15431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -15436,6 +15443,40 @@
       </c>
       <c r="F38" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>732</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" t="s">
+        <v>793</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -15455,17 +15496,17 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15485,7 +15526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -15506,7 +15547,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -15527,7 +15568,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -15548,7 +15589,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -15569,7 +15610,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -15590,7 +15631,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -15611,7 +15652,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -15632,7 +15673,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -15653,7 +15694,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -15674,7 +15715,7 @@
         <v>0.69811320754716977</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -15695,7 +15736,7 @@
         <v>0.85507246376811596</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -15716,7 +15757,7 @@
         <v>0.79069767441860461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -15737,7 +15778,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -15758,7 +15799,7 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -15779,7 +15820,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -15800,7 +15841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -15821,7 +15862,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -15842,7 +15883,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -15863,7 +15904,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -15884,7 +15925,7 @@
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -15905,7 +15946,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2023</v>
       </c>
@@ -15926,34 +15967,34 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C2:C23)</f>
@@ -15961,24 +16002,24 @@
       </c>
       <c r="D24" s="1">
         <f>SUM(D2:D23)</f>
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E23)</f>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F24" s="9">
         <f>(D24-E24)/D24</f>
-        <v>0.59546925566343045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.59450726978998381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="8">
         <f>AVERAGE(B2:B23)</f>
-        <v>13</v>
+        <v>13.045454545454545</v>
       </c>
       <c r="C25" s="8">
         <f>AVERAGE(C2:C23)</f>
@@ -15986,15 +16027,15 @@
       </c>
       <c r="D25" s="8">
         <f>AVERAGE(D2:D23)</f>
-        <v>28.09090909090909</v>
+        <v>28.136363636363637</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E2:E23)</f>
-        <v>11.363636363636363</v>
+        <v>11.409090909090908</v>
       </c>
       <c r="F25" s="9">
         <f>(D25-E25)/D25</f>
-        <v>0.59546925566343045</v>
+        <v>0.59450726978998381</v>
       </c>
     </row>
   </sheetData>
@@ -16023,17 +16064,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16053,7 +16094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -16073,7 +16114,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -16087,7 +16128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -16101,7 +16142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -16121,7 +16162,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
@@ -16135,7 +16176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -16149,7 +16190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>38</v>
       </c>
@@ -16163,7 +16204,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -16177,7 +16218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -16197,7 +16238,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -16211,7 +16252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -16225,7 +16266,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>38</v>
       </c>
@@ -16239,7 +16280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -16259,7 +16300,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>86</v>
       </c>
@@ -16273,7 +16314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -16287,7 +16328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -16304,7 +16345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -16318,7 +16359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -16332,7 +16373,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>38</v>
       </c>
@@ -16346,7 +16387,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -16366,7 +16407,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -16380,7 +16421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -16394,7 +16435,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -16408,7 +16449,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -16422,7 +16463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -16442,7 +16483,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -16456,7 +16497,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>85</v>
       </c>
@@ -16470,7 +16511,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -16490,7 +16531,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -16510,7 +16551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>86</v>
       </c>
@@ -16524,7 +16565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -16538,7 +16579,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -16552,7 +16593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -16566,7 +16607,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -16580,7 +16621,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -16617,17 +16658,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16647,7 +16688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -16667,7 +16708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -16681,7 +16722,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -16701,7 +16742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -16715,7 +16756,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -16729,7 +16770,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>137</v>
       </c>
@@ -16743,7 +16784,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -16763,7 +16804,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -16777,7 +16818,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>672</v>
       </c>
@@ -16797,7 +16838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>86</v>
       </c>
@@ -16811,7 +16852,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -16831,7 +16872,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>86</v>
       </c>
@@ -16845,7 +16886,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>137</v>
       </c>
@@ -16859,7 +16900,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -16873,7 +16914,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -16887,7 +16928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -16907,7 +16948,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>86</v>
       </c>
@@ -16921,7 +16962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>85</v>
       </c>
@@ -16935,7 +16976,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -16949,7 +16990,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -16969,7 +17010,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>86</v>
       </c>
@@ -16983,7 +17024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>85</v>
       </c>
@@ -16997,7 +17038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -17011,7 +17052,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -17031,7 +17072,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
@@ -17045,7 +17086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>151</v>
       </c>
@@ -17059,7 +17100,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -17079,7 +17120,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -17093,7 +17134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>85</v>
       </c>
@@ -17107,7 +17148,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>137</v>
       </c>
@@ -17121,7 +17162,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -17141,7 +17182,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -17161,7 +17202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -17181,7 +17222,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>151</v>
       </c>
@@ -17195,7 +17236,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -17209,7 +17250,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -17229,7 +17270,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -17243,7 +17284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -17257,7 +17298,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -17271,7 +17312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -17291,7 +17332,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -17311,7 +17352,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -17325,7 +17366,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>25</v>
       </c>
@@ -17339,7 +17380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -17353,7 +17394,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>64</v>
       </c>
@@ -17384,17 +17425,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17414,7 +17455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -17434,7 +17475,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -17448,7 +17489,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -17468,7 +17509,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>151</v>
       </c>
@@ -17482,7 +17523,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -17496,7 +17537,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -17516,7 +17557,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -17530,7 +17571,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -17550,7 +17591,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>86</v>
       </c>
@@ -17564,7 +17605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>137</v>
       </c>
@@ -17578,7 +17619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>151</v>
       </c>
@@ -17592,7 +17633,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -17606,7 +17647,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -17626,7 +17667,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>151</v>
       </c>
@@ -17640,7 +17681,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -17654,7 +17695,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>230</v>
       </c>
@@ -17674,7 +17715,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -17694,7 +17735,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -17708,7 +17749,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -17722,7 +17763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -17736,7 +17777,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>64</v>
       </c>
@@ -17750,7 +17791,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -17770,7 +17811,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -17784,7 +17825,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>25</v>
       </c>
@@ -17798,7 +17839,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>38</v>
       </c>
@@ -17812,7 +17853,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -17832,7 +17873,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -17852,7 +17893,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -17872,7 +17913,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>151</v>
       </c>
@@ -17886,7 +17927,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -17900,7 +17941,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -17920,7 +17961,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -17940,7 +17981,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -17954,7 +17995,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -17974,7 +18015,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -17988,7 +18029,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -18002,7 +18043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -18016,7 +18057,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -18036,7 +18077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -18050,7 +18091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -18064,7 +18105,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -18078,7 +18119,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -18098,7 +18139,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -18112,7 +18153,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -18126,7 +18167,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -18146,7 +18187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -18160,7 +18201,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -18174,7 +18215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -18188,7 +18229,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>64</v>
       </c>
@@ -18202,7 +18243,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -18222,7 +18263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -18236,7 +18277,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -18267,17 +18308,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18297,7 +18338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -18317,7 +18358,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -18331,7 +18372,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -18345,7 +18386,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -18359,7 +18400,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -18373,7 +18414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -18393,7 +18434,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -18413,7 +18454,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>151</v>
       </c>
@@ -18427,7 +18468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -18441,7 +18482,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>327</v>
       </c>
@@ -18461,7 +18502,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -18481,7 +18522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -18495,7 +18536,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -18515,7 +18556,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -18529,7 +18570,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -18549,7 +18590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -18563,7 +18604,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -18577,7 +18618,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -18597,7 +18638,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -18611,7 +18652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -18625,7 +18666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -18639,7 +18680,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -18653,7 +18694,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>299</v>
       </c>
@@ -18673,7 +18714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -18687,7 +18728,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>26</v>
       </c>
@@ -18701,7 +18742,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>25</v>
       </c>
@@ -18715,7 +18756,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -18729,7 +18770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -18749,7 +18790,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -18763,7 +18804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -18777,7 +18818,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -18797,7 +18838,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>151</v>
       </c>
@@ -18811,7 +18852,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -18825,7 +18866,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>26</v>
       </c>
@@ -18839,7 +18880,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>308</v>
       </c>
@@ -18859,7 +18900,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -18879,7 +18920,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -18893,7 +18934,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -18907,7 +18948,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -18927,7 +18968,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>26</v>
       </c>
@@ -18941,7 +18982,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>25</v>
       </c>
@@ -18955,7 +18996,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>312</v>
       </c>
@@ -18975,7 +19016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -18989,7 +19030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -19003,7 +19044,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>25</v>
       </c>
@@ -19017,7 +19058,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>38</v>
       </c>
@@ -19031,7 +19072,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -19051,7 +19092,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -19065,7 +19106,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>26</v>
       </c>
@@ -19079,7 +19120,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -19099,7 +19140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -19113,7 +19154,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -19127,7 +19168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -19147,7 +19188,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -19161,7 +19202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -19175,7 +19216,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -19189,7 +19230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -19209,7 +19250,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>381</v>
       </c>
@@ -19229,7 +19270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>26</v>
       </c>
@@ -19243,7 +19284,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>25</v>
       </c>
@@ -19274,17 +19315,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19304,7 +19345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -19324,7 +19365,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -19338,7 +19379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -19352,7 +19393,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -19366,7 +19407,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -19380,7 +19421,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -19400,7 +19441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>151</v>
       </c>
@@ -19414,7 +19455,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -19428,7 +19469,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -19442,7 +19483,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -19462,7 +19503,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -19476,7 +19517,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -19490,7 +19531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -19504,7 +19545,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -19518,7 +19559,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -19538,7 +19579,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -19552,7 +19593,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -19566,7 +19607,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -19580,7 +19621,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -19594,7 +19635,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -19614,7 +19655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -19628,7 +19669,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -19642,7 +19683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -19656,7 +19697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -19670,7 +19711,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -19684,7 +19725,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -19704,7 +19745,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -19718,7 +19759,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -19738,7 +19779,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>26</v>
       </c>
@@ -19752,7 +19793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -19766,7 +19807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -19780,7 +19821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>746</v>
       </c>
@@ -19800,7 +19841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
@@ -19814,7 +19855,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -19834,7 +19875,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>151</v>
       </c>
@@ -19848,7 +19889,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -19862,7 +19903,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>
@@ -19876,7 +19917,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -19890,7 +19931,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -19910,7 +19951,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>151</v>
       </c>
@@ -19924,7 +19965,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -19938,7 +19979,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -19952,7 +19993,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>25</v>
       </c>
@@ -19966,7 +20007,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -19986,7 +20027,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>355</v>
       </c>
@@ -20006,7 +20047,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -20020,7 +20061,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -20034,7 +20075,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -20054,7 +20095,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -20068,7 +20109,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -20088,7 +20129,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>151</v>
       </c>
@@ -20102,7 +20143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -20116,7 +20157,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -20136,7 +20177,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>26</v>
       </c>
@@ -20150,7 +20191,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>25</v>
       </c>
@@ -20164,7 +20205,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>364</v>
       </c>
@@ -20184,7 +20225,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -20198,7 +20239,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -20218,7 +20259,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>367</v>
       </c>
@@ -20232,7 +20273,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -20263,17 +20304,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -20293,7 +20334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -20313,7 +20354,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -20327,7 +20368,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -20341,7 +20382,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -20355,7 +20396,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -20375,7 +20416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>151</v>
       </c>
@@ -20389,7 +20430,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -20403,7 +20444,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -20417,7 +20458,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -20431,7 +20472,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>376</v>
       </c>
@@ -20451,7 +20492,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -20465,7 +20506,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -20479,7 +20520,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -20493,7 +20534,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -20507,7 +20548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>672</v>
       </c>
@@ -20527,7 +20568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -20541,7 +20582,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -20561,7 +20602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -20575,7 +20616,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -20589,7 +20630,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -20609,7 +20650,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -20623,7 +20664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -20637,7 +20678,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>292</v>
       </c>
@@ -20657,7 +20698,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -20677,7 +20718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -20691,7 +20732,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -20711,7 +20752,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -20725,7 +20766,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>746</v>
       </c>
@@ -20745,7 +20786,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -20765,7 +20806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>308</v>
       </c>
@@ -20785,7 +20826,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>26</v>
       </c>
@@ -20799,7 +20840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -20813,7 +20854,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>38</v>
       </c>
@@ -20827,7 +20868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>64</v>
       </c>
@@ -20841,7 +20882,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -20861,7 +20902,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>151</v>
       </c>
@@ -20875,7 +20916,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>12</v>
       </c>
@@ -20889,7 +20930,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -20909,7 +20950,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>26</v>
       </c>
@@ -20923,7 +20964,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>25</v>
       </c>
@@ -20937,7 +20978,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>38</v>
       </c>
@@ -20951,7 +20992,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>64</v>
       </c>
@@ -20965,7 +21006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>355</v>
       </c>
@@ -20985,7 +21026,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>312</v>
       </c>
@@ -21005,7 +21046,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -21019,7 +21060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>26</v>
       </c>
@@ -21033,7 +21074,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>25</v>
       </c>
@@ -21047,7 +21088,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>38</v>
       </c>
@@ -21061,7 +21102,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>189</v>
       </c>
@@ -21081,7 +21122,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>151</v>
       </c>
@@ -21095,7 +21136,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>362</v>
       </c>
@@ -21115,7 +21156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>26</v>
       </c>
@@ -21129,7 +21170,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>25</v>
       </c>
@@ -21143,7 +21184,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>38</v>
       </c>
@@ -21157,7 +21198,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>364</v>
       </c>
@@ -21177,7 +21218,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>272</v>
       </c>
@@ -21197,7 +21238,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>25</v>
       </c>
@@ -21211,7 +21252,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>38</v>
       </c>
@@ -21225,7 +21266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>64</v>
       </c>
@@ -21239,7 +21280,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>366</v>
       </c>
@@ -21259,7 +21300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>367</v>
       </c>
@@ -21273,7 +21314,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -21304,17 +21345,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -21334,7 +21375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -21354,7 +21395,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -21368,7 +21409,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -21382,7 +21423,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -21402,7 +21443,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>151</v>
       </c>
@@ -21416,7 +21457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -21430,7 +21471,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -21444,7 +21485,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -21464,7 +21505,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -21478,7 +21519,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>418</v>
       </c>
@@ -21498,7 +21539,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>672</v>
       </c>
@@ -21518,7 +21559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -21532,7 +21573,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -21546,7 +21587,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -21560,7 +21601,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -21577,7 +21618,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -21591,7 +21632,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -21605,7 +21646,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -21619,7 +21660,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>38</v>
       </c>
@@ -21633,7 +21674,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>64</v>
       </c>
@@ -21647,7 +21688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>382</v>
       </c>
@@ -21667,7 +21708,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -21681,7 +21722,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -21695,7 +21736,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -21709,7 +21750,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -21723,7 +21764,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -21743,7 +21784,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>746</v>
       </c>
@@ -21763,7 +21804,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>12</v>
       </c>
@@ -21777,7 +21818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>26</v>
       </c>
@@ -21791,7 +21832,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -21805,7 +21846,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>38</v>
       </c>
@@ -21819,7 +21860,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>64</v>
       </c>
@@ -21833,7 +21874,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -21853,7 +21894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>26</v>
       </c>
@@ -21867,7 +21908,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -21881,7 +21922,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -21901,7 +21942,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>151</v>
       </c>
@@ -21915,7 +21956,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -21929,7 +21970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>26</v>
       </c>
@@ -21943,7 +21984,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -21957,7 +21998,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -21977,7 +22018,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>151</v>
       </c>
@@ -21991,7 +22032,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -22005,7 +22046,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>26</v>
       </c>
@@ -22019,7 +22060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -22033,7 +22074,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>38</v>
       </c>
@@ -22047,7 +22088,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -22067,7 +22108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>312</v>
       </c>
@@ -22087,7 +22128,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>26</v>
       </c>
@@ -22101,7 +22142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -22115,7 +22156,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>38</v>
       </c>
@@ -22129,7 +22170,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -22149,7 +22190,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>151</v>
       </c>
@@ -22163,7 +22204,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>12</v>
       </c>
@@ -22177,7 +22218,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>362</v>
       </c>
@@ -22197,7 +22238,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>26</v>
       </c>
@@ -22211,7 +22252,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>25</v>
       </c>
@@ -22225,7 +22266,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>38</v>
       </c>
@@ -22239,7 +22280,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -22259,7 +22300,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>26</v>
       </c>
@@ -22273,7 +22314,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>263</v>
       </c>
@@ -22293,7 +22334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>26</v>
       </c>
@@ -22307,7 +22348,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>25</v>
       </c>
@@ -22321,7 +22362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>38</v>
       </c>
@@ -22335,7 +22376,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>64</v>
       </c>
@@ -22349,7 +22390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>366</v>
       </c>
@@ -22369,7 +22410,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>367</v>
       </c>
@@ -22383,7 +22424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -22397,7 +22438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>38</v>
       </c>
@@ -22411,7 +22452,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>64</v>
       </c>

--- a/Tennis/WTA Tour/Victória Azárenka.xlsx
+++ b/Tennis/WTA Tour/Victória Azárenka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreads